--- a/public/Lucas1.xlsx
+++ b/public/Lucas1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\PROYECTOS\ELmundo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB361377-6AF0-4B1B-815C-6DCD7AA9DADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80496E02-AEC5-4B83-96D5-94E8B864EE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="0JAD53RLcpRv07vybKRuqA1nanMENJfANkC3Dr+mpuU="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6039" uniqueCount="4439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6286" uniqueCount="4676">
   <si>
     <t>CODIGO</t>
   </si>
@@ -13348,17 +13343,735 @@
   </si>
   <si>
     <t>https://www.lucaselectricalsa.com/productos/c/LEIGG041.jpg?156</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTF01SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTF02SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTF03SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTF07SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTF10SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTF23SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTF26ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTF30CS.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTF35SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG03SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG101SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG61SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG62SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG65SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG71SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG72SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG73SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG76SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG78SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG79SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTG80SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTR05SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTR06SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTR08SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTR11SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTR13SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTR16SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT02SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT06SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT08SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT09SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT42SC.png?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT46SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT54SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT58SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT59SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT63SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT64SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTT66SC.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV01ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV02ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV03ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV08ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV09ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV14ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV16ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV17ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV19ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV20ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV25ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV28ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEIHTV30ST.jpg?706</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA002.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA011.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA006.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA007.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA008.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA009.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA010.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA012.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA014.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA015.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA016.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA017.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA018.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA019.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA020.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA021.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA022.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA023.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA024.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA025.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSA026.jpg?161</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE001.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE002.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE003.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE004.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE005.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE006.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE021.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE032.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE051.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE007.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE008.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE009.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE010.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE011.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE012.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE013.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE014.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE015.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE016.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE017.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE018.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE020.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE022.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE023.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE024.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE025.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE026.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE027.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE028.jpg?554</t>
+  </si>
+  <si>
+    <t>NO IMAGEN.</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSE052.jpg?554</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO001.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO002.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO003.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO004.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO005.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO006.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO009.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO010.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO007.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO013.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO014.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO015.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO018.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO024.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO028.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO029.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO030.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO037.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO039.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO041.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO042.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO043.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSO044.jpg?111</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR001.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR002.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR003.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR004.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR005.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR006.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR007.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR008.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR009.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR010.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR011.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR012.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR013.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR014.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR015.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR016.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR017.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR018.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR019.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR020.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR021.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR022.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR023.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR024.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR025.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR026.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR027.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR028.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR029.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR030.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR031.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR032.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR033.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR034.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR035.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR036.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR037.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR038.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR039.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR040.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR041.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR042.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR043.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR044.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR045.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR046.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR047.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR048.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR049.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR050.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR051.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR052.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR053.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR054.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR055.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR056.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR057.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR058.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR059.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR060.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR061.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR062.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR063.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR064.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR065.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR066.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR067.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR068.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR069.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR070.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR071.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR072.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR073.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR074.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR075.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR076.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR077.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR078.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR107.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR126.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR135.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSR140.jpg?215</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST001.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST011.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST002.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST003.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST004.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST005.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST006.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST007.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST008.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST009.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST010.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST012.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST013.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMST016.jpg?1352</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP001.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP002.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP003.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP004.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP005.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP006.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP007.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP008.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP009.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP025.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP059.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP063.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP085.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP093.jpg?498</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13420,50 +14133,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{76A92A50-1450-452B-B0DE-0E3F5883DEEC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13678,9 +14396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G192" sqref="G192"/>
+    <sheetView tabSelected="1" topLeftCell="A691" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B692" sqref="B692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -32497,7 +33215,9 @@
       <c r="A444" s="2" t="s">
         <v>2200</v>
       </c>
-      <c r="B444" s="2"/>
+      <c r="B444" s="11" t="s">
+        <v>4439</v>
+      </c>
       <c r="C444" s="2" t="s">
         <v>841</v>
       </c>
@@ -32537,7 +33257,9 @@
       <c r="A445" s="2" t="s">
         <v>2205</v>
       </c>
-      <c r="B445" s="2"/>
+      <c r="B445" s="11" t="s">
+        <v>4440</v>
+      </c>
       <c r="C445" s="2" t="s">
         <v>15</v>
       </c>
@@ -32577,7 +33299,9 @@
       <c r="A446" s="2" t="s">
         <v>2209</v>
       </c>
-      <c r="B446" s="2"/>
+      <c r="B446" s="11" t="s">
+        <v>4441</v>
+      </c>
       <c r="C446" s="2" t="s">
         <v>15</v>
       </c>
@@ -32617,7 +33341,9 @@
       <c r="A447" s="2" t="s">
         <v>2213</v>
       </c>
-      <c r="B447" s="2"/>
+      <c r="B447" s="11" t="s">
+        <v>4442</v>
+      </c>
       <c r="C447" s="2" t="s">
         <v>2214</v>
       </c>
@@ -32657,7 +33383,9 @@
       <c r="A448" s="2" t="s">
         <v>2218</v>
       </c>
-      <c r="B448" s="2"/>
+      <c r="B448" s="11" t="s">
+        <v>4443</v>
+      </c>
       <c r="C448" s="2" t="s">
         <v>841</v>
       </c>
@@ -32697,7 +33425,9 @@
       <c r="A449" s="2" t="s">
         <v>2222</v>
       </c>
-      <c r="B449" s="2"/>
+      <c r="B449" s="11" t="s">
+        <v>4444</v>
+      </c>
       <c r="C449" s="2" t="s">
         <v>15</v>
       </c>
@@ -32737,7 +33467,9 @@
       <c r="A450" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="B450" s="2"/>
+      <c r="B450" s="11" t="s">
+        <v>4445</v>
+      </c>
       <c r="C450" s="2" t="s">
         <v>841</v>
       </c>
@@ -32779,7 +33511,9 @@
       <c r="A451" s="2" t="s">
         <v>2231</v>
       </c>
-      <c r="B451" s="2"/>
+      <c r="B451" s="11" t="s">
+        <v>4446</v>
+      </c>
       <c r="C451" s="2" t="s">
         <v>841</v>
       </c>
@@ -32817,7 +33551,9 @@
       <c r="A452" s="2" t="s">
         <v>2234</v>
       </c>
-      <c r="B452" s="2"/>
+      <c r="B452" s="11" t="s">
+        <v>4447</v>
+      </c>
       <c r="C452" s="2" t="s">
         <v>15</v>
       </c>
@@ -32857,7 +33593,9 @@
       <c r="A453" s="2" t="s">
         <v>2238</v>
       </c>
-      <c r="B453" s="2"/>
+      <c r="B453" s="11" t="s">
+        <v>4448</v>
+      </c>
       <c r="C453" s="2" t="s">
         <v>2239</v>
       </c>
@@ -32897,7 +33635,9 @@
       <c r="A454" s="2" t="s">
         <v>2243</v>
       </c>
-      <c r="B454" s="2"/>
+      <c r="B454" s="11" t="s">
+        <v>4449</v>
+      </c>
       <c r="C454" s="2" t="s">
         <v>1999</v>
       </c>
@@ -32937,7 +33677,9 @@
       <c r="A455" s="2" t="s">
         <v>2247</v>
       </c>
-      <c r="B455" s="2"/>
+      <c r="B455" s="11" t="s">
+        <v>4450</v>
+      </c>
       <c r="C455" s="2" t="s">
         <v>2248</v>
       </c>
@@ -32977,7 +33719,9 @@
       <c r="A456" s="2" t="s">
         <v>2252</v>
       </c>
-      <c r="B456" s="2"/>
+      <c r="B456" s="11" t="s">
+        <v>4451</v>
+      </c>
       <c r="C456" s="2" t="s">
         <v>2248</v>
       </c>
@@ -33017,7 +33761,9 @@
       <c r="A457" s="2" t="s">
         <v>2256</v>
       </c>
-      <c r="B457" s="2"/>
+      <c r="B457" s="11" t="s">
+        <v>4452</v>
+      </c>
       <c r="C457" s="2" t="s">
         <v>2248</v>
       </c>
@@ -33057,7 +33803,9 @@
       <c r="A458" s="2" t="s">
         <v>2260</v>
       </c>
-      <c r="B458" s="2"/>
+      <c r="B458" s="11" t="s">
+        <v>4453</v>
+      </c>
       <c r="C458" s="2" t="s">
         <v>2248</v>
       </c>
@@ -33097,7 +33845,9 @@
       <c r="A459" s="2" t="s">
         <v>2264</v>
       </c>
-      <c r="B459" s="2"/>
+      <c r="B459" s="11" t="s">
+        <v>4454</v>
+      </c>
       <c r="C459" s="2" t="s">
         <v>2248</v>
       </c>
@@ -33137,7 +33887,9 @@
       <c r="A460" s="2" t="s">
         <v>2268</v>
       </c>
-      <c r="B460" s="2"/>
+      <c r="B460" s="11" t="s">
+        <v>4455</v>
+      </c>
       <c r="C460" s="2" t="s">
         <v>2269</v>
       </c>
@@ -33177,7 +33929,9 @@
       <c r="A461" s="2" t="s">
         <v>2273</v>
       </c>
-      <c r="B461" s="2"/>
+      <c r="B461" s="11" t="s">
+        <v>4456</v>
+      </c>
       <c r="C461" s="2" t="s">
         <v>1999</v>
       </c>
@@ -33217,7 +33971,9 @@
       <c r="A462" s="2" t="s">
         <v>2277</v>
       </c>
-      <c r="B462" s="2"/>
+      <c r="B462" s="11" t="s">
+        <v>4457</v>
+      </c>
       <c r="C462" s="2" t="s">
         <v>2239</v>
       </c>
@@ -33257,7 +34013,9 @@
       <c r="A463" s="2" t="s">
         <v>2281</v>
       </c>
-      <c r="B463" s="2"/>
+      <c r="B463" s="11" t="s">
+        <v>4458</v>
+      </c>
       <c r="C463" s="2" t="s">
         <v>1999</v>
       </c>
@@ -33297,7 +34055,9 @@
       <c r="A464" s="2" t="s">
         <v>2285</v>
       </c>
-      <c r="B464" s="2"/>
+      <c r="B464" s="11" t="s">
+        <v>4459</v>
+      </c>
       <c r="C464" s="2" t="s">
         <v>2248</v>
       </c>
@@ -33337,7 +34097,9 @@
       <c r="A465" s="2" t="s">
         <v>2289</v>
       </c>
-      <c r="B465" s="2"/>
+      <c r="B465" s="11" t="s">
+        <v>4460</v>
+      </c>
       <c r="C465" s="2" t="s">
         <v>2290</v>
       </c>
@@ -33375,7 +34137,9 @@
       <c r="A466" s="2" t="s">
         <v>2293</v>
       </c>
-      <c r="B466" s="2"/>
+      <c r="B466" s="11" t="s">
+        <v>4461</v>
+      </c>
       <c r="C466" s="2" t="s">
         <v>2290</v>
       </c>
@@ -33413,7 +34177,9 @@
       <c r="A467" s="2" t="s">
         <v>2296</v>
       </c>
-      <c r="B467" s="2"/>
+      <c r="B467" s="11" t="s">
+        <v>4462</v>
+      </c>
       <c r="C467" s="2" t="s">
         <v>2290</v>
       </c>
@@ -33453,7 +34219,9 @@
       <c r="A468" s="2" t="s">
         <v>2300</v>
       </c>
-      <c r="B468" s="2"/>
+      <c r="B468" s="11" t="s">
+        <v>4463</v>
+      </c>
       <c r="C468" s="2" t="s">
         <v>2290</v>
       </c>
@@ -33493,7 +34261,9 @@
       <c r="A469" s="2" t="s">
         <v>2304</v>
       </c>
-      <c r="B469" s="2"/>
+      <c r="B469" s="11" t="s">
+        <v>4464</v>
+      </c>
       <c r="C469" s="2" t="s">
         <v>2290</v>
       </c>
@@ -33533,7 +34303,9 @@
       <c r="A470" s="2" t="s">
         <v>2308</v>
       </c>
-      <c r="B470" s="2"/>
+      <c r="B470" s="11" t="s">
+        <v>4465</v>
+      </c>
       <c r="C470" s="2" t="s">
         <v>2290</v>
       </c>
@@ -33573,7 +34345,9 @@
       <c r="A471" s="2" t="s">
         <v>2312</v>
       </c>
-      <c r="B471" s="2"/>
+      <c r="B471" s="11" t="s">
+        <v>4466</v>
+      </c>
       <c r="C471" s="2" t="s">
         <v>932</v>
       </c>
@@ -33613,7 +34387,9 @@
       <c r="A472" s="2" t="s">
         <v>2316</v>
       </c>
-      <c r="B472" s="2"/>
+      <c r="B472" s="11" t="s">
+        <v>4467</v>
+      </c>
       <c r="C472" s="2" t="s">
         <v>932</v>
       </c>
@@ -33653,7 +34429,9 @@
       <c r="A473" s="2" t="s">
         <v>2320</v>
       </c>
-      <c r="B473" s="2"/>
+      <c r="B473" s="11" t="s">
+        <v>4468</v>
+      </c>
       <c r="C473" s="2" t="s">
         <v>932</v>
       </c>
@@ -33693,7 +34471,9 @@
       <c r="A474" s="2" t="s">
         <v>2324</v>
       </c>
-      <c r="B474" s="2"/>
+      <c r="B474" s="11" t="s">
+        <v>4469</v>
+      </c>
       <c r="C474" s="2" t="s">
         <v>932</v>
       </c>
@@ -33733,7 +34513,9 @@
       <c r="A475" s="2" t="s">
         <v>2328</v>
       </c>
-      <c r="B475" s="2"/>
+      <c r="B475" s="11" t="s">
+        <v>4470</v>
+      </c>
       <c r="C475" s="2" t="s">
         <v>932</v>
       </c>
@@ -33773,7 +34555,9 @@
       <c r="A476" s="2" t="s">
         <v>2332</v>
       </c>
-      <c r="B476" s="2"/>
+      <c r="B476" s="11" t="s">
+        <v>4471</v>
+      </c>
       <c r="C476" s="2" t="s">
         <v>932</v>
       </c>
@@ -33813,7 +34597,9 @@
       <c r="A477" s="2" t="s">
         <v>2336</v>
       </c>
-      <c r="B477" s="2"/>
+      <c r="B477" s="11" t="s">
+        <v>4472</v>
+      </c>
       <c r="C477" s="2" t="s">
         <v>932</v>
       </c>
@@ -33853,7 +34639,9 @@
       <c r="A478" s="2" t="s">
         <v>2340</v>
       </c>
-      <c r="B478" s="2"/>
+      <c r="B478" s="11" t="s">
+        <v>4473</v>
+      </c>
       <c r="C478" s="2" t="s">
         <v>932</v>
       </c>
@@ -33893,7 +34681,9 @@
       <c r="A479" s="2" t="s">
         <v>2344</v>
       </c>
-      <c r="B479" s="2"/>
+      <c r="B479" s="11" t="s">
+        <v>4474</v>
+      </c>
       <c r="C479" s="2" t="s">
         <v>2345</v>
       </c>
@@ -33933,7 +34723,9 @@
       <c r="A480" s="2" t="s">
         <v>2349</v>
       </c>
-      <c r="B480" s="2"/>
+      <c r="B480" s="11" t="s">
+        <v>4475</v>
+      </c>
       <c r="C480" s="2" t="s">
         <v>932</v>
       </c>
@@ -33973,7 +34765,9 @@
       <c r="A481" s="2" t="s">
         <v>2353</v>
       </c>
-      <c r="B481" s="2"/>
+      <c r="B481" s="11" t="s">
+        <v>4476</v>
+      </c>
       <c r="C481" s="2" t="s">
         <v>932</v>
       </c>
@@ -34013,7 +34807,9 @@
       <c r="A482" s="2" t="s">
         <v>2357</v>
       </c>
-      <c r="B482" s="2"/>
+      <c r="B482" s="11" t="s">
+        <v>4477</v>
+      </c>
       <c r="C482" s="2" t="s">
         <v>932</v>
       </c>
@@ -34053,7 +34849,9 @@
       <c r="A483" s="2" t="s">
         <v>2361</v>
       </c>
-      <c r="B483" s="2"/>
+      <c r="B483" s="11" t="s">
+        <v>4478</v>
+      </c>
       <c r="C483" s="2" t="s">
         <v>892</v>
       </c>
@@ -34093,7 +34891,9 @@
       <c r="A484" s="2" t="s">
         <v>2365</v>
       </c>
-      <c r="B484" s="2"/>
+      <c r="B484" s="11" t="s">
+        <v>4479</v>
+      </c>
       <c r="C484" s="2" t="s">
         <v>2366</v>
       </c>
@@ -34133,7 +34933,9 @@
       <c r="A485" s="2" t="s">
         <v>2370</v>
       </c>
-      <c r="B485" s="2"/>
+      <c r="B485" s="11" t="s">
+        <v>4480</v>
+      </c>
       <c r="C485" s="2" t="s">
         <v>2366</v>
       </c>
@@ -34173,7 +34975,9 @@
       <c r="A486" s="2" t="s">
         <v>2374</v>
       </c>
-      <c r="B486" s="2"/>
+      <c r="B486" s="11" t="s">
+        <v>4481</v>
+      </c>
       <c r="C486" s="2" t="s">
         <v>2375</v>
       </c>
@@ -34213,7 +35017,9 @@
       <c r="A487" s="2" t="s">
         <v>2379</v>
       </c>
-      <c r="B487" s="2"/>
+      <c r="B487" s="11" t="s">
+        <v>4482</v>
+      </c>
       <c r="C487" s="2" t="s">
         <v>2366</v>
       </c>
@@ -34253,7 +35059,9 @@
       <c r="A488" s="2" t="s">
         <v>2383</v>
       </c>
-      <c r="B488" s="2"/>
+      <c r="B488" s="11" t="s">
+        <v>4483</v>
+      </c>
       <c r="C488" s="2" t="s">
         <v>2384</v>
       </c>
@@ -34293,7 +35101,9 @@
       <c r="A489" s="2" t="s">
         <v>2388</v>
       </c>
-      <c r="B489" s="2"/>
+      <c r="B489" s="11" t="s">
+        <v>4484</v>
+      </c>
       <c r="C489" s="2" t="s">
         <v>2366</v>
       </c>
@@ -34333,7 +35143,9 @@
       <c r="A490" s="2" t="s">
         <v>2392</v>
       </c>
-      <c r="B490" s="2"/>
+      <c r="B490" s="11" t="s">
+        <v>4485</v>
+      </c>
       <c r="C490" s="2" t="s">
         <v>2366</v>
       </c>
@@ -34373,7 +35185,9 @@
       <c r="A491" s="2" t="s">
         <v>2396</v>
       </c>
-      <c r="B491" s="2"/>
+      <c r="B491" s="11" t="s">
+        <v>4486</v>
+      </c>
       <c r="C491" s="2" t="s">
         <v>2366</v>
       </c>
@@ -34413,7 +35227,9 @@
       <c r="A492" s="2" t="s">
         <v>2400</v>
       </c>
-      <c r="B492" s="2"/>
+      <c r="B492" s="11" t="s">
+        <v>4487</v>
+      </c>
       <c r="C492" s="2" t="s">
         <v>2366</v>
       </c>
@@ -34453,7 +35269,9 @@
       <c r="A493" s="2" t="s">
         <v>2404</v>
       </c>
-      <c r="B493" s="2"/>
+      <c r="B493" s="11" t="s">
+        <v>4488</v>
+      </c>
       <c r="C493" s="2" t="s">
         <v>1740</v>
       </c>
@@ -34493,7 +35311,9 @@
       <c r="A494" s="2" t="s">
         <v>2408</v>
       </c>
-      <c r="B494" s="2"/>
+      <c r="B494" s="11" t="s">
+        <v>4489</v>
+      </c>
       <c r="C494" s="2" t="s">
         <v>2366</v>
       </c>
@@ -34533,7 +35353,9 @@
       <c r="A495" s="2" t="s">
         <v>2411</v>
       </c>
-      <c r="B495" s="2"/>
+      <c r="B495" s="11" t="s">
+        <v>4490</v>
+      </c>
       <c r="C495" s="2" t="s">
         <v>1740</v>
       </c>
@@ -34573,7 +35395,9 @@
       <c r="A496" s="2" t="s">
         <v>2415</v>
       </c>
-      <c r="B496" s="2"/>
+      <c r="B496" s="9" t="s">
+        <v>4491</v>
+      </c>
       <c r="C496" s="2" t="s">
         <v>2416</v>
       </c>
@@ -34613,7 +35437,9 @@
       <c r="A497" s="2" t="s">
         <v>2421</v>
       </c>
-      <c r="B497" s="2"/>
+      <c r="B497" s="9" t="s">
+        <v>4493</v>
+      </c>
       <c r="C497" s="2" t="s">
         <v>841</v>
       </c>
@@ -34655,7 +35481,9 @@
       <c r="A498" s="2" t="s">
         <v>2425</v>
       </c>
-      <c r="B498" s="2"/>
+      <c r="B498" s="9" t="s">
+        <v>4494</v>
+      </c>
       <c r="C498" s="2" t="s">
         <v>1547</v>
       </c>
@@ -34695,7 +35523,9 @@
       <c r="A499" s="2" t="s">
         <v>2429</v>
       </c>
-      <c r="B499" s="2"/>
+      <c r="B499" s="9" t="s">
+        <v>4495</v>
+      </c>
       <c r="C499" s="2" t="s">
         <v>2430</v>
       </c>
@@ -34735,7 +35565,9 @@
       <c r="A500" s="2" t="s">
         <v>2434</v>
       </c>
-      <c r="B500" s="2"/>
+      <c r="B500" s="9" t="s">
+        <v>4496</v>
+      </c>
       <c r="C500" s="2" t="s">
         <v>676</v>
       </c>
@@ -34775,7 +35607,9 @@
       <c r="A501" s="2" t="s">
         <v>2438</v>
       </c>
-      <c r="B501" s="2"/>
+      <c r="B501" s="9" t="s">
+        <v>4497</v>
+      </c>
       <c r="C501" s="2" t="s">
         <v>2439</v>
       </c>
@@ -34817,7 +35651,9 @@
       <c r="A502" s="2" t="s">
         <v>2444</v>
       </c>
-      <c r="B502" s="2"/>
+      <c r="B502" s="9" t="s">
+        <v>4492</v>
+      </c>
       <c r="C502" s="2" t="s">
         <v>2445</v>
       </c>
@@ -34857,7 +35693,9 @@
       <c r="A503" s="2" t="s">
         <v>2449</v>
       </c>
-      <c r="B503" s="2"/>
+      <c r="B503" s="9" t="s">
+        <v>4498</v>
+      </c>
       <c r="C503" s="2" t="s">
         <v>2450</v>
       </c>
@@ -34897,7 +35735,9 @@
       <c r="A504" s="2" t="s">
         <v>2454</v>
       </c>
-      <c r="B504" s="2"/>
+      <c r="B504" s="9" t="s">
+        <v>4498</v>
+      </c>
       <c r="C504" s="2" t="s">
         <v>791</v>
       </c>
@@ -34937,7 +35777,9 @@
       <c r="A505" s="2" t="s">
         <v>2458</v>
       </c>
-      <c r="B505" s="2"/>
+      <c r="B505" s="9" t="s">
+        <v>4499</v>
+      </c>
       <c r="C505" s="2" t="s">
         <v>2016</v>
       </c>
@@ -34979,7 +35821,9 @@
       <c r="A506" s="2" t="s">
         <v>2463</v>
       </c>
-      <c r="B506" s="2"/>
+      <c r="B506" s="9" t="s">
+        <v>4500</v>
+      </c>
       <c r="C506" s="2" t="s">
         <v>2464</v>
       </c>
@@ -35019,7 +35863,9 @@
       <c r="A507" s="2" t="s">
         <v>2468</v>
       </c>
-      <c r="B507" s="2"/>
+      <c r="B507" s="9" t="s">
+        <v>4501</v>
+      </c>
       <c r="C507" s="2" t="s">
         <v>2469</v>
       </c>
@@ -35059,7 +35905,9 @@
       <c r="A508" s="2" t="s">
         <v>2473</v>
       </c>
-      <c r="B508" s="2"/>
+      <c r="B508" s="9" t="s">
+        <v>4502</v>
+      </c>
       <c r="C508" s="2" t="s">
         <v>676</v>
       </c>
@@ -35099,7 +35947,9 @@
       <c r="A509" s="2" t="s">
         <v>2477</v>
       </c>
-      <c r="B509" s="2"/>
+      <c r="B509" s="9" t="s">
+        <v>4503</v>
+      </c>
       <c r="C509" s="2" t="s">
         <v>676</v>
       </c>
@@ -35139,7 +35989,9 @@
       <c r="A510" s="2" t="s">
         <v>2481</v>
       </c>
-      <c r="B510" s="2"/>
+      <c r="B510" s="9" t="s">
+        <v>4504</v>
+      </c>
       <c r="C510" s="2" t="s">
         <v>841</v>
       </c>
@@ -35179,7 +36031,9 @@
       <c r="A511" s="2" t="s">
         <v>2485</v>
       </c>
-      <c r="B511" s="2"/>
+      <c r="B511" s="9" t="s">
+        <v>4505</v>
+      </c>
       <c r="C511" s="2" t="s">
         <v>573</v>
       </c>
@@ -35219,7 +36073,9 @@
       <c r="A512" s="2" t="s">
         <v>2489</v>
       </c>
-      <c r="B512" s="2"/>
+      <c r="B512" s="9" t="s">
+        <v>4506</v>
+      </c>
       <c r="C512" s="2" t="s">
         <v>15</v>
       </c>
@@ -35259,7 +36115,9 @@
       <c r="A513" s="2" t="s">
         <v>2493</v>
       </c>
-      <c r="B513" s="2"/>
+      <c r="B513" s="9" t="s">
+        <v>4507</v>
+      </c>
       <c r="C513" s="2" t="s">
         <v>2165</v>
       </c>
@@ -35299,7 +36157,9 @@
       <c r="A514" s="2" t="s">
         <v>2497</v>
       </c>
-      <c r="B514" s="2"/>
+      <c r="B514" s="9" t="s">
+        <v>4508</v>
+      </c>
       <c r="C514" s="2" t="s">
         <v>676</v>
       </c>
@@ -35341,7 +36201,9 @@
       <c r="A515" s="2" t="s">
         <v>2501</v>
       </c>
-      <c r="B515" s="2"/>
+      <c r="B515" s="9" t="s">
+        <v>4509</v>
+      </c>
       <c r="C515" s="2" t="s">
         <v>1178</v>
       </c>
@@ -35381,7 +36243,9 @@
       <c r="A516" s="2" t="s">
         <v>2503</v>
       </c>
-      <c r="B516" s="2"/>
+      <c r="B516" s="9" t="s">
+        <v>4510</v>
+      </c>
       <c r="C516" s="2" t="s">
         <v>676</v>
       </c>
@@ -35423,7 +36287,9 @@
       <c r="A517" s="2" t="s">
         <v>2508</v>
       </c>
-      <c r="B517" s="2"/>
+      <c r="B517" s="9" t="s">
+        <v>4511</v>
+      </c>
       <c r="C517" s="2" t="s">
         <v>39</v>
       </c>
@@ -35463,7 +36329,9 @@
       <c r="A518" s="2" t="s">
         <v>2512</v>
       </c>
-      <c r="B518" s="2"/>
+      <c r="B518" s="9" t="s">
+        <v>4512</v>
+      </c>
       <c r="C518" s="2" t="s">
         <v>2513</v>
       </c>
@@ -35503,7 +36371,9 @@
       <c r="A519" s="2" t="s">
         <v>2518</v>
       </c>
-      <c r="B519" s="2"/>
+      <c r="B519" s="9" t="s">
+        <v>4513</v>
+      </c>
       <c r="C519" s="2" t="s">
         <v>2519</v>
       </c>
@@ -35541,7 +36411,9 @@
       <c r="A520" s="2" t="s">
         <v>2522</v>
       </c>
-      <c r="B520" s="2"/>
+      <c r="B520" s="9" t="s">
+        <v>4514</v>
+      </c>
       <c r="C520" s="2" t="s">
         <v>2523</v>
       </c>
@@ -35581,7 +36453,9 @@
       <c r="A521" s="2" t="s">
         <v>2527</v>
       </c>
-      <c r="B521" s="2"/>
+      <c r="B521" s="9" t="s">
+        <v>4515</v>
+      </c>
       <c r="C521" s="2" t="s">
         <v>446</v>
       </c>
@@ -35621,7 +36495,9 @@
       <c r="A522" s="2" t="s">
         <v>2531</v>
       </c>
-      <c r="B522" s="2"/>
+      <c r="B522" s="9" t="s">
+        <v>4516</v>
+      </c>
       <c r="C522" s="2" t="s">
         <v>2532</v>
       </c>
@@ -35661,7 +36537,9 @@
       <c r="A523" s="2" t="s">
         <v>2536</v>
       </c>
-      <c r="B523" s="2"/>
+      <c r="B523" s="9" t="s">
+        <v>4517</v>
+      </c>
       <c r="C523" s="2" t="s">
         <v>2537</v>
       </c>
@@ -35701,7 +36579,9 @@
       <c r="A524" s="2" t="s">
         <v>2541</v>
       </c>
-      <c r="B524" s="2"/>
+      <c r="B524" s="9" t="s">
+        <v>4518</v>
+      </c>
       <c r="C524" s="2" t="s">
         <v>2450</v>
       </c>
@@ -35741,7 +36621,9 @@
       <c r="A525" s="2" t="s">
         <v>2545</v>
       </c>
-      <c r="B525" s="2"/>
+      <c r="B525" s="9" t="s">
+        <v>4519</v>
+      </c>
       <c r="C525" s="2" t="s">
         <v>2546</v>
       </c>
@@ -35781,7 +36663,9 @@
       <c r="A526" s="2" t="s">
         <v>2550</v>
       </c>
-      <c r="B526" s="2"/>
+      <c r="B526" s="9" t="s">
+        <v>4520</v>
+      </c>
       <c r="C526" s="2" t="s">
         <v>2551</v>
       </c>
@@ -35821,7 +36705,9 @@
       <c r="A527" s="2" t="s">
         <v>2555</v>
       </c>
-      <c r="B527" s="2"/>
+      <c r="B527" s="11" t="s">
+        <v>4512</v>
+      </c>
       <c r="C527" s="2" t="s">
         <v>2556</v>
       </c>
@@ -35857,7 +36743,9 @@
       <c r="A528" s="2" t="s">
         <v>2559</v>
       </c>
-      <c r="B528" s="2"/>
+      <c r="B528" s="11" t="s">
+        <v>4513</v>
+      </c>
       <c r="C528" s="2" t="s">
         <v>33</v>
       </c>
@@ -35897,7 +36785,9 @@
       <c r="A529" s="2" t="s">
         <v>2563</v>
       </c>
-      <c r="B529" s="2"/>
+      <c r="B529" s="11" t="s">
+        <v>4514</v>
+      </c>
       <c r="C529" s="2" t="s">
         <v>2564</v>
       </c>
@@ -35939,7 +36829,9 @@
       <c r="A530" s="2" t="s">
         <v>2569</v>
       </c>
-      <c r="B530" s="2"/>
+      <c r="B530" s="11" t="s">
+        <v>4515</v>
+      </c>
       <c r="C530" s="2" t="s">
         <v>545</v>
       </c>
@@ -35977,7 +36869,9 @@
       <c r="A531" s="2" t="s">
         <v>2572</v>
       </c>
-      <c r="B531" s="2"/>
+      <c r="B531" s="11" t="s">
+        <v>4516</v>
+      </c>
       <c r="C531" s="2" t="s">
         <v>2573</v>
       </c>
@@ -36017,7 +36911,9 @@
       <c r="A532" s="2" t="s">
         <v>2577</v>
       </c>
-      <c r="B532" s="2"/>
+      <c r="B532" s="11" t="s">
+        <v>4517</v>
+      </c>
       <c r="C532" s="2" t="s">
         <v>932</v>
       </c>
@@ -36057,7 +36953,9 @@
       <c r="A533" s="2" t="s">
         <v>2581</v>
       </c>
-      <c r="B533" s="2"/>
+      <c r="B533" s="11" t="s">
+        <v>4521</v>
+      </c>
       <c r="C533" s="2" t="s">
         <v>2582</v>
       </c>
@@ -36097,7 +36995,9 @@
       <c r="A534" s="2" t="s">
         <v>2586</v>
       </c>
-      <c r="B534" s="2"/>
+      <c r="B534" s="11" t="s">
+        <v>4522</v>
+      </c>
       <c r="C534" s="2" t="s">
         <v>932</v>
       </c>
@@ -36137,7 +37037,9 @@
       <c r="A535" s="2" t="s">
         <v>2589</v>
       </c>
-      <c r="B535" s="2"/>
+      <c r="B535" s="11" t="s">
+        <v>4523</v>
+      </c>
       <c r="C535" s="2" t="s">
         <v>2590</v>
       </c>
@@ -36177,7 +37079,9 @@
       <c r="A536" s="2" t="s">
         <v>2594</v>
       </c>
-      <c r="B536" s="2"/>
+      <c r="B536" s="11" t="s">
+        <v>4524</v>
+      </c>
       <c r="C536" s="2" t="s">
         <v>15</v>
       </c>
@@ -36215,7 +37119,9 @@
       <c r="A537" s="2" t="s">
         <v>2597</v>
       </c>
-      <c r="B537" s="2"/>
+      <c r="B537" s="11" t="s">
+        <v>4525</v>
+      </c>
       <c r="C537" s="2" t="s">
         <v>2598</v>
       </c>
@@ -36255,7 +37161,9 @@
       <c r="A538" s="2" t="s">
         <v>2602</v>
       </c>
-      <c r="B538" s="2"/>
+      <c r="B538" s="11" t="s">
+        <v>4526</v>
+      </c>
       <c r="C538" s="2" t="s">
         <v>2366</v>
       </c>
@@ -36297,7 +37205,9 @@
       <c r="A539" s="2" t="s">
         <v>2606</v>
       </c>
-      <c r="B539" s="2"/>
+      <c r="B539" s="11" t="s">
+        <v>4527</v>
+      </c>
       <c r="C539" s="2" t="s">
         <v>27</v>
       </c>
@@ -36337,7 +37247,9 @@
       <c r="A540" s="2" t="s">
         <v>2610</v>
       </c>
-      <c r="B540" s="2"/>
+      <c r="B540" s="11" t="s">
+        <v>4528</v>
+      </c>
       <c r="C540" s="2" t="s">
         <v>2611</v>
       </c>
@@ -36377,7 +37289,9 @@
       <c r="A541" s="2" t="s">
         <v>2615</v>
       </c>
-      <c r="B541" s="2"/>
+      <c r="B541" s="11" t="s">
+        <v>4529</v>
+      </c>
       <c r="C541" s="2" t="s">
         <v>841</v>
       </c>
@@ -36417,7 +37331,9 @@
       <c r="A542" s="2" t="s">
         <v>2619</v>
       </c>
-      <c r="B542" s="2"/>
+      <c r="B542" s="11" t="s">
+        <v>4530</v>
+      </c>
       <c r="C542" s="2" t="s">
         <v>27</v>
       </c>
@@ -36459,7 +37375,9 @@
       <c r="A543" s="2" t="s">
         <v>2624</v>
       </c>
-      <c r="B543" s="2"/>
+      <c r="B543" s="11" t="s">
+        <v>4531</v>
+      </c>
       <c r="C543" s="2" t="s">
         <v>2625</v>
       </c>
@@ -36499,7 +37417,9 @@
       <c r="A544" s="2" t="s">
         <v>2629</v>
       </c>
-      <c r="B544" s="2"/>
+      <c r="B544" s="11" t="s">
+        <v>4532</v>
+      </c>
       <c r="C544" s="2" t="s">
         <v>2630</v>
       </c>
@@ -36539,7 +37459,9 @@
       <c r="A545" s="2" t="s">
         <v>2634</v>
       </c>
-      <c r="B545" s="2"/>
+      <c r="B545" s="13" t="s">
+        <v>4541</v>
+      </c>
       <c r="C545" s="2" t="s">
         <v>2635</v>
       </c>
@@ -36579,7 +37501,9 @@
       <c r="A546" s="2" t="s">
         <v>2639</v>
       </c>
-      <c r="B546" s="2"/>
+      <c r="B546" s="11" t="s">
+        <v>4533</v>
+      </c>
       <c r="C546" s="2" t="s">
         <v>2640</v>
       </c>
@@ -36619,7 +37543,9 @@
       <c r="A547" s="2" t="s">
         <v>2644</v>
       </c>
-      <c r="B547" s="2"/>
+      <c r="B547" s="11" t="s">
+        <v>4518</v>
+      </c>
       <c r="C547" s="2" t="s">
         <v>2645</v>
       </c>
@@ -36659,7 +37585,9 @@
       <c r="A548" s="2" t="s">
         <v>2649</v>
       </c>
-      <c r="B548" s="2"/>
+      <c r="B548" s="11" t="s">
+        <v>4534</v>
+      </c>
       <c r="C548" s="2" t="s">
         <v>2650</v>
       </c>
@@ -36699,7 +37627,9 @@
       <c r="A549" s="2" t="s">
         <v>2654</v>
       </c>
-      <c r="B549" s="2"/>
+      <c r="B549" s="11" t="s">
+        <v>4535</v>
+      </c>
       <c r="C549" s="2" t="s">
         <v>2655</v>
       </c>
@@ -36739,7 +37669,9 @@
       <c r="A550" s="2" t="s">
         <v>2659</v>
       </c>
-      <c r="B550" s="2"/>
+      <c r="B550" s="11" t="s">
+        <v>4536</v>
+      </c>
       <c r="C550" s="2" t="s">
         <v>791</v>
       </c>
@@ -36779,7 +37711,9 @@
       <c r="A551" s="2" t="s">
         <v>2663</v>
       </c>
-      <c r="B551" s="2"/>
+      <c r="B551" s="11" t="s">
+        <v>4537</v>
+      </c>
       <c r="C551" s="2" t="s">
         <v>2664</v>
       </c>
@@ -36819,7 +37753,9 @@
       <c r="A552" s="2" t="s">
         <v>2668</v>
       </c>
-      <c r="B552" s="2"/>
+      <c r="B552" s="11" t="s">
+        <v>4538</v>
+      </c>
       <c r="C552" s="2" t="s">
         <v>39</v>
       </c>
@@ -36857,7 +37793,9 @@
       <c r="A553" s="2" t="s">
         <v>2671</v>
       </c>
-      <c r="B553" s="2"/>
+      <c r="B553" s="11" t="s">
+        <v>4539</v>
+      </c>
       <c r="C553" s="2" t="s">
         <v>39</v>
       </c>
@@ -36897,7 +37835,9 @@
       <c r="A554" s="2" t="s">
         <v>2674</v>
       </c>
-      <c r="B554" s="2"/>
+      <c r="B554" s="11" t="s">
+        <v>4540</v>
+      </c>
       <c r="C554" s="2" t="s">
         <v>1952</v>
       </c>
@@ -36937,7 +37877,9 @@
       <c r="A555" s="2" t="s">
         <v>2678</v>
       </c>
-      <c r="B555" s="2"/>
+      <c r="B555" s="11" t="s">
+        <v>4542</v>
+      </c>
       <c r="C555" s="2" t="s">
         <v>841</v>
       </c>
@@ -36977,7 +37919,9 @@
       <c r="A556" s="2" t="s">
         <v>2682</v>
       </c>
-      <c r="B556" s="2"/>
+      <c r="B556" s="9" t="s">
+        <v>4543</v>
+      </c>
       <c r="C556" s="2" t="s">
         <v>2683</v>
       </c>
@@ -37019,7 +37963,9 @@
       <c r="A557" s="2" t="s">
         <v>2689</v>
       </c>
-      <c r="B557" s="2"/>
+      <c r="B557" s="9" t="s">
+        <v>4544</v>
+      </c>
       <c r="C557" s="2" t="s">
         <v>2690</v>
       </c>
@@ -37061,7 +38007,9 @@
       <c r="A558" s="2" t="s">
         <v>2694</v>
       </c>
-      <c r="B558" s="2"/>
+      <c r="B558" s="9" t="s">
+        <v>4545</v>
+      </c>
       <c r="C558" s="2" t="s">
         <v>2695</v>
       </c>
@@ -37103,7 +38051,9 @@
       <c r="A559" s="2" t="s">
         <v>2700</v>
       </c>
-      <c r="B559" s="2"/>
+      <c r="B559" s="9" t="s">
+        <v>4546</v>
+      </c>
       <c r="C559" s="2" t="s">
         <v>932</v>
       </c>
@@ -37143,7 +38093,9 @@
       <c r="A560" s="2" t="s">
         <v>2704</v>
       </c>
-      <c r="B560" s="2"/>
+      <c r="B560" s="9" t="s">
+        <v>4547</v>
+      </c>
       <c r="C560" s="2" t="s">
         <v>39</v>
       </c>
@@ -37185,7 +38137,9 @@
       <c r="A561" s="2" t="s">
         <v>2709</v>
       </c>
-      <c r="B561" s="2"/>
+      <c r="B561" s="9" t="s">
+        <v>4548</v>
+      </c>
       <c r="C561" s="2" t="s">
         <v>2710</v>
       </c>
@@ -37227,7 +38181,9 @@
       <c r="A562" s="2" t="s">
         <v>2714</v>
       </c>
-      <c r="B562" s="2"/>
+      <c r="B562" s="9" t="s">
+        <v>4551</v>
+      </c>
       <c r="C562" s="2" t="s">
         <v>2715</v>
       </c>
@@ -37267,7 +38223,9 @@
       <c r="A563" s="2" t="s">
         <v>2718</v>
       </c>
-      <c r="B563" s="2"/>
+      <c r="B563" s="9" t="s">
+        <v>4549</v>
+      </c>
       <c r="C563" s="2" t="s">
         <v>2719</v>
       </c>
@@ -37309,7 +38267,9 @@
       <c r="A564" s="2" t="s">
         <v>2723</v>
       </c>
-      <c r="B564" s="2"/>
+      <c r="B564" s="9" t="s">
+        <v>4550</v>
+      </c>
       <c r="C564" s="2" t="s">
         <v>2724</v>
       </c>
@@ -37349,7 +38309,9 @@
       <c r="A565" s="2" t="s">
         <v>2728</v>
       </c>
-      <c r="B565" s="2"/>
+      <c r="B565" s="9" t="s">
+        <v>4552</v>
+      </c>
       <c r="C565" s="2" t="s">
         <v>15</v>
       </c>
@@ -37391,7 +38353,9 @@
       <c r="A566" s="2" t="s">
         <v>2733</v>
       </c>
-      <c r="B566" s="2"/>
+      <c r="B566" s="9" t="s">
+        <v>4553</v>
+      </c>
       <c r="C566" s="2" t="s">
         <v>2734</v>
       </c>
@@ -37433,7 +38397,9 @@
       <c r="A567" s="2" t="s">
         <v>2739</v>
       </c>
-      <c r="B567" s="2"/>
+      <c r="B567" s="9" t="s">
+        <v>4554</v>
+      </c>
       <c r="C567" s="2" t="s">
         <v>573</v>
       </c>
@@ -37475,7 +38441,9 @@
       <c r="A568" s="2" t="s">
         <v>2744</v>
       </c>
-      <c r="B568" s="2"/>
+      <c r="B568" s="9" t="s">
+        <v>4555</v>
+      </c>
       <c r="C568" s="2" t="s">
         <v>573</v>
       </c>
@@ -37517,7 +38485,9 @@
       <c r="A569" s="2" t="s">
         <v>2749</v>
       </c>
-      <c r="B569" s="2"/>
+      <c r="B569" s="9" t="s">
+        <v>4556</v>
+      </c>
       <c r="C569" s="2" t="s">
         <v>841</v>
       </c>
@@ -37559,7 +38529,9 @@
       <c r="A570" s="2" t="s">
         <v>2754</v>
       </c>
-      <c r="B570" s="2"/>
+      <c r="B570" s="9" t="s">
+        <v>4557</v>
+      </c>
       <c r="C570" s="2" t="s">
         <v>2755</v>
       </c>
@@ -37599,7 +38571,9 @@
       <c r="A571" s="2" t="s">
         <v>2758</v>
       </c>
-      <c r="B571" s="2"/>
+      <c r="B571" s="9" t="s">
+        <v>4558</v>
+      </c>
       <c r="C571" s="2" t="s">
         <v>15</v>
       </c>
@@ -37639,7 +38613,9 @@
       <c r="A572" s="2" t="s">
         <v>2762</v>
       </c>
-      <c r="B572" s="2"/>
+      <c r="B572" s="9" t="s">
+        <v>4559</v>
+      </c>
       <c r="C572" s="2" t="s">
         <v>39</v>
       </c>
@@ -37679,7 +38655,9 @@
       <c r="A573" s="2" t="s">
         <v>2766</v>
       </c>
-      <c r="B573" s="2"/>
+      <c r="B573" s="9" t="s">
+        <v>4560</v>
+      </c>
       <c r="C573" s="2" t="s">
         <v>33</v>
       </c>
@@ -37717,7 +38695,9 @@
       <c r="A574" s="2" t="s">
         <v>2769</v>
       </c>
-      <c r="B574" s="2"/>
+      <c r="B574" s="9" t="s">
+        <v>4561</v>
+      </c>
       <c r="C574" s="2" t="s">
         <v>33</v>
       </c>
@@ -37757,7 +38737,9 @@
       <c r="A575" s="2" t="s">
         <v>2772</v>
       </c>
-      <c r="B575" s="2"/>
+      <c r="B575" s="9" t="s">
+        <v>4562</v>
+      </c>
       <c r="C575" s="2" t="s">
         <v>33</v>
       </c>
@@ -37799,7 +38781,9 @@
       <c r="A576" s="2" t="s">
         <v>2777</v>
       </c>
-      <c r="B576" s="2"/>
+      <c r="B576" s="9" t="s">
+        <v>4563</v>
+      </c>
       <c r="C576" s="2" t="s">
         <v>2778</v>
       </c>
@@ -37841,7 +38825,9 @@
       <c r="A577" s="2" t="s">
         <v>2783</v>
       </c>
-      <c r="B577" s="2"/>
+      <c r="B577" s="9" t="s">
+        <v>4564</v>
+      </c>
       <c r="C577" s="2" t="s">
         <v>33</v>
       </c>
@@ -37881,7 +38867,9 @@
       <c r="A578" s="2" t="s">
         <v>2787</v>
       </c>
-      <c r="B578" s="2"/>
+      <c r="B578" s="9" t="s">
+        <v>4565</v>
+      </c>
       <c r="C578" s="2" t="s">
         <v>33</v>
       </c>
@@ -37921,7 +38909,9 @@
       <c r="A579" s="2" t="s">
         <v>2791</v>
       </c>
-      <c r="B579" s="2"/>
+      <c r="B579" s="11" t="s">
+        <v>4566</v>
+      </c>
       <c r="C579" s="2" t="s">
         <v>33</v>
       </c>
@@ -37961,7 +38951,9 @@
       <c r="A580" s="2" t="s">
         <v>2796</v>
       </c>
-      <c r="B580" s="2"/>
+      <c r="B580" s="11" t="s">
+        <v>4567</v>
+      </c>
       <c r="C580" s="2" t="s">
         <v>33</v>
       </c>
@@ -38001,7 +38993,9 @@
       <c r="A581" s="2" t="s">
         <v>2800</v>
       </c>
-      <c r="B581" s="2"/>
+      <c r="B581" s="11" t="s">
+        <v>4568</v>
+      </c>
       <c r="C581" s="2" t="s">
         <v>33</v>
       </c>
@@ -38041,7 +39035,9 @@
       <c r="A582" s="2" t="s">
         <v>2803</v>
       </c>
-      <c r="B582" s="2"/>
+      <c r="B582" s="11" t="s">
+        <v>4569</v>
+      </c>
       <c r="C582" s="2" t="s">
         <v>33</v>
       </c>
@@ -38081,7 +39077,9 @@
       <c r="A583" s="2" t="s">
         <v>2807</v>
       </c>
-      <c r="B583" s="2"/>
+      <c r="B583" s="11" t="s">
+        <v>4570</v>
+      </c>
       <c r="C583" s="2" t="s">
         <v>932</v>
       </c>
@@ -38121,7 +39119,9 @@
       <c r="A584" s="2" t="s">
         <v>2811</v>
       </c>
-      <c r="B584" s="2"/>
+      <c r="B584" s="11" t="s">
+        <v>4571</v>
+      </c>
       <c r="C584" s="2" t="s">
         <v>27</v>
       </c>
@@ -38161,7 +39161,9 @@
       <c r="A585" s="2" t="s">
         <v>2815</v>
       </c>
-      <c r="B585" s="2"/>
+      <c r="B585" s="11" t="s">
+        <v>4572</v>
+      </c>
       <c r="C585" s="2" t="s">
         <v>2816</v>
       </c>
@@ -38201,7 +39203,9 @@
       <c r="A586" s="2" t="s">
         <v>2820</v>
       </c>
-      <c r="B586" s="2"/>
+      <c r="B586" s="11" t="s">
+        <v>4573</v>
+      </c>
       <c r="C586" s="2" t="s">
         <v>1752</v>
       </c>
@@ -38241,7 +39245,9 @@
       <c r="A587" s="2" t="s">
         <v>2824</v>
       </c>
-      <c r="B587" s="2"/>
+      <c r="B587" s="11" t="s">
+        <v>4574</v>
+      </c>
       <c r="C587" s="2" t="s">
         <v>791</v>
       </c>
@@ -38281,7 +39287,9 @@
       <c r="A588" s="2" t="s">
         <v>2828</v>
       </c>
-      <c r="B588" s="2"/>
+      <c r="B588" s="11" t="s">
+        <v>4575</v>
+      </c>
       <c r="C588" s="2" t="s">
         <v>2829</v>
       </c>
@@ -38321,7 +39329,9 @@
       <c r="A589" s="2" t="s">
         <v>2833</v>
       </c>
-      <c r="B589" s="2"/>
+      <c r="B589" s="11" t="s">
+        <v>4576</v>
+      </c>
       <c r="C589" s="2" t="s">
         <v>841</v>
       </c>
@@ -38361,7 +39371,9 @@
       <c r="A590" s="2" t="s">
         <v>2837</v>
       </c>
-      <c r="B590" s="2"/>
+      <c r="B590" s="11" t="s">
+        <v>4577</v>
+      </c>
       <c r="C590" s="2" t="s">
         <v>1117</v>
       </c>
@@ -38401,7 +39413,9 @@
       <c r="A591" s="2" t="s">
         <v>2841</v>
       </c>
-      <c r="B591" s="2"/>
+      <c r="B591" s="11" t="s">
+        <v>4578</v>
+      </c>
       <c r="C591" s="2" t="s">
         <v>791</v>
       </c>
@@ -38439,7 +39453,9 @@
       <c r="A592" s="2" t="s">
         <v>2844</v>
       </c>
-      <c r="B592" s="2"/>
+      <c r="B592" s="11" t="s">
+        <v>4579</v>
+      </c>
       <c r="C592" s="2" t="s">
         <v>2845</v>
       </c>
@@ -38481,7 +39497,9 @@
       <c r="A593" s="2" t="s">
         <v>2850</v>
       </c>
-      <c r="B593" s="2"/>
+      <c r="B593" s="11" t="s">
+        <v>4580</v>
+      </c>
       <c r="C593" s="2" t="s">
         <v>2851</v>
       </c>
@@ -38523,7 +39541,9 @@
       <c r="A594" s="2" t="s">
         <v>2856</v>
       </c>
-      <c r="B594" s="2"/>
+      <c r="B594" s="11" t="s">
+        <v>4581</v>
+      </c>
       <c r="C594" s="2" t="s">
         <v>932</v>
       </c>
@@ -38565,7 +39585,9 @@
       <c r="A595" s="2" t="s">
         <v>2861</v>
       </c>
-      <c r="B595" s="2"/>
+      <c r="B595" s="11" t="s">
+        <v>4582</v>
+      </c>
       <c r="C595" s="2" t="s">
         <v>932</v>
       </c>
@@ -38607,7 +39629,9 @@
       <c r="A596" s="2" t="s">
         <v>2866</v>
       </c>
-      <c r="B596" s="2"/>
+      <c r="B596" s="11" t="s">
+        <v>4583</v>
+      </c>
       <c r="C596" s="2" t="s">
         <v>2867</v>
       </c>
@@ -38647,7 +39671,9 @@
       <c r="A597" s="2" t="s">
         <v>2871</v>
       </c>
-      <c r="B597" s="2"/>
+      <c r="B597" s="11" t="s">
+        <v>4584</v>
+      </c>
       <c r="C597" s="2" t="s">
         <v>791</v>
       </c>
@@ -38687,7 +39713,9 @@
       <c r="A598" s="2" t="s">
         <v>2875</v>
       </c>
-      <c r="B598" s="2"/>
+      <c r="B598" s="11" t="s">
+        <v>4585</v>
+      </c>
       <c r="C598" s="2" t="s">
         <v>791</v>
       </c>
@@ -38727,7 +39755,9 @@
       <c r="A599" s="2" t="s">
         <v>2879</v>
       </c>
-      <c r="B599" s="2"/>
+      <c r="B599" s="11" t="s">
+        <v>4586</v>
+      </c>
       <c r="C599" s="2" t="s">
         <v>2880</v>
       </c>
@@ -38767,7 +39797,9 @@
       <c r="A600" s="2" t="s">
         <v>2884</v>
       </c>
-      <c r="B600" s="2"/>
+      <c r="B600" s="11" t="s">
+        <v>4587</v>
+      </c>
       <c r="C600" s="2" t="s">
         <v>2885</v>
       </c>
@@ -38807,7 +39839,9 @@
       <c r="A601" s="2" t="s">
         <v>2889</v>
       </c>
-      <c r="B601" s="2"/>
+      <c r="B601" s="11" t="s">
+        <v>4588</v>
+      </c>
       <c r="C601" s="2" t="s">
         <v>2890</v>
       </c>
@@ -38847,7 +39881,9 @@
       <c r="A602" s="2" t="s">
         <v>2894</v>
       </c>
-      <c r="B602" s="2"/>
+      <c r="B602" s="11" t="s">
+        <v>4589</v>
+      </c>
       <c r="C602" s="2" t="s">
         <v>39</v>
       </c>
@@ -38887,7 +39923,9 @@
       <c r="A603" s="2" t="s">
         <v>2898</v>
       </c>
-      <c r="B603" s="2"/>
+      <c r="B603" s="11" t="s">
+        <v>4590</v>
+      </c>
       <c r="C603" s="2" t="s">
         <v>2899</v>
       </c>
@@ -38927,7 +39965,9 @@
       <c r="A604" s="2" t="s">
         <v>2903</v>
       </c>
-      <c r="B604" s="2"/>
+      <c r="B604" s="11" t="s">
+        <v>4591</v>
+      </c>
       <c r="C604" s="2" t="s">
         <v>786</v>
       </c>
@@ -38967,7 +40007,9 @@
       <c r="A605" s="2" t="s">
         <v>2906</v>
       </c>
-      <c r="B605" s="2"/>
+      <c r="B605" s="11" t="s">
+        <v>4592</v>
+      </c>
       <c r="C605" s="2" t="s">
         <v>786</v>
       </c>
@@ -39009,7 +40051,9 @@
       <c r="A606" s="2" t="s">
         <v>2911</v>
       </c>
-      <c r="B606" s="2"/>
+      <c r="B606" s="11" t="s">
+        <v>4593</v>
+      </c>
       <c r="C606" s="2" t="s">
         <v>791</v>
       </c>
@@ -39049,7 +40093,9 @@
       <c r="A607" s="2" t="s">
         <v>2915</v>
       </c>
-      <c r="B607" s="2"/>
+      <c r="B607" s="11" t="s">
+        <v>4594</v>
+      </c>
       <c r="C607" s="2" t="s">
         <v>33</v>
       </c>
@@ -39089,7 +40135,9 @@
       <c r="A608" s="2" t="s">
         <v>2919</v>
       </c>
-      <c r="B608" s="2"/>
+      <c r="B608" s="11" t="s">
+        <v>4595</v>
+      </c>
       <c r="C608" s="2" t="s">
         <v>932</v>
       </c>
@@ -39127,7 +40175,9 @@
       <c r="A609" s="2" t="s">
         <v>2922</v>
       </c>
-      <c r="B609" s="2"/>
+      <c r="B609" s="11" t="s">
+        <v>4596</v>
+      </c>
       <c r="C609" s="2" t="s">
         <v>2923</v>
       </c>
@@ -39165,7 +40215,9 @@
       <c r="A610" s="2" t="s">
         <v>2926</v>
       </c>
-      <c r="B610" s="2"/>
+      <c r="B610" s="11" t="s">
+        <v>4597</v>
+      </c>
       <c r="C610" s="2" t="s">
         <v>791</v>
       </c>
@@ -39205,7 +40257,9 @@
       <c r="A611" s="2" t="s">
         <v>2930</v>
       </c>
-      <c r="B611" s="2"/>
+      <c r="B611" s="11" t="s">
+        <v>4598</v>
+      </c>
       <c r="C611" s="2" t="s">
         <v>1117</v>
       </c>
@@ -39245,7 +40299,9 @@
       <c r="A612" s="2" t="s">
         <v>2934</v>
       </c>
-      <c r="B612" s="2"/>
+      <c r="B612" s="11" t="s">
+        <v>4599</v>
+      </c>
       <c r="C612" s="2" t="s">
         <v>2366</v>
       </c>
@@ -39285,7 +40341,9 @@
       <c r="A613" s="2" t="s">
         <v>2938</v>
       </c>
-      <c r="B613" s="2"/>
+      <c r="B613" s="11" t="s">
+        <v>4600</v>
+      </c>
       <c r="C613" s="2" t="s">
         <v>2939</v>
       </c>
@@ -39323,7 +40381,9 @@
       <c r="A614" s="2" t="s">
         <v>2942</v>
       </c>
-      <c r="B614" s="2"/>
+      <c r="B614" s="11" t="s">
+        <v>4601</v>
+      </c>
       <c r="C614" s="2" t="s">
         <v>1740</v>
       </c>
@@ -39365,7 +40425,9 @@
       <c r="A615" s="2" t="s">
         <v>2947</v>
       </c>
-      <c r="B615" s="2"/>
+      <c r="B615" s="11" t="s">
+        <v>4602</v>
+      </c>
       <c r="C615" s="2" t="s">
         <v>2948</v>
       </c>
@@ -39407,7 +40469,9 @@
       <c r="A616" s="2" t="s">
         <v>2953</v>
       </c>
-      <c r="B616" s="2"/>
+      <c r="B616" s="11" t="s">
+        <v>4603</v>
+      </c>
       <c r="C616" s="2" t="s">
         <v>2954</v>
       </c>
@@ -39449,7 +40513,9 @@
       <c r="A617" s="2" t="s">
         <v>2959</v>
       </c>
-      <c r="B617" s="2"/>
+      <c r="B617" s="11" t="s">
+        <v>4604</v>
+      </c>
       <c r="C617" s="2" t="s">
         <v>786</v>
       </c>
@@ -39491,7 +40557,9 @@
       <c r="A618" s="2" t="s">
         <v>2964</v>
       </c>
-      <c r="B618" s="2"/>
+      <c r="B618" s="11" t="s">
+        <v>4605</v>
+      </c>
       <c r="C618" s="2" t="s">
         <v>2965</v>
       </c>
@@ -39533,7 +40601,9 @@
       <c r="A619" s="2" t="s">
         <v>2970</v>
       </c>
-      <c r="B619" s="2"/>
+      <c r="B619" s="11" t="s">
+        <v>4606</v>
+      </c>
       <c r="C619" s="2" t="s">
         <v>2971</v>
       </c>
@@ -39575,7 +40645,9 @@
       <c r="A620" s="2" t="s">
         <v>2976</v>
       </c>
-      <c r="B620" s="2"/>
+      <c r="B620" s="11" t="s">
+        <v>4607</v>
+      </c>
       <c r="C620" s="2" t="s">
         <v>2016</v>
       </c>
@@ -39617,7 +40689,9 @@
       <c r="A621" s="2" t="s">
         <v>2981</v>
       </c>
-      <c r="B621" s="2"/>
+      <c r="B621" s="11" t="s">
+        <v>4608</v>
+      </c>
       <c r="C621" s="2" t="s">
         <v>39</v>
       </c>
@@ -39659,7 +40733,9 @@
       <c r="A622" s="2" t="s">
         <v>2986</v>
       </c>
-      <c r="B622" s="2"/>
+      <c r="B622" s="11" t="s">
+        <v>4609</v>
+      </c>
       <c r="C622" s="2" t="s">
         <v>2987</v>
       </c>
@@ -39699,7 +40775,9 @@
       <c r="A623" s="2" t="s">
         <v>2991</v>
       </c>
-      <c r="B623" s="2"/>
+      <c r="B623" s="11" t="s">
+        <v>4610</v>
+      </c>
       <c r="C623" s="2" t="s">
         <v>2992</v>
       </c>
@@ -39737,7 +40815,9 @@
       <c r="A624" s="2" t="s">
         <v>2995</v>
       </c>
-      <c r="B624" s="2"/>
+      <c r="B624" s="11" t="s">
+        <v>4611</v>
+      </c>
       <c r="C624" s="2" t="s">
         <v>1752</v>
       </c>
@@ -39775,7 +40855,9 @@
       <c r="A625" s="2" t="s">
         <v>2998</v>
       </c>
-      <c r="B625" s="2"/>
+      <c r="B625" s="11" t="s">
+        <v>4612</v>
+      </c>
       <c r="C625" s="2" t="s">
         <v>2999</v>
       </c>
@@ -39815,7 +40897,9 @@
       <c r="A626" s="2" t="s">
         <v>3003</v>
       </c>
-      <c r="B626" s="2"/>
+      <c r="B626" s="11" t="s">
+        <v>4613</v>
+      </c>
       <c r="C626" s="2" t="s">
         <v>1627</v>
       </c>
@@ -39853,7 +40937,9 @@
       <c r="A627" s="2" t="s">
         <v>3006</v>
       </c>
-      <c r="B627" s="2"/>
+      <c r="B627" s="11" t="s">
+        <v>4614</v>
+      </c>
       <c r="C627" s="2" t="s">
         <v>3007</v>
       </c>
@@ -39893,7 +40979,9 @@
       <c r="A628" s="2" t="s">
         <v>3011</v>
       </c>
-      <c r="B628" s="2"/>
+      <c r="B628" s="11" t="s">
+        <v>4615</v>
+      </c>
       <c r="C628" s="2" t="s">
         <v>841</v>
       </c>
@@ -39935,7 +41023,9 @@
       <c r="A629" s="2" t="s">
         <v>3015</v>
       </c>
-      <c r="B629" s="2"/>
+      <c r="B629" s="11" t="s">
+        <v>4616</v>
+      </c>
       <c r="C629" s="2" t="s">
         <v>932</v>
       </c>
@@ -39975,7 +41065,9 @@
       <c r="A630" s="2" t="s">
         <v>3019</v>
       </c>
-      <c r="B630" s="2"/>
+      <c r="B630" s="11" t="s">
+        <v>4617</v>
+      </c>
       <c r="C630" s="2" t="s">
         <v>3007</v>
       </c>
@@ -40015,7 +41107,9 @@
       <c r="A631" s="2" t="s">
         <v>3023</v>
       </c>
-      <c r="B631" s="2"/>
+      <c r="B631" s="11" t="s">
+        <v>4618</v>
+      </c>
       <c r="C631" s="2" t="s">
         <v>1952</v>
       </c>
@@ -40055,7 +41149,9 @@
       <c r="A632" s="2" t="s">
         <v>3027</v>
       </c>
-      <c r="B632" s="2"/>
+      <c r="B632" s="11" t="s">
+        <v>4619</v>
+      </c>
       <c r="C632" s="2" t="s">
         <v>791</v>
       </c>
@@ -40095,7 +41191,9 @@
       <c r="A633" s="2" t="s">
         <v>3031</v>
       </c>
-      <c r="B633" s="2"/>
+      <c r="B633" s="11" t="s">
+        <v>4620</v>
+      </c>
       <c r="C633" s="2" t="s">
         <v>932</v>
       </c>
@@ -40135,7 +41233,9 @@
       <c r="A634" s="2" t="s">
         <v>3035</v>
       </c>
-      <c r="B634" s="2"/>
+      <c r="B634" s="11" t="s">
+        <v>4621</v>
+      </c>
       <c r="C634" s="2" t="s">
         <v>3036</v>
       </c>
@@ -40177,7 +41277,9 @@
       <c r="A635" s="2" t="s">
         <v>3039</v>
       </c>
-      <c r="B635" s="2"/>
+      <c r="B635" s="11" t="s">
+        <v>4622</v>
+      </c>
       <c r="C635" s="2" t="s">
         <v>3040</v>
       </c>
@@ -40215,7 +41317,9 @@
       <c r="A636" s="2" t="s">
         <v>3043</v>
       </c>
-      <c r="B636" s="2"/>
+      <c r="B636" s="11" t="s">
+        <v>4623</v>
+      </c>
       <c r="C636" s="2" t="s">
         <v>3044</v>
       </c>
@@ -40255,7 +41359,9 @@
       <c r="A637" s="2" t="s">
         <v>3048</v>
       </c>
-      <c r="B637" s="2"/>
+      <c r="B637" s="11" t="s">
+        <v>4624</v>
+      </c>
       <c r="C637" s="2" t="s">
         <v>3049</v>
       </c>
@@ -40295,7 +41401,9 @@
       <c r="A638" s="2" t="s">
         <v>3053</v>
       </c>
-      <c r="B638" s="2"/>
+      <c r="B638" s="11" t="s">
+        <v>4625</v>
+      </c>
       <c r="C638" s="2" t="s">
         <v>39</v>
       </c>
@@ -40335,7 +41443,9 @@
       <c r="A639" s="2" t="s">
         <v>3057</v>
       </c>
-      <c r="B639" s="2"/>
+      <c r="B639" s="11" t="s">
+        <v>4626</v>
+      </c>
       <c r="C639" s="2" t="s">
         <v>3058</v>
       </c>
@@ -40375,7 +41485,9 @@
       <c r="A640" s="2" t="s">
         <v>3062</v>
       </c>
-      <c r="B640" s="2"/>
+      <c r="B640" s="11" t="s">
+        <v>4627</v>
+      </c>
       <c r="C640" s="2" t="s">
         <v>27</v>
       </c>
@@ -40415,7 +41527,9 @@
       <c r="A641" s="2" t="s">
         <v>3066</v>
       </c>
-      <c r="B641" s="2"/>
+      <c r="B641" s="11" t="s">
+        <v>4628</v>
+      </c>
       <c r="C641" s="2" t="s">
         <v>841</v>
       </c>
@@ -40455,7 +41569,9 @@
       <c r="A642" s="2" t="s">
         <v>3070</v>
       </c>
-      <c r="B642" s="2"/>
+      <c r="B642" s="11" t="s">
+        <v>4629</v>
+      </c>
       <c r="C642" s="2" t="s">
         <v>841</v>
       </c>
@@ -40495,7 +41611,9 @@
       <c r="A643" s="2" t="s">
         <v>3074</v>
       </c>
-      <c r="B643" s="2"/>
+      <c r="B643" s="11" t="s">
+        <v>4630</v>
+      </c>
       <c r="C643" s="2" t="s">
         <v>841</v>
       </c>
@@ -40535,7 +41653,9 @@
       <c r="A644" s="2" t="s">
         <v>3078</v>
       </c>
-      <c r="B644" s="2"/>
+      <c r="B644" s="11" t="s">
+        <v>4631</v>
+      </c>
       <c r="C644" s="2" t="s">
         <v>15</v>
       </c>
@@ -40575,7 +41695,9 @@
       <c r="A645" s="2" t="s">
         <v>3082</v>
       </c>
-      <c r="B645" s="2"/>
+      <c r="B645" s="11" t="s">
+        <v>4632</v>
+      </c>
       <c r="C645" s="2" t="s">
         <v>3083</v>
       </c>
@@ -40615,7 +41737,9 @@
       <c r="A646" s="2" t="s">
         <v>3087</v>
       </c>
-      <c r="B646" s="2"/>
+      <c r="B646" s="11" t="s">
+        <v>4633</v>
+      </c>
       <c r="C646" s="2" t="s">
         <v>791</v>
       </c>
@@ -40655,7 +41779,9 @@
       <c r="A647" s="2" t="s">
         <v>3091</v>
       </c>
-      <c r="B647" s="2"/>
+      <c r="B647" s="11" t="s">
+        <v>4634</v>
+      </c>
       <c r="C647" s="2" t="s">
         <v>2366</v>
       </c>
@@ -40695,7 +41821,9 @@
       <c r="A648" s="2" t="s">
         <v>3095</v>
       </c>
-      <c r="B648" s="2"/>
+      <c r="B648" s="11" t="s">
+        <v>4635</v>
+      </c>
       <c r="C648" s="2" t="s">
         <v>3096</v>
       </c>
@@ -40733,7 +41861,9 @@
       <c r="A649" s="2" t="s">
         <v>3099</v>
       </c>
-      <c r="B649" s="2"/>
+      <c r="B649" s="11" t="s">
+        <v>4636</v>
+      </c>
       <c r="C649" s="2" t="s">
         <v>3100</v>
       </c>
@@ -40773,7 +41903,9 @@
       <c r="A650" s="2" t="s">
         <v>3104</v>
       </c>
-      <c r="B650" s="2"/>
+      <c r="B650" s="11" t="s">
+        <v>4637</v>
+      </c>
       <c r="C650" s="2" t="s">
         <v>1952</v>
       </c>
@@ -40811,7 +41943,9 @@
       <c r="A651" s="2" t="s">
         <v>3107</v>
       </c>
-      <c r="B651" s="2"/>
+      <c r="B651" s="11" t="s">
+        <v>4638</v>
+      </c>
       <c r="C651" s="2" t="s">
         <v>3108</v>
       </c>
@@ -40851,7 +41985,9 @@
       <c r="A652" s="2" t="s">
         <v>3112</v>
       </c>
-      <c r="B652" s="2"/>
+      <c r="B652" s="11" t="s">
+        <v>4639</v>
+      </c>
       <c r="C652" s="2" t="s">
         <v>932</v>
       </c>
@@ -40893,7 +42029,9 @@
       <c r="A653" s="2" t="s">
         <v>3117</v>
       </c>
-      <c r="B653" s="2"/>
+      <c r="B653" s="11" t="s">
+        <v>4640</v>
+      </c>
       <c r="C653" s="2" t="s">
         <v>3118</v>
       </c>
@@ -40933,7 +42071,9 @@
       <c r="A654" s="2" t="s">
         <v>3122</v>
       </c>
-      <c r="B654" s="2"/>
+      <c r="B654" s="11" t="s">
+        <v>4641</v>
+      </c>
       <c r="C654" s="2" t="s">
         <v>841</v>
       </c>
@@ -40973,7 +42113,9 @@
       <c r="A655" s="2" t="s">
         <v>3126</v>
       </c>
-      <c r="B655" s="2"/>
+      <c r="B655" s="11" t="s">
+        <v>4642</v>
+      </c>
       <c r="C655" s="2" t="s">
         <v>786</v>
       </c>
@@ -41013,7 +42155,9 @@
       <c r="A656" s="2" t="s">
         <v>3130</v>
       </c>
-      <c r="B656" s="2"/>
+      <c r="B656" s="11" t="s">
+        <v>4643</v>
+      </c>
       <c r="C656" s="2" t="s">
         <v>932</v>
       </c>
@@ -41053,7 +42197,9 @@
       <c r="A657" s="2" t="s">
         <v>3134</v>
       </c>
-      <c r="B657" s="2"/>
+      <c r="B657" s="11" t="s">
+        <v>4644</v>
+      </c>
       <c r="C657" s="2" t="s">
         <v>3135</v>
       </c>
@@ -41095,7 +42241,9 @@
       <c r="A658" s="2" t="s">
         <v>3140</v>
       </c>
-      <c r="B658" s="2"/>
+      <c r="B658" s="11" t="s">
+        <v>4645</v>
+      </c>
       <c r="C658" s="2" t="s">
         <v>3141</v>
       </c>
@@ -41135,7 +42283,9 @@
       <c r="A659" s="2" t="s">
         <v>3145</v>
       </c>
-      <c r="B659" s="2"/>
+      <c r="B659" s="11" t="s">
+        <v>4646</v>
+      </c>
       <c r="C659" s="2" t="s">
         <v>3146</v>
       </c>
@@ -41175,7 +42325,9 @@
       <c r="A660" s="2" t="s">
         <v>3150</v>
       </c>
-      <c r="B660" s="2"/>
+      <c r="B660" s="11" t="s">
+        <v>4647</v>
+      </c>
       <c r="C660" s="2" t="s">
         <v>3151</v>
       </c>
@@ -41215,7 +42367,9 @@
       <c r="A661" s="2" t="s">
         <v>3155</v>
       </c>
-      <c r="B661" s="2"/>
+      <c r="B661" s="9" t="s">
+        <v>4648</v>
+      </c>
       <c r="C661" s="2" t="s">
         <v>791</v>
       </c>
@@ -41253,7 +42407,9 @@
       <c r="A662" s="2" t="s">
         <v>3159</v>
       </c>
-      <c r="B662" s="2"/>
+      <c r="B662" s="9" t="s">
+        <v>4650</v>
+      </c>
       <c r="C662" s="2" t="s">
         <v>3160</v>
       </c>
@@ -41293,7 +42449,9 @@
       <c r="A663" s="2" t="s">
         <v>3164</v>
       </c>
-      <c r="B663" s="2"/>
+      <c r="B663" s="9" t="s">
+        <v>4651</v>
+      </c>
       <c r="C663" s="2" t="s">
         <v>3165</v>
       </c>
@@ -41335,7 +42493,9 @@
       <c r="A664" s="2" t="s">
         <v>3170</v>
       </c>
-      <c r="B664" s="2"/>
+      <c r="B664" s="9" t="s">
+        <v>4652</v>
+      </c>
       <c r="C664" s="2" t="s">
         <v>2366</v>
       </c>
@@ -41377,7 +42537,9 @@
       <c r="A665" s="2" t="s">
         <v>3175</v>
       </c>
-      <c r="B665" s="2"/>
+      <c r="B665" s="9" t="s">
+        <v>4653</v>
+      </c>
       <c r="C665" s="2" t="s">
         <v>3176</v>
       </c>
@@ -41419,7 +42581,9 @@
       <c r="A666" s="2" t="s">
         <v>3181</v>
       </c>
-      <c r="B666" s="2"/>
+      <c r="B666" s="9" t="s">
+        <v>4654</v>
+      </c>
       <c r="C666" s="2" t="s">
         <v>841</v>
       </c>
@@ -41461,7 +42625,9 @@
       <c r="A667" s="2" t="s">
         <v>3186</v>
       </c>
-      <c r="B667" s="2"/>
+      <c r="B667" s="9" t="s">
+        <v>4655</v>
+      </c>
       <c r="C667" s="2" t="s">
         <v>27</v>
       </c>
@@ -41501,7 +42667,9 @@
       <c r="A668" s="2" t="s">
         <v>3188</v>
       </c>
-      <c r="B668" s="2"/>
+      <c r="B668" s="9" t="s">
+        <v>4656</v>
+      </c>
       <c r="C668" s="2" t="s">
         <v>841</v>
       </c>
@@ -41541,7 +42709,9 @@
       <c r="A669" s="2" t="s">
         <v>3192</v>
       </c>
-      <c r="B669" s="2"/>
+      <c r="B669" s="9" t="s">
+        <v>4657</v>
+      </c>
       <c r="C669" s="2" t="s">
         <v>3193</v>
       </c>
@@ -41577,7 +42747,9 @@
       <c r="A670" s="2" t="s">
         <v>3195</v>
       </c>
-      <c r="B670" s="2"/>
+      <c r="B670" s="9" t="s">
+        <v>4658</v>
+      </c>
       <c r="C670" s="2" t="s">
         <v>791</v>
       </c>
@@ -41617,7 +42789,9 @@
       <c r="A671" s="2" t="s">
         <v>3199</v>
       </c>
-      <c r="B671" s="2"/>
+      <c r="B671" s="9" t="s">
+        <v>4649</v>
+      </c>
       <c r="C671" s="2" t="s">
         <v>2366</v>
       </c>
@@ -41657,7 +42831,9 @@
       <c r="A672" s="2" t="s">
         <v>3203</v>
       </c>
-      <c r="B672" s="2"/>
+      <c r="B672" s="9" t="s">
+        <v>4659</v>
+      </c>
       <c r="C672" s="2" t="s">
         <v>3204</v>
       </c>
@@ -41697,7 +42873,9 @@
       <c r="A673" s="2" t="s">
         <v>3208</v>
       </c>
-      <c r="B673" s="2"/>
+      <c r="B673" s="9" t="s">
+        <v>4660</v>
+      </c>
       <c r="C673" s="2" t="s">
         <v>3209</v>
       </c>
@@ -41737,7 +42915,9 @@
       <c r="A674" s="2" t="s">
         <v>3213</v>
       </c>
-      <c r="B674" s="2"/>
+      <c r="B674" s="9" t="s">
+        <v>4660</v>
+      </c>
       <c r="C674" s="2" t="s">
         <v>3214</v>
       </c>
@@ -41777,7 +42957,9 @@
       <c r="A675" s="2" t="s">
         <v>3217</v>
       </c>
-      <c r="B675" s="2"/>
+      <c r="B675" s="9" t="s">
+        <v>4660</v>
+      </c>
       <c r="C675" s="2" t="s">
         <v>841</v>
       </c>
@@ -41819,7 +43001,9 @@
       <c r="A676" s="2" t="s">
         <v>3222</v>
       </c>
-      <c r="B676" s="2"/>
+      <c r="B676" s="9" t="s">
+        <v>4661</v>
+      </c>
       <c r="C676" s="2" t="s">
         <v>2366</v>
       </c>
@@ -41861,7 +43045,9 @@
       <c r="A677" s="2" t="s">
         <v>3227</v>
       </c>
-      <c r="B677" s="2"/>
+      <c r="B677" s="9" t="s">
+        <v>4662</v>
+      </c>
       <c r="C677" s="2" t="s">
         <v>3228</v>
       </c>
@@ -41901,7 +43087,9 @@
       <c r="A678" s="2" t="s">
         <v>3233</v>
       </c>
-      <c r="B678" s="2"/>
+      <c r="B678" s="9" t="s">
+        <v>4663</v>
+      </c>
       <c r="C678" s="2" t="s">
         <v>3234</v>
       </c>
@@ -41941,7 +43129,9 @@
       <c r="A679" s="2" t="s">
         <v>3238</v>
       </c>
-      <c r="B679" s="2"/>
+      <c r="B679" s="9" t="s">
+        <v>4664</v>
+      </c>
       <c r="C679" s="2" t="s">
         <v>3239</v>
       </c>
@@ -41981,7 +43171,9 @@
       <c r="A680" s="2" t="s">
         <v>3243</v>
       </c>
-      <c r="B680" s="2"/>
+      <c r="B680" s="9" t="s">
+        <v>4665</v>
+      </c>
       <c r="C680" s="2" t="s">
         <v>3244</v>
       </c>
@@ -42021,7 +43213,9 @@
       <c r="A681" s="2" t="s">
         <v>3248</v>
       </c>
-      <c r="B681" s="2"/>
+      <c r="B681" s="9" t="s">
+        <v>4666</v>
+      </c>
       <c r="C681" s="2" t="s">
         <v>841</v>
       </c>
@@ -42061,7 +43255,9 @@
       <c r="A682" s="2" t="s">
         <v>3252</v>
       </c>
-      <c r="B682" s="2"/>
+      <c r="B682" s="9" t="s">
+        <v>4667</v>
+      </c>
       <c r="C682" s="2" t="s">
         <v>791</v>
       </c>
@@ -42101,7 +43297,9 @@
       <c r="A683" s="2" t="s">
         <v>3256</v>
       </c>
-      <c r="B683" s="2"/>
+      <c r="B683" s="9" t="s">
+        <v>4668</v>
+      </c>
       <c r="C683" s="2" t="s">
         <v>932</v>
       </c>
@@ -42141,7 +43339,9 @@
       <c r="A684" s="2" t="s">
         <v>3260</v>
       </c>
-      <c r="B684" s="2"/>
+      <c r="B684" s="9" t="s">
+        <v>4669</v>
+      </c>
       <c r="C684" s="2" t="s">
         <v>3261</v>
       </c>
@@ -42181,7 +43381,9 @@
       <c r="A685" s="2" t="s">
         <v>3265</v>
       </c>
-      <c r="B685" s="2"/>
+      <c r="B685" s="9" t="s">
+        <v>4670</v>
+      </c>
       <c r="C685" s="2" t="s">
         <v>3266</v>
       </c>
@@ -42221,7 +43423,9 @@
       <c r="A686" s="2" t="s">
         <v>3270</v>
       </c>
-      <c r="B686" s="2"/>
+      <c r="B686" s="9" t="s">
+        <v>4671</v>
+      </c>
       <c r="C686" s="2" t="s">
         <v>3271</v>
       </c>
@@ -42261,7 +43465,9 @@
       <c r="A687" s="2" t="s">
         <v>3275</v>
       </c>
-      <c r="B687" s="2"/>
+      <c r="B687" s="9" t="s">
+        <v>4672</v>
+      </c>
       <c r="C687" s="2" t="s">
         <v>2635</v>
       </c>
@@ -42301,7 +43507,9 @@
       <c r="A688" s="2" t="s">
         <v>3279</v>
       </c>
-      <c r="B688" s="2"/>
+      <c r="B688" s="9" t="s">
+        <v>4673</v>
+      </c>
       <c r="C688" s="2" t="s">
         <v>3280</v>
       </c>
@@ -42341,7 +43549,9 @@
       <c r="A689" s="2" t="s">
         <v>3284</v>
       </c>
-      <c r="B689" s="2"/>
+      <c r="B689" s="9" t="s">
+        <v>4674</v>
+      </c>
       <c r="C689" s="2" t="s">
         <v>3096</v>
       </c>
@@ -42381,7 +43591,9 @@
       <c r="A690" s="2" t="s">
         <v>3288</v>
       </c>
-      <c r="B690" s="2"/>
+      <c r="B690" s="9" t="s">
+        <v>4675</v>
+      </c>
       <c r="C690" s="2" t="s">
         <v>3289</v>
       </c>
@@ -53909,6 +55121,251 @@
     <hyperlink ref="B411" r:id="rId440" xr:uid="{FBECD202-1131-468F-9D3C-FEA9846B34BD}"/>
     <hyperlink ref="B410" r:id="rId441" xr:uid="{A46553C2-5955-47C0-8ECB-EBDD91630C30}"/>
     <hyperlink ref="B409" r:id="rId442" xr:uid="{589B7195-8331-4ADB-9E2E-DEEFAA8E20C4}"/>
+    <hyperlink ref="B444" r:id="rId443" xr:uid="{6F536D54-1B8B-4029-A321-BADCC15D39A4}"/>
+    <hyperlink ref="B445" r:id="rId444" xr:uid="{F68AF122-6E22-4CE3-951B-F0187428B935}"/>
+    <hyperlink ref="B446" r:id="rId445" xr:uid="{E42CCEDE-3C8F-456B-8E91-306716C6B410}"/>
+    <hyperlink ref="B447" r:id="rId446" xr:uid="{290EB774-0FCE-4BA8-9A68-D76EA3D48162}"/>
+    <hyperlink ref="B448" r:id="rId447" xr:uid="{C332B3D8-64A1-4DD8-AC19-183CCDE341E1}"/>
+    <hyperlink ref="B449" r:id="rId448" xr:uid="{3B953706-D82C-4F6C-ABA4-EA0ABB624AF8}"/>
+    <hyperlink ref="B450" r:id="rId449" xr:uid="{07C50CCC-9921-40E2-8B81-2017178D35AC}"/>
+    <hyperlink ref="B451" r:id="rId450" xr:uid="{A90E2992-33B2-4BAB-B0FE-A4F4458775A4}"/>
+    <hyperlink ref="B452" r:id="rId451" xr:uid="{C2A6ACD3-4ADF-4EA9-A504-36E9C0A1FB21}"/>
+    <hyperlink ref="B453" r:id="rId452" xr:uid="{CF5C9019-3A16-4358-B7AF-963F7485AD4B}"/>
+    <hyperlink ref="B454" r:id="rId453" xr:uid="{7957EB8F-EE32-4DF4-AEFA-56D8CF123247}"/>
+    <hyperlink ref="B455" r:id="rId454" xr:uid="{83686A7D-924D-4119-8548-EC605FF5BA07}"/>
+    <hyperlink ref="B456" r:id="rId455" xr:uid="{10E0A721-747A-42AB-84EA-28F26EC17545}"/>
+    <hyperlink ref="B457" r:id="rId456" xr:uid="{50E85385-7AD4-44AB-8682-1EDC0FD6E241}"/>
+    <hyperlink ref="B458" r:id="rId457" xr:uid="{6A29E9B9-8DE4-46AF-AAED-FA359C389093}"/>
+    <hyperlink ref="B459" r:id="rId458" xr:uid="{B0A87E36-A5C0-4DDB-B27C-F3AA8974FA23}"/>
+    <hyperlink ref="B460" r:id="rId459" xr:uid="{39D9589D-78CD-4F87-AE26-DFF268AC5AF8}"/>
+    <hyperlink ref="B461" r:id="rId460" xr:uid="{AF37ABF7-1C13-471F-B00B-21457FEF2D72}"/>
+    <hyperlink ref="B495" r:id="rId461" xr:uid="{189D84B5-AA03-4637-8F8F-5A6055624691}"/>
+    <hyperlink ref="B494" r:id="rId462" xr:uid="{3A532701-87A4-4C50-96A3-9DC2B3A09639}"/>
+    <hyperlink ref="B493" r:id="rId463" xr:uid="{ED650722-D408-4164-83E9-20665AF3D2B2}"/>
+    <hyperlink ref="B492" r:id="rId464" xr:uid="{632C8AB7-60A6-4C75-9231-8F6F457337DC}"/>
+    <hyperlink ref="B491" r:id="rId465" xr:uid="{0FC2CA19-9D50-4BFC-A104-8ED7460D748F}"/>
+    <hyperlink ref="B490" r:id="rId466" xr:uid="{8AEAFB4E-549E-467F-A91D-AF82F4ACE376}"/>
+    <hyperlink ref="B489" r:id="rId467" xr:uid="{695B14C1-F004-450A-98EE-64CE8C99DC61}"/>
+    <hyperlink ref="B488" r:id="rId468" xr:uid="{AD3023A6-C074-4A05-B82C-7978FA82A4F0}"/>
+    <hyperlink ref="B487" r:id="rId469" xr:uid="{1F992C55-0DCA-4380-94F1-F4C350236DA5}"/>
+    <hyperlink ref="B486" r:id="rId470" xr:uid="{6D118A41-A25B-4277-BB15-D02C80F1D8FA}"/>
+    <hyperlink ref="B485" r:id="rId471" xr:uid="{E5FE6AD3-AAD2-4094-9B65-C2063D0E9DF8}"/>
+    <hyperlink ref="B484" r:id="rId472" xr:uid="{498A9CD7-CC2E-4CC5-9099-E25CF0338C8B}"/>
+    <hyperlink ref="B483" r:id="rId473" xr:uid="{232E18C5-445F-4927-9294-384A15477B3F}"/>
+    <hyperlink ref="B482" r:id="rId474" xr:uid="{97C80850-ED05-4EDF-B83E-5436190571C8}"/>
+    <hyperlink ref="B481" r:id="rId475" xr:uid="{9329FC92-CD32-4E1B-B3A5-580C97E9525C}"/>
+    <hyperlink ref="B480" r:id="rId476" xr:uid="{35E0362B-F5D1-4064-9A04-DFBF88C8F500}"/>
+    <hyperlink ref="B479" r:id="rId477" xr:uid="{B01D0470-781A-497F-AB60-DCFC187A2933}"/>
+    <hyperlink ref="B478" r:id="rId478" xr:uid="{B58DB4EE-0445-4381-A362-2C15F1EA7472}"/>
+    <hyperlink ref="B477" r:id="rId479" xr:uid="{513A069C-6156-4E94-AF86-897B303536E5}"/>
+    <hyperlink ref="B476" r:id="rId480" xr:uid="{D4904061-9B31-4ECC-8AFF-F150408180E0}"/>
+    <hyperlink ref="B475" r:id="rId481" xr:uid="{8FFA0228-9690-4361-A6B0-2B2DDEB0E89D}"/>
+    <hyperlink ref="B474" r:id="rId482" xr:uid="{934FEAA4-D0DA-4941-B7A9-A941EB26F62F}"/>
+    <hyperlink ref="B473" r:id="rId483" xr:uid="{8F4A2CE5-F703-490F-BBD1-AD5300DB75B6}"/>
+    <hyperlink ref="B472" r:id="rId484" xr:uid="{35FE9F75-FD33-407D-9807-8C2B7ADAE7EB}"/>
+    <hyperlink ref="B471" r:id="rId485" xr:uid="{15503FEB-6426-45A1-9DBA-C711C9919DB1}"/>
+    <hyperlink ref="B470" r:id="rId486" xr:uid="{63F1046A-B428-41F0-B4A4-653706AFFD82}"/>
+    <hyperlink ref="B469" r:id="rId487" xr:uid="{128F4042-D62B-4FD5-948A-49B4A7B98344}"/>
+    <hyperlink ref="B468" r:id="rId488" xr:uid="{88E7F8B6-A3B4-4CB4-8EE7-434B39D32611}"/>
+    <hyperlink ref="B467" r:id="rId489" xr:uid="{A55B7DA2-9580-4023-9A03-48C101C63E6B}"/>
+    <hyperlink ref="B466" r:id="rId490" xr:uid="{8653DFF0-97D1-4FCB-9FBA-548B57055469}"/>
+    <hyperlink ref="B465" r:id="rId491" xr:uid="{FC78A7E5-BC57-4A71-8055-D1E2C0D69796}"/>
+    <hyperlink ref="B464" r:id="rId492" xr:uid="{F2600D6C-28BD-48F5-A857-3E6A73995783}"/>
+    <hyperlink ref="B463" r:id="rId493" xr:uid="{4B1B81A6-9B46-4123-A35A-8C7039230C64}"/>
+    <hyperlink ref="B462" r:id="rId494" xr:uid="{FEF6B0EC-4C11-4AFB-AE54-84460B67BB1B}"/>
+    <hyperlink ref="B496" r:id="rId495" xr:uid="{DA681C71-0482-4BF8-8CA1-A12ECC95D42C}"/>
+    <hyperlink ref="B497" r:id="rId496" xr:uid="{DC49C537-778D-4A81-BE87-92F70A8678CF}"/>
+    <hyperlink ref="B498" r:id="rId497" xr:uid="{0F327F5D-742C-4BD5-8C67-3994F8701537}"/>
+    <hyperlink ref="B499" r:id="rId498" xr:uid="{B1728E77-6B0A-4199-829C-BA9CFFE76BB2}"/>
+    <hyperlink ref="B500" r:id="rId499" xr:uid="{9AD89F9E-47D1-465A-9AC7-D6982B99B0C8}"/>
+    <hyperlink ref="B501" r:id="rId500" xr:uid="{E2CC4670-A733-4387-ADE9-177A7B56595B}"/>
+    <hyperlink ref="B502" r:id="rId501" xr:uid="{D6EFA360-7FB4-4663-8CB7-D8486B6612DC}"/>
+    <hyperlink ref="B503" r:id="rId502" xr:uid="{B0295F8F-223C-4674-AC5D-B282423BCD7A}"/>
+    <hyperlink ref="B504" r:id="rId503" xr:uid="{1CB08DE3-27FC-4560-8023-A445CFFA393A}"/>
+    <hyperlink ref="B505" r:id="rId504" xr:uid="{015FE2EF-4B85-4D34-8F2A-AEA33CC5665E}"/>
+    <hyperlink ref="B506" r:id="rId505" xr:uid="{3C98823E-B492-48EA-BF06-11E3AAEBC674}"/>
+    <hyperlink ref="B507" r:id="rId506" xr:uid="{93D31FED-FAF0-4E1D-831E-C875A4B83F22}"/>
+    <hyperlink ref="B508" r:id="rId507" xr:uid="{106E68BA-A61A-47F3-8389-D777D33AA21A}"/>
+    <hyperlink ref="B509" r:id="rId508" xr:uid="{AD7C0D18-52D6-421B-81A3-FE51311EE309}"/>
+    <hyperlink ref="B510" r:id="rId509" xr:uid="{4A86AF97-27BF-4206-A230-3F2DCD4FBDF8}"/>
+    <hyperlink ref="B511" r:id="rId510" xr:uid="{44E8EE2F-01E4-428A-A389-9E09560FB7F3}"/>
+    <hyperlink ref="B512" r:id="rId511" xr:uid="{DEE44703-5CC8-472D-99C4-792725725A5D}"/>
+    <hyperlink ref="B513" r:id="rId512" xr:uid="{704E0B6B-F952-46D7-BB1D-EEB6DDC6D3B7}"/>
+    <hyperlink ref="B514" r:id="rId513" xr:uid="{767147A8-15A2-49A1-84DC-3EB8327B2C4E}"/>
+    <hyperlink ref="B515" r:id="rId514" xr:uid="{CFDD0C58-930B-4DEA-997E-3803927280B3}"/>
+    <hyperlink ref="B516" r:id="rId515" xr:uid="{66ADA346-70ED-46E7-A2D0-B9F8F4620A28}"/>
+    <hyperlink ref="B517" r:id="rId516" xr:uid="{23CBB3E4-768E-49E9-B540-97E4E1A1B843}"/>
+    <hyperlink ref="B518" r:id="rId517" xr:uid="{533DA484-CB97-4778-BDA5-86A1DE8D7F28}"/>
+    <hyperlink ref="B519" r:id="rId518" xr:uid="{7278D496-B49E-413A-9C90-1AE0B7B0AAE5}"/>
+    <hyperlink ref="B520" r:id="rId519" xr:uid="{60292AF9-1DD1-4B20-BCFA-805997E3DCB6}"/>
+    <hyperlink ref="B521" r:id="rId520" xr:uid="{1C2207EA-34BE-4D9B-8354-F99D37FF8E2E}"/>
+    <hyperlink ref="B522" r:id="rId521" xr:uid="{7198DCA9-871B-4A54-877C-2E48CB2F9882}"/>
+    <hyperlink ref="B523" r:id="rId522" xr:uid="{2F831669-37B5-41C1-A1D5-6C1DA3572A61}"/>
+    <hyperlink ref="B524" r:id="rId523" xr:uid="{52C3321C-FD3A-4BC4-916C-48648F97FF59}"/>
+    <hyperlink ref="B525" r:id="rId524" xr:uid="{5063AA25-C337-4592-BA16-E91A3B6FFB6B}"/>
+    <hyperlink ref="B526" r:id="rId525" xr:uid="{755E7E19-96B1-4F17-8E82-1045B5348B3A}"/>
+    <hyperlink ref="B555" r:id="rId526" xr:uid="{B53457BD-D4B1-42F5-8E03-A8D6027C164D}"/>
+    <hyperlink ref="B554" r:id="rId527" xr:uid="{F5ED5FDA-95CA-4121-812D-1A8061E139C4}"/>
+    <hyperlink ref="B553" r:id="rId528" xr:uid="{F5CA51AA-20E1-428A-B883-3DA4703E795A}"/>
+    <hyperlink ref="B552" r:id="rId529" xr:uid="{514D4BE9-EA23-4459-8783-1C0D13945600}"/>
+    <hyperlink ref="B551" r:id="rId530" xr:uid="{AF6605F4-25E0-479E-AAC8-99BEDCAB3555}"/>
+    <hyperlink ref="B550" r:id="rId531" xr:uid="{7C2BF14D-2F53-42D3-8E48-66E57CF31A85}"/>
+    <hyperlink ref="B549" r:id="rId532" xr:uid="{F1DAA702-6226-4711-9ABC-E208EB8D88EE}"/>
+    <hyperlink ref="B548" r:id="rId533" xr:uid="{BF6845A8-B65A-4A33-A0F7-D05FFF185F81}"/>
+    <hyperlink ref="B547" r:id="rId534" xr:uid="{35898515-85BB-4359-8F03-E4A0A6871DFA}"/>
+    <hyperlink ref="B546" r:id="rId535" xr:uid="{B7CDAD98-14DC-4C31-AED9-C06235EA2C9A}"/>
+    <hyperlink ref="B544" r:id="rId536" xr:uid="{9A3BC4FB-DDF0-4F15-BC3C-C491F1F4BE48}"/>
+    <hyperlink ref="B543" r:id="rId537" xr:uid="{23FD3609-3B94-4584-B5BA-1BF4173126D3}"/>
+    <hyperlink ref="B542" r:id="rId538" xr:uid="{FDA46542-974E-4655-9C09-7B7C7C59EF52}"/>
+    <hyperlink ref="B541" r:id="rId539" xr:uid="{A80B294E-2C32-49F2-B53B-FDC69076BD70}"/>
+    <hyperlink ref="B540" r:id="rId540" xr:uid="{328FDBE0-7E34-4191-8C0A-BEF3BFB78E63}"/>
+    <hyperlink ref="B539" r:id="rId541" xr:uid="{495751AC-0B45-40CF-854C-E467C266667F}"/>
+    <hyperlink ref="B538" r:id="rId542" xr:uid="{E7FBF878-0AA3-4484-9ADC-9438DA52065A}"/>
+    <hyperlink ref="B537" r:id="rId543" xr:uid="{2180B87F-CEED-4EA4-A305-33D3814F966F}"/>
+    <hyperlink ref="B536" r:id="rId544" xr:uid="{CCC7F6C2-2376-449F-A54A-7CE9EA82ACF5}"/>
+    <hyperlink ref="B535" r:id="rId545" xr:uid="{4BDB1339-4DD9-40A1-9404-65C1E01ACF87}"/>
+    <hyperlink ref="B534" r:id="rId546" xr:uid="{70A5271A-6BAB-4823-ADF9-E67FDBC6BE31}"/>
+    <hyperlink ref="B533" r:id="rId547" xr:uid="{9A084923-F955-4645-917E-4A93D63379B4}"/>
+    <hyperlink ref="B532" r:id="rId548" xr:uid="{8F412F13-968C-4A54-BB87-179B68C22DAA}"/>
+    <hyperlink ref="B531" r:id="rId549" xr:uid="{CEF0DDB3-49D8-4791-AC15-7BA2B8645386}"/>
+    <hyperlink ref="B530" r:id="rId550" xr:uid="{3C0647C5-C45E-40F5-8F64-45F66EC1A55A}"/>
+    <hyperlink ref="B529" r:id="rId551" xr:uid="{E1F77C7A-B001-4FBE-8727-B3974CE06351}"/>
+    <hyperlink ref="B528" r:id="rId552" xr:uid="{C9246334-8E83-4A60-9A1E-D3A1D7D4CF24}"/>
+    <hyperlink ref="B527" r:id="rId553" xr:uid="{FC9274AD-E993-4771-B229-BB487F5223DE}"/>
+    <hyperlink ref="B556" r:id="rId554" xr:uid="{895EB113-9377-4D12-A887-96CD5785EAC1}"/>
+    <hyperlink ref="B557" r:id="rId555" xr:uid="{B3A0FB84-4025-4CDC-B945-4134C3BBEC99}"/>
+    <hyperlink ref="B558" r:id="rId556" xr:uid="{96BC9806-20CE-4A54-BA81-2FAC87C07A03}"/>
+    <hyperlink ref="B559" r:id="rId557" xr:uid="{B86785E0-0D8B-4840-9BB1-4A1F79C17FFF}"/>
+    <hyperlink ref="B560" r:id="rId558" xr:uid="{2E42AEB0-B89D-4B22-91B1-B4FCF328C482}"/>
+    <hyperlink ref="B561" r:id="rId559" xr:uid="{7F14032A-B744-4C41-8EB3-6A1A10793D46}"/>
+    <hyperlink ref="B563" r:id="rId560" xr:uid="{E5CBB94B-7A99-4BA0-B922-50EFBF48B76B}"/>
+    <hyperlink ref="B564" r:id="rId561" xr:uid="{10830A11-0B72-4CA9-8E3C-2F1556040B1A}"/>
+    <hyperlink ref="B565" r:id="rId562" xr:uid="{860E2CC1-9D4B-493C-A8C0-FBBBF08F84BB}"/>
+    <hyperlink ref="B566" r:id="rId563" xr:uid="{E3F8B058-1927-4D1D-8AA4-396282A606C0}"/>
+    <hyperlink ref="B567" r:id="rId564" xr:uid="{8E2F7E16-C7F6-46FA-A1FF-D36F9740FBF3}"/>
+    <hyperlink ref="B568" r:id="rId565" xr:uid="{D82DD0D8-A063-4CD5-AB1A-DEDC37EF8B40}"/>
+    <hyperlink ref="B569" r:id="rId566" xr:uid="{8A843346-943D-40AD-8C80-157DCD8BC580}"/>
+    <hyperlink ref="B570" r:id="rId567" xr:uid="{CBCCFAA7-81E6-403C-9C44-D0A5C505D068}"/>
+    <hyperlink ref="B571" r:id="rId568" xr:uid="{3F918CD5-E0AB-4A97-89D0-5BE6C297C684}"/>
+    <hyperlink ref="B572" r:id="rId569" xr:uid="{DB4055C3-6CF1-4DCD-A725-9B86F562D711}"/>
+    <hyperlink ref="B573" r:id="rId570" xr:uid="{2DA2B64D-51E1-4902-A34F-4C62F02C1BF1}"/>
+    <hyperlink ref="B574" r:id="rId571" xr:uid="{2627A24F-C6A2-4737-A5F5-5B8C177CF2F2}"/>
+    <hyperlink ref="B575" r:id="rId572" xr:uid="{CF7F33D6-0433-46D5-A910-66616288D53D}"/>
+    <hyperlink ref="B576" r:id="rId573" xr:uid="{4B067EBB-FDD5-43AA-81C1-B4B740C3464D}"/>
+    <hyperlink ref="B577" r:id="rId574" xr:uid="{49B1AC67-9CE2-482B-9E4A-145C7ED69814}"/>
+    <hyperlink ref="B578" r:id="rId575" xr:uid="{5E7AD639-CC69-48E0-9178-6DA56349E14C}"/>
+    <hyperlink ref="B660" r:id="rId576" xr:uid="{C12374A5-BC56-4D24-9F26-259BA8EA33B7}"/>
+    <hyperlink ref="B659" r:id="rId577" xr:uid="{70DB4050-5396-446B-AE56-DA10F7C2D42C}"/>
+    <hyperlink ref="B658" r:id="rId578" xr:uid="{B385DAF6-4042-4727-810F-217FAD9F15DD}"/>
+    <hyperlink ref="B657" r:id="rId579" xr:uid="{B7E39D31-C910-4858-B1AB-140DFBA2DDB3}"/>
+    <hyperlink ref="B656" r:id="rId580" xr:uid="{1610033B-6660-4344-A344-F8358DD5A5F0}"/>
+    <hyperlink ref="B655" r:id="rId581" xr:uid="{4C8AEE7C-ACE4-4A5A-9E5C-76844368E2B6}"/>
+    <hyperlink ref="B654" r:id="rId582" xr:uid="{F4E8BD5C-C6DE-46A2-AE88-E139D5C30017}"/>
+    <hyperlink ref="B653" r:id="rId583" xr:uid="{E878D391-B7B0-4CAA-91DC-8478FAF6DA2E}"/>
+    <hyperlink ref="B652" r:id="rId584" xr:uid="{87F3DE3B-D81C-41A3-8108-D89312CD7AF9}"/>
+    <hyperlink ref="B651" r:id="rId585" xr:uid="{7018ED50-3B83-4778-89D0-41A15234940D}"/>
+    <hyperlink ref="B650" r:id="rId586" xr:uid="{CD2EADA2-1457-4759-A98C-28B5FBE753C3}"/>
+    <hyperlink ref="B649" r:id="rId587" xr:uid="{3A5CAD03-6E60-4617-A3C7-08D768E494EA}"/>
+    <hyperlink ref="B648" r:id="rId588" xr:uid="{6A368446-3C2D-4BDF-A58B-2188F315618E}"/>
+    <hyperlink ref="B647" r:id="rId589" xr:uid="{A2173EE2-7D85-43E1-BFD9-2FB5E6E42EF4}"/>
+    <hyperlink ref="B646" r:id="rId590" xr:uid="{95911C15-910D-4502-AE73-1B129305C04E}"/>
+    <hyperlink ref="B645" r:id="rId591" xr:uid="{AE85CB0B-E6A3-4F74-B2F4-34DC95DFDEDF}"/>
+    <hyperlink ref="B644" r:id="rId592" xr:uid="{AE48D0E4-93AA-487A-8476-F58F45DC0647}"/>
+    <hyperlink ref="B643" r:id="rId593" xr:uid="{52B2CD88-F169-4C04-A8D8-33BFE24F9135}"/>
+    <hyperlink ref="B642" r:id="rId594" xr:uid="{26ED8969-15EF-47DB-BE10-CE629A21CE82}"/>
+    <hyperlink ref="B641" r:id="rId595" xr:uid="{18D43C9B-58A1-4311-B851-0A30EE0C165C}"/>
+    <hyperlink ref="B640" r:id="rId596" xr:uid="{9642C31B-1835-4ACA-B32F-09D06D1C512D}"/>
+    <hyperlink ref="B639" r:id="rId597" xr:uid="{2DD3EB63-D3BB-4681-949D-EE7FC1BE7FE6}"/>
+    <hyperlink ref="B638" r:id="rId598" xr:uid="{4FCAE74B-DFEB-4EE7-9987-090C4CC90012}"/>
+    <hyperlink ref="B637" r:id="rId599" xr:uid="{361514B4-F1F6-4F4C-9485-4F75A12F13F4}"/>
+    <hyperlink ref="B636" r:id="rId600" xr:uid="{74E9514E-574D-4902-982D-4B9BE63D73BB}"/>
+    <hyperlink ref="B635" r:id="rId601" xr:uid="{2DDC8F70-CEF3-4113-9946-6E4250B15DAE}"/>
+    <hyperlink ref="B634" r:id="rId602" xr:uid="{F72C4048-DB07-42F9-90DC-08137183AA25}"/>
+    <hyperlink ref="B633" r:id="rId603" xr:uid="{724851A2-6623-4BA3-B822-5D8F73019CDD}"/>
+    <hyperlink ref="B632" r:id="rId604" xr:uid="{52A21AB9-9A45-456F-967E-6DC7EAE6148A}"/>
+    <hyperlink ref="B631" r:id="rId605" xr:uid="{59D7F45F-A7D4-40BD-9574-08B2E7FEA36D}"/>
+    <hyperlink ref="B630" r:id="rId606" xr:uid="{7C0CD4F6-D5F5-40FA-890F-D19C2D0EB4F9}"/>
+    <hyperlink ref="B629" r:id="rId607" xr:uid="{712EF1DC-F02B-4901-898E-41A4B83D6675}"/>
+    <hyperlink ref="B628" r:id="rId608" xr:uid="{20D0740B-D6BE-4EBB-A7C7-BFCDBB50868D}"/>
+    <hyperlink ref="B627" r:id="rId609" xr:uid="{55E2998F-9EBB-451F-BDB0-D90195E2BA97}"/>
+    <hyperlink ref="B626" r:id="rId610" xr:uid="{7D236E7A-DF84-4997-A5EB-B4D286D229CF}"/>
+    <hyperlink ref="B625" r:id="rId611" xr:uid="{3061BFA3-3558-462B-A1DB-8ABB8074F696}"/>
+    <hyperlink ref="B624" r:id="rId612" xr:uid="{B17F7EEA-33DC-44C0-9C1A-13AAEAB4DC63}"/>
+    <hyperlink ref="B623" r:id="rId613" xr:uid="{58CE16A6-4DF9-4535-88C0-194B547BE58A}"/>
+    <hyperlink ref="B622" r:id="rId614" xr:uid="{FE0A244B-237E-4693-9FB4-0F37916F21C9}"/>
+    <hyperlink ref="B621" r:id="rId615" xr:uid="{6986A245-6B8B-446E-A1CE-4FAE5E5FC987}"/>
+    <hyperlink ref="B620" r:id="rId616" xr:uid="{6C7CCD22-C7E4-4F93-ADF9-3363989DAC50}"/>
+    <hyperlink ref="B619" r:id="rId617" xr:uid="{69EDF10B-894F-4616-BC45-719BAF6A9D12}"/>
+    <hyperlink ref="B618" r:id="rId618" xr:uid="{AF3B249A-DB3F-4A94-9B86-6C952FC33260}"/>
+    <hyperlink ref="B617" r:id="rId619" xr:uid="{4F9B7B84-5366-4D3B-8015-AD2BEBA66EC1}"/>
+    <hyperlink ref="B616" r:id="rId620" xr:uid="{96BD0BA2-C7F8-4D7B-9E6D-A2644EF385D2}"/>
+    <hyperlink ref="B615" r:id="rId621" xr:uid="{540388CD-5061-4284-8056-B4EAF3E362E7}"/>
+    <hyperlink ref="B614" r:id="rId622" xr:uid="{E55CBBAD-1D5F-4D8E-BA5B-1C58AFC1996D}"/>
+    <hyperlink ref="B613" r:id="rId623" xr:uid="{F1F61635-CD06-47E4-A183-BDF259E2F01D}"/>
+    <hyperlink ref="B612" r:id="rId624" xr:uid="{8BFB84B5-0CA7-4433-8B2F-30E0C69D5FA9}"/>
+    <hyperlink ref="B611" r:id="rId625" xr:uid="{9D4487FD-E167-4272-BF36-A11467A68776}"/>
+    <hyperlink ref="B610" r:id="rId626" xr:uid="{3CFF9348-4A4F-4DAA-A3F9-66A9DB8E478C}"/>
+    <hyperlink ref="B609" r:id="rId627" xr:uid="{78CEAE90-1C8F-4C2F-8549-30CEC619C36B}"/>
+    <hyperlink ref="B608" r:id="rId628" xr:uid="{CCB219D1-1B66-4517-9861-28B2E5138B01}"/>
+    <hyperlink ref="B607" r:id="rId629" xr:uid="{263D0DA9-A39C-4A7A-8175-66FA09A55A20}"/>
+    <hyperlink ref="B606" r:id="rId630" xr:uid="{3856A2E8-8845-4327-8096-31F404702B3F}"/>
+    <hyperlink ref="B605" r:id="rId631" xr:uid="{FB750CDC-059D-47C7-B3ED-F9F674AC9E18}"/>
+    <hyperlink ref="B604" r:id="rId632" xr:uid="{05DB68CB-6298-4387-B962-136151B09EA4}"/>
+    <hyperlink ref="B603" r:id="rId633" xr:uid="{81DE7C4B-927B-4063-B4D4-F94010910962}"/>
+    <hyperlink ref="B602" r:id="rId634" xr:uid="{45E37547-F81F-4221-8A54-A509370DB77F}"/>
+    <hyperlink ref="B601" r:id="rId635" xr:uid="{49DA8A92-429F-47EF-85F1-BE3112F3CB61}"/>
+    <hyperlink ref="B600" r:id="rId636" xr:uid="{83B9B984-78D5-42F4-9BCB-1E9ADEA2AE96}"/>
+    <hyperlink ref="B599" r:id="rId637" xr:uid="{CF50FAD4-C7F0-4194-AE28-18DE815B4B8B}"/>
+    <hyperlink ref="B598" r:id="rId638" xr:uid="{02E9662D-2F0E-4CA0-B899-4A9AD8B22BB3}"/>
+    <hyperlink ref="B597" r:id="rId639" xr:uid="{14DA88E9-4803-4A6C-82A5-1B69DEE3FF67}"/>
+    <hyperlink ref="B596" r:id="rId640" xr:uid="{21CFBBB7-EF2D-4ACE-9205-8F550FECFB84}"/>
+    <hyperlink ref="B595" r:id="rId641" xr:uid="{6F29F11F-4057-4EFB-BE38-2F2C2F55D69A}"/>
+    <hyperlink ref="B594" r:id="rId642" xr:uid="{335E66E3-E47E-4D24-BDAD-055160BACA84}"/>
+    <hyperlink ref="B593" r:id="rId643" xr:uid="{BA41D4C2-EF79-4C6F-9707-B54DE58EB8E0}"/>
+    <hyperlink ref="B592" r:id="rId644" xr:uid="{4238B493-5956-44C8-BDE4-87F645A2C3B7}"/>
+    <hyperlink ref="B591" r:id="rId645" xr:uid="{21E9702C-C35D-4F37-B17C-577CB3303A37}"/>
+    <hyperlink ref="B590" r:id="rId646" xr:uid="{8591686C-5DE7-418C-8E71-9F0282710B7E}"/>
+    <hyperlink ref="B589" r:id="rId647" xr:uid="{0626D7FD-3AFC-41F1-915D-94156EC220FA}"/>
+    <hyperlink ref="B588" r:id="rId648" xr:uid="{80BB5885-88F4-45E6-A34F-75C5066D64C6}"/>
+    <hyperlink ref="B587" r:id="rId649" xr:uid="{AE325248-AD2F-4C29-B4B5-23C3D382010F}"/>
+    <hyperlink ref="B586" r:id="rId650" xr:uid="{09556C1A-A77D-4B1F-8D20-39170DD919FA}"/>
+    <hyperlink ref="B585" r:id="rId651" xr:uid="{4B95EC7B-8DF9-4514-BEB1-E1EF94E0CBFC}"/>
+    <hyperlink ref="B584" r:id="rId652" xr:uid="{EF62D83D-19F7-41EC-84C7-EA0136A6997A}"/>
+    <hyperlink ref="B583" r:id="rId653" xr:uid="{0C703FD2-0099-4FB7-B503-DE722383C12D}"/>
+    <hyperlink ref="B582" r:id="rId654" xr:uid="{A58FA1A2-60A0-457E-9D05-5BD54776F705}"/>
+    <hyperlink ref="B581" r:id="rId655" xr:uid="{949C7BA9-D59E-48A3-A6D2-1592A1759F98}"/>
+    <hyperlink ref="B580" r:id="rId656" xr:uid="{A734DCBD-C2C7-4FA8-85A2-933D1BE4BBB8}"/>
+    <hyperlink ref="B579" r:id="rId657" xr:uid="{7F80CA19-48BE-44A5-9828-B3080847BD80}"/>
+    <hyperlink ref="B661" r:id="rId658" xr:uid="{E72B832F-1707-43ED-8A46-8C5730DCAF15}"/>
+    <hyperlink ref="B662" r:id="rId659" xr:uid="{3ECB0E19-D955-4D14-A5EA-AD64B130EC5A}"/>
+    <hyperlink ref="B663" r:id="rId660" xr:uid="{772AC532-E012-4AD6-8B2D-A145A9B9B229}"/>
+    <hyperlink ref="B664" r:id="rId661" xr:uid="{1B936212-78FC-4F4F-840C-2E04DB41DABD}"/>
+    <hyperlink ref="B665" r:id="rId662" xr:uid="{95D8E246-5588-4AF5-9439-F74950D00C6D}"/>
+    <hyperlink ref="B666" r:id="rId663" xr:uid="{55C378BD-2290-48C1-8C64-F04BDF4EA860}"/>
+    <hyperlink ref="B667" r:id="rId664" xr:uid="{02433AAC-F2CC-45C0-84D6-B130A5B41772}"/>
+    <hyperlink ref="B668" r:id="rId665" xr:uid="{A669B6FA-4926-412C-90E2-C0A3CADDC157}"/>
+    <hyperlink ref="B669" r:id="rId666" xr:uid="{3A21212D-4EC6-4782-9E47-4433573C6097}"/>
+    <hyperlink ref="B670" r:id="rId667" xr:uid="{AFF1B0B1-F7F9-40A6-83A6-A36ED7907A36}"/>
+    <hyperlink ref="B671" r:id="rId668" xr:uid="{0D4AF961-3943-43FC-BEB9-B01B7DF7CDE1}"/>
+    <hyperlink ref="B672" r:id="rId669" xr:uid="{D1C19BBD-72B1-4D73-B90C-29D1D390C0A8}"/>
+    <hyperlink ref="B673" r:id="rId670" xr:uid="{FEBD5E54-DC37-4FE6-ABF1-A5E040C5B9C1}"/>
+    <hyperlink ref="B674" r:id="rId671" xr:uid="{1BF8C57C-9F8B-49E8-B659-B628EFCC7F39}"/>
+    <hyperlink ref="B675" r:id="rId672" xr:uid="{8AAE2C27-516E-41F3-A18D-EDA32714FFD1}"/>
+    <hyperlink ref="B676" r:id="rId673" xr:uid="{E1FFC92E-1159-42C6-9A02-A4CF82779F29}"/>
+    <hyperlink ref="B677" r:id="rId674" xr:uid="{B656C19D-BFE9-4BCD-8934-7F9F54EA98A8}"/>
+    <hyperlink ref="B678" r:id="rId675" xr:uid="{A4FBDA15-18A0-466C-815A-BE3017DF68D5}"/>
+    <hyperlink ref="B679" r:id="rId676" xr:uid="{41D16E26-C84D-4EE6-9F3C-157A7B11CE6D}"/>
+    <hyperlink ref="B680" r:id="rId677" xr:uid="{CC3761CC-FD8B-4220-BE4C-5C2EDB0CD2B5}"/>
+    <hyperlink ref="B681" r:id="rId678" xr:uid="{4CEBE21E-E9E5-4FDA-9999-2A4CB397469A}"/>
+    <hyperlink ref="B682" r:id="rId679" xr:uid="{BC277FF4-E61A-4AA2-88F7-6C29AEC5CE73}"/>
+    <hyperlink ref="B683" r:id="rId680" xr:uid="{56ECA572-3CFC-406C-BEB5-79015A82D471}"/>
+    <hyperlink ref="B684" r:id="rId681" xr:uid="{861B1E67-EEAE-422A-B6B1-49CC9880C8FA}"/>
+    <hyperlink ref="B685" r:id="rId682" xr:uid="{5BC5DA20-1F6E-4D1C-BCA4-6EBB9CB39B83}"/>
+    <hyperlink ref="B686" r:id="rId683" xr:uid="{23748957-87BB-41EC-A526-9490272B415E}"/>
+    <hyperlink ref="B687" r:id="rId684" xr:uid="{51A656A8-590D-4EBC-8EA2-02A643B92F97}"/>
+    <hyperlink ref="B688" r:id="rId685" xr:uid="{ED0AB1EA-C899-4524-AA41-465F6EAA271A}"/>
+    <hyperlink ref="B689" r:id="rId686" xr:uid="{4C3E6216-14D2-4740-B585-89AB3199E25B}"/>
+    <hyperlink ref="B690" r:id="rId687" xr:uid="{DE670748-8B1F-4B8F-9D83-E4372E7E0EC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/Lucas1.xlsx
+++ b/public/Lucas1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\PROYECTOS\ELmundo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80496E02-AEC5-4B83-96D5-94E8B864EE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17BE45F-B060-4D75-9514-496F94A6B222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6286" uniqueCount="4676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6504" uniqueCount="4891">
   <si>
     <t>CODIGO</t>
   </si>
@@ -13651,9 +13651,6 @@
     <t>https://www.lucaselectricalsa.com/productos/c/LEMSE028.jpg?554</t>
   </si>
   <si>
-    <t>NO IMAGEN.</t>
-  </si>
-  <si>
     <t>https://www.lucaselectricalsa.com/productos/c/LEMSE052.jpg?554</t>
   </si>
   <si>
@@ -14054,17 +14051,672 @@
   </si>
   <si>
     <t>https://www.lucaselectricalsa.com/productos/c/LEMSTP093.jpg?498</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW001.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW002.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW003.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW004.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW005.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW006.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW007.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW008.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW009.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW010.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW011.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW012.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW013.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW014.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW015.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW016.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW017.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW018.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW019.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW020.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW021.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW022.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSW045.jpg?521</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN106.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN110-1.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN112.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN113.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN114.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN115.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN135.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN142B.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN145.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN160.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN172.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN189.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN196.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN201.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN204.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN221.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN253.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN254.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN255.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN262.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN265.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN269.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN271.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN285.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN296.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN307.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN310.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN321.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN333.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN336.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN339.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN341.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN344.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN372.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN412.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN417.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN461.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN466.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN488.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN517.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN528.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN532.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN534.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN559.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN562.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN591.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN759.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN764.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN788.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN794.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN803.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN817.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN819.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN806.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN959.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN914.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTBN901.jpg?1003</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LEMSM019.jpg?1259</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN1060.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN2550.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN2850.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN3411.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN2591.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN2710.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN3210.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN3361.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN4170.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN4610.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN4662.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN7880.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN7940.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN8060.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LKTWN9010.jpg?34</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP001.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP002.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP003.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP004.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP005.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP006.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP007.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP008.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP009.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP010.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP011.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP012.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP013.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP014.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP015.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP016.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP017.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP018.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP019.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP020.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP021.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP022.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP023.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP024.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP025.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP026.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP027.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP028.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP029.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP030.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP031.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP032.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP033.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP034.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP035.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP036.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP037.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP038.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP039.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP040.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP041.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP042.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP043.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP044.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP045.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP046.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP047.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP048.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP049.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP050.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP051.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP052.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP053.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP054.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP055.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP056.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP057.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP058.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP059.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP060.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP061.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP062.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP063.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP064.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP065.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP066.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP067.png?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP068.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LRAP069.jpg?576</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP5P01.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP5P02.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP5PR01.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP5PR02.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP5PR03.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP5PR04.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP5R01.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP6P02.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP6PR01.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP6R01.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP6R03.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP6R05.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP6R06.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP7R01.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSP7R03.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPAR6A11.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPCPR5EY.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPFR5B.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPFR5J11.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPFR6F11.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPFR6PG.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPFR6VG.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPILNAR8B7G.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPK20HR11.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPKR5E.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPKR5EY.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPKR6E.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPKR6ESZ-10.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPKUR5ETC-10.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPMAR8K-9S.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPP4ES.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPP4HS.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPP5FS.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPP6EFS.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPP6FS.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPP8ES.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPPR5EFS.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPPR7E.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPR6A10EG.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPR6B-13.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPR6EY.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPR6F13.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPR7B10.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPR7B8DG.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPR7S8EG.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPR8EN.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPR8ES.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPTR6H8G.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPZKAR7A.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPZKAR7D-9D.jpg?612</t>
+  </si>
+  <si>
+    <t>https://www.lucaselectricalsa.com/productos/c/LSPZKR7B-10.jpg?612</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14133,55 +14785,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{76A92A50-1450-452B-B0DE-0E3F5883DEEC}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{881F0E36-EB0D-454E-BF98-E0A04EC0AA52}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14396,9 +15060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A691" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A886" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B692" sqref="B692"/>
+      <selection pane="topRight" activeCell="B911" sqref="B911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37459,8 +38123,8 @@
       <c r="A545" s="2" t="s">
         <v>2634</v>
       </c>
-      <c r="B545" s="13" t="s">
-        <v>4541</v>
+      <c r="B545" s="14" t="s">
+        <v>4755</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>2635</v>
@@ -37878,7 +38542,7 @@
         <v>2678</v>
       </c>
       <c r="B555" s="11" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>841</v>
@@ -37920,7 +38584,7 @@
         <v>2682</v>
       </c>
       <c r="B556" s="9" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>2683</v>
@@ -37964,7 +38628,7 @@
         <v>2689</v>
       </c>
       <c r="B557" s="9" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>2690</v>
@@ -38008,7 +38672,7 @@
         <v>2694</v>
       </c>
       <c r="B558" s="9" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>2695</v>
@@ -38052,7 +38716,7 @@
         <v>2700</v>
       </c>
       <c r="B559" s="9" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>932</v>
@@ -38094,7 +38758,7 @@
         <v>2704</v>
       </c>
       <c r="B560" s="9" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>39</v>
@@ -38138,7 +38802,7 @@
         <v>2709</v>
       </c>
       <c r="B561" s="9" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>2710</v>
@@ -38182,7 +38846,7 @@
         <v>2714</v>
       </c>
       <c r="B562" s="9" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>2715</v>
@@ -38224,7 +38888,7 @@
         <v>2718</v>
       </c>
       <c r="B563" s="9" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>2719</v>
@@ -38268,7 +38932,7 @@
         <v>2723</v>
       </c>
       <c r="B564" s="9" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>2724</v>
@@ -38310,7 +38974,7 @@
         <v>2728</v>
       </c>
       <c r="B565" s="9" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>15</v>
@@ -38354,7 +39018,7 @@
         <v>2733</v>
       </c>
       <c r="B566" s="9" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>2734</v>
@@ -38398,7 +39062,7 @@
         <v>2739</v>
       </c>
       <c r="B567" s="9" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>573</v>
@@ -38442,7 +39106,7 @@
         <v>2744</v>
       </c>
       <c r="B568" s="9" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>573</v>
@@ -38486,7 +39150,7 @@
         <v>2749</v>
       </c>
       <c r="B569" s="9" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>841</v>
@@ -38530,7 +39194,7 @@
         <v>2754</v>
       </c>
       <c r="B570" s="9" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>2755</v>
@@ -38572,7 +39236,7 @@
         <v>2758</v>
       </c>
       <c r="B571" s="9" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>15</v>
@@ -38614,7 +39278,7 @@
         <v>2762</v>
       </c>
       <c r="B572" s="9" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>39</v>
@@ -38656,7 +39320,7 @@
         <v>2766</v>
       </c>
       <c r="B573" s="9" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>33</v>
@@ -38696,7 +39360,7 @@
         <v>2769</v>
       </c>
       <c r="B574" s="9" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>33</v>
@@ -38738,7 +39402,7 @@
         <v>2772</v>
       </c>
       <c r="B575" s="9" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>33</v>
@@ -38782,7 +39446,7 @@
         <v>2777</v>
       </c>
       <c r="B576" s="9" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>2778</v>
@@ -38826,7 +39490,7 @@
         <v>2783</v>
       </c>
       <c r="B577" s="9" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>33</v>
@@ -38868,7 +39532,7 @@
         <v>2787</v>
       </c>
       <c r="B578" s="9" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>33</v>
@@ -38910,7 +39574,7 @@
         <v>2791</v>
       </c>
       <c r="B579" s="11" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>33</v>
@@ -38952,7 +39616,7 @@
         <v>2796</v>
       </c>
       <c r="B580" s="11" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>33</v>
@@ -38994,7 +39658,7 @@
         <v>2800</v>
       </c>
       <c r="B581" s="11" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>33</v>
@@ -39036,7 +39700,7 @@
         <v>2803</v>
       </c>
       <c r="B582" s="11" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>33</v>
@@ -39078,7 +39742,7 @@
         <v>2807</v>
       </c>
       <c r="B583" s="11" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>932</v>
@@ -39120,7 +39784,7 @@
         <v>2811</v>
       </c>
       <c r="B584" s="11" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>27</v>
@@ -39162,7 +39826,7 @@
         <v>2815</v>
       </c>
       <c r="B585" s="11" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>2816</v>
@@ -39204,7 +39868,7 @@
         <v>2820</v>
       </c>
       <c r="B586" s="11" t="s">
-        <v>4573</v>
+        <v>4572</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>1752</v>
@@ -39246,7 +39910,7 @@
         <v>2824</v>
       </c>
       <c r="B587" s="11" t="s">
-        <v>4574</v>
+        <v>4573</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>791</v>
@@ -39288,7 +39952,7 @@
         <v>2828</v>
       </c>
       <c r="B588" s="11" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>2829</v>
@@ -39330,7 +39994,7 @@
         <v>2833</v>
       </c>
       <c r="B589" s="11" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>841</v>
@@ -39372,7 +40036,7 @@
         <v>2837</v>
       </c>
       <c r="B590" s="11" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>1117</v>
@@ -39414,7 +40078,7 @@
         <v>2841</v>
       </c>
       <c r="B591" s="11" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>791</v>
@@ -39454,7 +40118,7 @@
         <v>2844</v>
       </c>
       <c r="B592" s="11" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>2845</v>
@@ -39498,7 +40162,7 @@
         <v>2850</v>
       </c>
       <c r="B593" s="11" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>2851</v>
@@ -39542,7 +40206,7 @@
         <v>2856</v>
       </c>
       <c r="B594" s="11" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>932</v>
@@ -39586,7 +40250,7 @@
         <v>2861</v>
       </c>
       <c r="B595" s="11" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>932</v>
@@ -39630,7 +40294,7 @@
         <v>2866</v>
       </c>
       <c r="B596" s="11" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>2867</v>
@@ -39672,7 +40336,7 @@
         <v>2871</v>
       </c>
       <c r="B597" s="11" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>791</v>
@@ -39714,7 +40378,7 @@
         <v>2875</v>
       </c>
       <c r="B598" s="11" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>791</v>
@@ -39756,7 +40420,7 @@
         <v>2879</v>
       </c>
       <c r="B599" s="11" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>2880</v>
@@ -39798,7 +40462,7 @@
         <v>2884</v>
       </c>
       <c r="B600" s="11" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>2885</v>
@@ -39840,7 +40504,7 @@
         <v>2889</v>
       </c>
       <c r="B601" s="11" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>2890</v>
@@ -39882,7 +40546,7 @@
         <v>2894</v>
       </c>
       <c r="B602" s="11" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>39</v>
@@ -39924,7 +40588,7 @@
         <v>2898</v>
       </c>
       <c r="B603" s="11" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>2899</v>
@@ -39966,7 +40630,7 @@
         <v>2903</v>
       </c>
       <c r="B604" s="11" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>786</v>
@@ -40008,7 +40672,7 @@
         <v>2906</v>
       </c>
       <c r="B605" s="11" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>786</v>
@@ -40052,7 +40716,7 @@
         <v>2911</v>
       </c>
       <c r="B606" s="11" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>791</v>
@@ -40094,7 +40758,7 @@
         <v>2915</v>
       </c>
       <c r="B607" s="11" t="s">
-        <v>4594</v>
+        <v>4593</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>33</v>
@@ -40136,7 +40800,7 @@
         <v>2919</v>
       </c>
       <c r="B608" s="11" t="s">
-        <v>4595</v>
+        <v>4594</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>932</v>
@@ -40176,7 +40840,7 @@
         <v>2922</v>
       </c>
       <c r="B609" s="11" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>2923</v>
@@ -40216,7 +40880,7 @@
         <v>2926</v>
       </c>
       <c r="B610" s="11" t="s">
-        <v>4597</v>
+        <v>4596</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>791</v>
@@ -40258,7 +40922,7 @@
         <v>2930</v>
       </c>
       <c r="B611" s="11" t="s">
-        <v>4598</v>
+        <v>4597</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>1117</v>
@@ -40300,7 +40964,7 @@
         <v>2934</v>
       </c>
       <c r="B612" s="11" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>2366</v>
@@ -40342,7 +41006,7 @@
         <v>2938</v>
       </c>
       <c r="B613" s="11" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>2939</v>
@@ -40382,7 +41046,7 @@
         <v>2942</v>
       </c>
       <c r="B614" s="11" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>1740</v>
@@ -40426,7 +41090,7 @@
         <v>2947</v>
       </c>
       <c r="B615" s="11" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>2948</v>
@@ -40470,7 +41134,7 @@
         <v>2953</v>
       </c>
       <c r="B616" s="11" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>2954</v>
@@ -40514,7 +41178,7 @@
         <v>2959</v>
       </c>
       <c r="B617" s="11" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>786</v>
@@ -40558,7 +41222,7 @@
         <v>2964</v>
       </c>
       <c r="B618" s="11" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>2965</v>
@@ -40602,7 +41266,7 @@
         <v>2970</v>
       </c>
       <c r="B619" s="11" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>2971</v>
@@ -40646,7 +41310,7 @@
         <v>2976</v>
       </c>
       <c r="B620" s="11" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>2016</v>
@@ -40690,7 +41354,7 @@
         <v>2981</v>
       </c>
       <c r="B621" s="11" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>39</v>
@@ -40734,7 +41398,7 @@
         <v>2986</v>
       </c>
       <c r="B622" s="11" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>2987</v>
@@ -40776,7 +41440,7 @@
         <v>2991</v>
       </c>
       <c r="B623" s="11" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>2992</v>
@@ -40816,7 +41480,7 @@
         <v>2995</v>
       </c>
       <c r="B624" s="11" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>1752</v>
@@ -40856,7 +41520,7 @@
         <v>2998</v>
       </c>
       <c r="B625" s="11" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>2999</v>
@@ -40898,7 +41562,7 @@
         <v>3003</v>
       </c>
       <c r="B626" s="11" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>1627</v>
@@ -40938,7 +41602,7 @@
         <v>3006</v>
       </c>
       <c r="B627" s="11" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>3007</v>
@@ -40980,7 +41644,7 @@
         <v>3011</v>
       </c>
       <c r="B628" s="11" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>841</v>
@@ -41024,7 +41688,7 @@
         <v>3015</v>
       </c>
       <c r="B629" s="11" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>932</v>
@@ -41066,7 +41730,7 @@
         <v>3019</v>
       </c>
       <c r="B630" s="11" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>3007</v>
@@ -41108,7 +41772,7 @@
         <v>3023</v>
       </c>
       <c r="B631" s="11" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>1952</v>
@@ -41150,7 +41814,7 @@
         <v>3027</v>
       </c>
       <c r="B632" s="11" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>791</v>
@@ -41192,7 +41856,7 @@
         <v>3031</v>
       </c>
       <c r="B633" s="11" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>932</v>
@@ -41234,7 +41898,7 @@
         <v>3035</v>
       </c>
       <c r="B634" s="11" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>3036</v>
@@ -41278,7 +41942,7 @@
         <v>3039</v>
       </c>
       <c r="B635" s="11" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>3040</v>
@@ -41318,7 +41982,7 @@
         <v>3043</v>
       </c>
       <c r="B636" s="11" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>3044</v>
@@ -41360,7 +42024,7 @@
         <v>3048</v>
       </c>
       <c r="B637" s="11" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>3049</v>
@@ -41402,7 +42066,7 @@
         <v>3053</v>
       </c>
       <c r="B638" s="11" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>39</v>
@@ -41444,7 +42108,7 @@
         <v>3057</v>
       </c>
       <c r="B639" s="11" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>3058</v>
@@ -41486,7 +42150,7 @@
         <v>3062</v>
       </c>
       <c r="B640" s="11" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>27</v>
@@ -41528,7 +42192,7 @@
         <v>3066</v>
       </c>
       <c r="B641" s="11" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>841</v>
@@ -41570,7 +42234,7 @@
         <v>3070</v>
       </c>
       <c r="B642" s="11" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>841</v>
@@ -41612,7 +42276,7 @@
         <v>3074</v>
       </c>
       <c r="B643" s="11" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>841</v>
@@ -41654,7 +42318,7 @@
         <v>3078</v>
       </c>
       <c r="B644" s="11" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>15</v>
@@ -41696,7 +42360,7 @@
         <v>3082</v>
       </c>
       <c r="B645" s="11" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>3083</v>
@@ -41738,7 +42402,7 @@
         <v>3087</v>
       </c>
       <c r="B646" s="11" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>791</v>
@@ -41780,7 +42444,7 @@
         <v>3091</v>
       </c>
       <c r="B647" s="11" t="s">
-        <v>4634</v>
+        <v>4633</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>2366</v>
@@ -41822,7 +42486,7 @@
         <v>3095</v>
       </c>
       <c r="B648" s="11" t="s">
-        <v>4635</v>
+        <v>4634</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>3096</v>
@@ -41862,7 +42526,7 @@
         <v>3099</v>
       </c>
       <c r="B649" s="11" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>3100</v>
@@ -41904,7 +42568,7 @@
         <v>3104</v>
       </c>
       <c r="B650" s="11" t="s">
-        <v>4637</v>
+        <v>4636</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>1952</v>
@@ -41944,7 +42608,7 @@
         <v>3107</v>
       </c>
       <c r="B651" s="11" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>3108</v>
@@ -41986,7 +42650,7 @@
         <v>3112</v>
       </c>
       <c r="B652" s="11" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>932</v>
@@ -42030,7 +42694,7 @@
         <v>3117</v>
       </c>
       <c r="B653" s="11" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>3118</v>
@@ -42072,7 +42736,7 @@
         <v>3122</v>
       </c>
       <c r="B654" s="11" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>841</v>
@@ -42114,7 +42778,7 @@
         <v>3126</v>
       </c>
       <c r="B655" s="11" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>786</v>
@@ -42156,7 +42820,7 @@
         <v>3130</v>
       </c>
       <c r="B656" s="11" t="s">
-        <v>4643</v>
+        <v>4642</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>932</v>
@@ -42198,7 +42862,7 @@
         <v>3134</v>
       </c>
       <c r="B657" s="11" t="s">
-        <v>4644</v>
+        <v>4643</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>3135</v>
@@ -42242,7 +42906,7 @@
         <v>3140</v>
       </c>
       <c r="B658" s="11" t="s">
-        <v>4645</v>
+        <v>4644</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>3141</v>
@@ -42284,7 +42948,7 @@
         <v>3145</v>
       </c>
       <c r="B659" s="11" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>3146</v>
@@ -42326,7 +42990,7 @@
         <v>3150</v>
       </c>
       <c r="B660" s="11" t="s">
-        <v>4647</v>
+        <v>4646</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>3151</v>
@@ -42368,7 +43032,7 @@
         <v>3155</v>
       </c>
       <c r="B661" s="9" t="s">
-        <v>4648</v>
+        <v>4647</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>791</v>
@@ -42408,7 +43072,7 @@
         <v>3159</v>
       </c>
       <c r="B662" s="9" t="s">
-        <v>4650</v>
+        <v>4649</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>3160</v>
@@ -42450,7 +43114,7 @@
         <v>3164</v>
       </c>
       <c r="B663" s="9" t="s">
-        <v>4651</v>
+        <v>4650</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>3165</v>
@@ -42494,7 +43158,7 @@
         <v>3170</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>4652</v>
+        <v>4651</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>2366</v>
@@ -42538,7 +43202,7 @@
         <v>3175</v>
       </c>
       <c r="B665" s="9" t="s">
-        <v>4653</v>
+        <v>4652</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>3176</v>
@@ -42582,7 +43246,7 @@
         <v>3181</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>4654</v>
+        <v>4653</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>841</v>
@@ -42626,7 +43290,7 @@
         <v>3186</v>
       </c>
       <c r="B667" s="9" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>27</v>
@@ -42668,7 +43332,7 @@
         <v>3188</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>4656</v>
+        <v>4655</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>841</v>
@@ -42710,7 +43374,7 @@
         <v>3192</v>
       </c>
       <c r="B669" s="9" t="s">
-        <v>4657</v>
+        <v>4656</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>3193</v>
@@ -42748,7 +43412,7 @@
         <v>3195</v>
       </c>
       <c r="B670" s="9" t="s">
-        <v>4658</v>
+        <v>4657</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>791</v>
@@ -42790,7 +43454,7 @@
         <v>3199</v>
       </c>
       <c r="B671" s="9" t="s">
-        <v>4649</v>
+        <v>4648</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>2366</v>
@@ -42832,7 +43496,7 @@
         <v>3203</v>
       </c>
       <c r="B672" s="9" t="s">
-        <v>4659</v>
+        <v>4658</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>3204</v>
@@ -42874,7 +43538,7 @@
         <v>3208</v>
       </c>
       <c r="B673" s="9" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>3209</v>
@@ -42916,7 +43580,7 @@
         <v>3213</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>3214</v>
@@ -42958,7 +43622,7 @@
         <v>3217</v>
       </c>
       <c r="B675" s="9" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>841</v>
@@ -43002,7 +43666,7 @@
         <v>3222</v>
       </c>
       <c r="B676" s="9" t="s">
-        <v>4661</v>
+        <v>4660</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>2366</v>
@@ -43046,7 +43710,7 @@
         <v>3227</v>
       </c>
       <c r="B677" s="9" t="s">
-        <v>4662</v>
+        <v>4661</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>3228</v>
@@ -43088,7 +43752,7 @@
         <v>3233</v>
       </c>
       <c r="B678" s="9" t="s">
-        <v>4663</v>
+        <v>4662</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>3234</v>
@@ -43130,7 +43794,7 @@
         <v>3238</v>
       </c>
       <c r="B679" s="9" t="s">
-        <v>4664</v>
+        <v>4663</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>3239</v>
@@ -43172,7 +43836,7 @@
         <v>3243</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>4665</v>
+        <v>4664</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>3244</v>
@@ -43214,7 +43878,7 @@
         <v>3248</v>
       </c>
       <c r="B681" s="9" t="s">
-        <v>4666</v>
+        <v>4665</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>841</v>
@@ -43256,7 +43920,7 @@
         <v>3252</v>
       </c>
       <c r="B682" s="9" t="s">
-        <v>4667</v>
+        <v>4666</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>791</v>
@@ -43298,7 +43962,7 @@
         <v>3256</v>
       </c>
       <c r="B683" s="9" t="s">
-        <v>4668</v>
+        <v>4667</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>932</v>
@@ -43340,7 +44004,7 @@
         <v>3260</v>
       </c>
       <c r="B684" s="9" t="s">
-        <v>4669</v>
+        <v>4668</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>3261</v>
@@ -43382,7 +44046,7 @@
         <v>3265</v>
       </c>
       <c r="B685" s="9" t="s">
-        <v>4670</v>
+        <v>4669</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>3266</v>
@@ -43424,7 +44088,7 @@
         <v>3270</v>
       </c>
       <c r="B686" s="9" t="s">
-        <v>4671</v>
+        <v>4670</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>3271</v>
@@ -43466,7 +44130,7 @@
         <v>3275</v>
       </c>
       <c r="B687" s="9" t="s">
-        <v>4672</v>
+        <v>4671</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>2635</v>
@@ -43508,7 +44172,7 @@
         <v>3279</v>
       </c>
       <c r="B688" s="9" t="s">
-        <v>4673</v>
+        <v>4672</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>3280</v>
@@ -43550,7 +44214,7 @@
         <v>3284</v>
       </c>
       <c r="B689" s="9" t="s">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>3096</v>
@@ -43592,7 +44256,7 @@
         <v>3288</v>
       </c>
       <c r="B690" s="9" t="s">
-        <v>4675</v>
+        <v>4674</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>3289</v>
@@ -43633,7 +44297,9 @@
       <c r="A691" s="2" t="s">
         <v>3293</v>
       </c>
-      <c r="B691" s="2"/>
+      <c r="B691" s="9" t="s">
+        <v>4675</v>
+      </c>
       <c r="C691" s="2" t="s">
         <v>33</v>
       </c>
@@ -43671,7 +44337,9 @@
       <c r="A692" s="2" t="s">
         <v>3297</v>
       </c>
-      <c r="B692" s="2"/>
+      <c r="B692" s="9" t="s">
+        <v>4676</v>
+      </c>
       <c r="C692" s="2" t="s">
         <v>446</v>
       </c>
@@ -43709,7 +44377,9 @@
       <c r="A693" s="2" t="s">
         <v>3300</v>
       </c>
-      <c r="B693" s="2"/>
+      <c r="B693" s="9" t="s">
+        <v>4677</v>
+      </c>
       <c r="C693" s="2" t="s">
         <v>786</v>
       </c>
@@ -43749,7 +44419,9 @@
       <c r="A694" s="2" t="s">
         <v>3304</v>
       </c>
-      <c r="B694" s="2"/>
+      <c r="B694" s="9" t="s">
+        <v>4678</v>
+      </c>
       <c r="C694" s="2" t="s">
         <v>892</v>
       </c>
@@ -43791,7 +44463,9 @@
       <c r="A695" s="2" t="s">
         <v>3309</v>
       </c>
-      <c r="B695" s="2"/>
+      <c r="B695" s="9" t="s">
+        <v>4679</v>
+      </c>
       <c r="C695" s="2" t="s">
         <v>841</v>
       </c>
@@ -43831,7 +44505,9 @@
       <c r="A696" s="2" t="s">
         <v>3313</v>
       </c>
-      <c r="B696" s="2"/>
+      <c r="B696" s="9" t="s">
+        <v>4680</v>
+      </c>
       <c r="C696" s="2" t="s">
         <v>791</v>
       </c>
@@ -43873,7 +44549,9 @@
       <c r="A697" s="2" t="s">
         <v>3318</v>
       </c>
-      <c r="B697" s="2"/>
+      <c r="B697" s="9" t="s">
+        <v>4681</v>
+      </c>
       <c r="C697" s="2" t="s">
         <v>786</v>
       </c>
@@ -43911,7 +44589,9 @@
       <c r="A698" s="2" t="s">
         <v>3321</v>
       </c>
-      <c r="B698" s="2"/>
+      <c r="B698" s="9" t="s">
+        <v>4682</v>
+      </c>
       <c r="C698" s="2" t="s">
         <v>2366</v>
       </c>
@@ -43953,7 +44633,9 @@
       <c r="A699" s="2" t="s">
         <v>3326</v>
       </c>
-      <c r="B699" s="2"/>
+      <c r="B699" s="9" t="s">
+        <v>4683</v>
+      </c>
       <c r="C699" s="2" t="s">
         <v>15</v>
       </c>
@@ -43993,7 +44675,9 @@
       <c r="A700" s="2" t="s">
         <v>3330</v>
       </c>
-      <c r="B700" s="2"/>
+      <c r="B700" s="9" t="s">
+        <v>4684</v>
+      </c>
       <c r="C700" s="2" t="s">
         <v>3331</v>
       </c>
@@ -44033,7 +44717,9 @@
       <c r="A701" s="2" t="s">
         <v>3335</v>
       </c>
-      <c r="B701" s="2"/>
+      <c r="B701" s="9" t="s">
+        <v>4685</v>
+      </c>
       <c r="C701" s="2" t="s">
         <v>1887</v>
       </c>
@@ -44073,7 +44759,9 @@
       <c r="A702" s="2" t="s">
         <v>3339</v>
       </c>
-      <c r="B702" s="2"/>
+      <c r="B702" s="9" t="s">
+        <v>4686</v>
+      </c>
       <c r="C702" s="2" t="s">
         <v>932</v>
       </c>
@@ -44113,7 +44801,9 @@
       <c r="A703" s="2" t="s">
         <v>3343</v>
       </c>
-      <c r="B703" s="2"/>
+      <c r="B703" s="9" t="s">
+        <v>4687</v>
+      </c>
       <c r="C703" s="2" t="s">
         <v>932</v>
       </c>
@@ -44155,7 +44845,9 @@
       <c r="A704" s="2" t="s">
         <v>3348</v>
       </c>
-      <c r="B704" s="2"/>
+      <c r="B704" s="9" t="s">
+        <v>4688</v>
+      </c>
       <c r="C704" s="2" t="s">
         <v>841</v>
       </c>
@@ -44195,7 +44887,9 @@
       <c r="A705" s="2" t="s">
         <v>3352</v>
       </c>
-      <c r="B705" s="2"/>
+      <c r="B705" s="9" t="s">
+        <v>4689</v>
+      </c>
       <c r="C705" s="2" t="s">
         <v>841</v>
       </c>
@@ -44235,7 +44929,9 @@
       <c r="A706" s="2" t="s">
         <v>3356</v>
       </c>
-      <c r="B706" s="2"/>
+      <c r="B706" s="9" t="s">
+        <v>4690</v>
+      </c>
       <c r="C706" s="2" t="s">
         <v>2366</v>
       </c>
@@ -44275,7 +44971,9 @@
       <c r="A707" s="2" t="s">
         <v>3360</v>
       </c>
-      <c r="B707" s="2"/>
+      <c r="B707" s="9" t="s">
+        <v>4691</v>
+      </c>
       <c r="C707" s="2" t="s">
         <v>791</v>
       </c>
@@ -44315,7 +45013,9 @@
       <c r="A708" s="2" t="s">
         <v>3364</v>
       </c>
-      <c r="B708" s="2"/>
+      <c r="B708" s="9" t="s">
+        <v>4692</v>
+      </c>
       <c r="C708" s="2" t="s">
         <v>1097</v>
       </c>
@@ -44353,7 +45053,9 @@
       <c r="A709" s="2" t="s">
         <v>3367</v>
       </c>
-      <c r="B709" s="2"/>
+      <c r="B709" s="9" t="s">
+        <v>4693</v>
+      </c>
       <c r="C709" s="2" t="s">
         <v>841</v>
       </c>
@@ -44391,7 +45093,9 @@
       <c r="A710" s="2" t="s">
         <v>3370</v>
       </c>
-      <c r="B710" s="2"/>
+      <c r="B710" s="9" t="s">
+        <v>4694</v>
+      </c>
       <c r="C710" s="2" t="s">
         <v>841</v>
       </c>
@@ -44431,7 +45135,9 @@
       <c r="A711" s="2" t="s">
         <v>3374</v>
       </c>
-      <c r="B711" s="2"/>
+      <c r="B711" s="9" t="s">
+        <v>4695</v>
+      </c>
       <c r="C711" s="2" t="s">
         <v>786</v>
       </c>
@@ -44475,7 +45181,9 @@
       <c r="A712" s="2" t="s">
         <v>3379</v>
       </c>
-      <c r="B712" s="2"/>
+      <c r="B712" s="9" t="s">
+        <v>4696</v>
+      </c>
       <c r="C712" s="2" t="s">
         <v>1752</v>
       </c>
@@ -44515,7 +45223,9 @@
       <c r="A713" s="2" t="s">
         <v>3383</v>
       </c>
-      <c r="B713" s="2"/>
+      <c r="B713" s="9" t="s">
+        <v>4697</v>
+      </c>
       <c r="C713" s="2" t="s">
         <v>2366</v>
       </c>
@@ -44557,7 +45267,9 @@
       <c r="A714" s="2" t="s">
         <v>3388</v>
       </c>
-      <c r="B714" s="2"/>
+      <c r="B714" s="9" t="s">
+        <v>4698</v>
+      </c>
       <c r="C714" s="2" t="s">
         <v>2290</v>
       </c>
@@ -44599,7 +45311,9 @@
       <c r="A715" s="2" t="s">
         <v>3394</v>
       </c>
-      <c r="B715" s="2"/>
+      <c r="B715" s="9" t="s">
+        <v>4699</v>
+      </c>
       <c r="C715" s="2" t="s">
         <v>2290</v>
       </c>
@@ -44641,7 +45355,9 @@
       <c r="A716" s="2" t="s">
         <v>3398</v>
       </c>
-      <c r="B716" s="2"/>
+      <c r="B716" s="9" t="s">
+        <v>4700</v>
+      </c>
       <c r="C716" s="2" t="s">
         <v>2290</v>
       </c>
@@ -44683,7 +45399,9 @@
       <c r="A717" s="2" t="s">
         <v>3402</v>
       </c>
-      <c r="B717" s="2"/>
+      <c r="B717" s="9" t="s">
+        <v>4701</v>
+      </c>
       <c r="C717" s="2" t="s">
         <v>3403</v>
       </c>
@@ -44723,7 +45441,9 @@
       <c r="A718" s="2" t="s">
         <v>3407</v>
       </c>
-      <c r="B718" s="2"/>
+      <c r="B718" s="9" t="s">
+        <v>4702</v>
+      </c>
       <c r="C718" s="2" t="s">
         <v>3408</v>
       </c>
@@ -44763,7 +45483,9 @@
       <c r="A719" s="2" t="s">
         <v>3412</v>
       </c>
-      <c r="B719" s="2"/>
+      <c r="B719" s="9" t="s">
+        <v>4703</v>
+      </c>
       <c r="C719" s="2" t="s">
         <v>3413</v>
       </c>
@@ -44803,7 +45525,9 @@
       <c r="A720" s="2" t="s">
         <v>3417</v>
       </c>
-      <c r="B720" s="2"/>
+      <c r="B720" s="9" t="s">
+        <v>4704</v>
+      </c>
       <c r="C720" s="2" t="s">
         <v>2345</v>
       </c>
@@ -44843,7 +45567,9 @@
       <c r="A721" s="2" t="s">
         <v>3421</v>
       </c>
-      <c r="B721" s="2"/>
+      <c r="B721" s="9" t="s">
+        <v>4705</v>
+      </c>
       <c r="C721" s="2" t="s">
         <v>2375</v>
       </c>
@@ -44883,7 +45609,9 @@
       <c r="A722" s="2" t="s">
         <v>3425</v>
       </c>
-      <c r="B722" s="2"/>
+      <c r="B722" s="9" t="s">
+        <v>4706</v>
+      </c>
       <c r="C722" s="2" t="s">
         <v>2345</v>
       </c>
@@ -44923,7 +45651,9 @@
       <c r="A723" s="2" t="s">
         <v>3429</v>
       </c>
-      <c r="B723" s="2"/>
+      <c r="B723" s="9" t="s">
+        <v>4707</v>
+      </c>
       <c r="C723" s="2" t="s">
         <v>2345</v>
       </c>
@@ -44963,7 +45693,9 @@
       <c r="A724" s="2" t="s">
         <v>3433</v>
       </c>
-      <c r="B724" s="2"/>
+      <c r="B724" s="9" t="s">
+        <v>4708</v>
+      </c>
       <c r="C724" s="2" t="s">
         <v>3434</v>
       </c>
@@ -45003,7 +45735,9 @@
       <c r="A725" s="2" t="s">
         <v>3438</v>
       </c>
-      <c r="B725" s="2"/>
+      <c r="B725" s="9" t="s">
+        <v>4709</v>
+      </c>
       <c r="C725" s="2" t="s">
         <v>2366</v>
       </c>
@@ -45043,7 +45777,9 @@
       <c r="A726" s="2" t="s">
         <v>3442</v>
       </c>
-      <c r="B726" s="2"/>
+      <c r="B726" s="9" t="s">
+        <v>4710</v>
+      </c>
       <c r="C726" s="2" t="s">
         <v>3443</v>
       </c>
@@ -45083,7 +45819,9 @@
       <c r="A727" s="2" t="s">
         <v>3447</v>
       </c>
-      <c r="B727" s="2"/>
+      <c r="B727" s="9" t="s">
+        <v>4711</v>
+      </c>
       <c r="C727" s="2" t="s">
         <v>3448</v>
       </c>
@@ -45123,7 +45861,9 @@
       <c r="A728" s="2" t="s">
         <v>3452</v>
       </c>
-      <c r="B728" s="2"/>
+      <c r="B728" s="9" t="s">
+        <v>4712</v>
+      </c>
       <c r="C728" s="2" t="s">
         <v>2366</v>
       </c>
@@ -45163,7 +45903,9 @@
       <c r="A729" s="2" t="s">
         <v>3456</v>
       </c>
-      <c r="B729" s="2"/>
+      <c r="B729" s="9" t="s">
+        <v>4713</v>
+      </c>
       <c r="C729" s="2" t="s">
         <v>3434</v>
       </c>
@@ -45203,7 +45945,9 @@
       <c r="A730" s="2" t="s">
         <v>3458</v>
       </c>
-      <c r="B730" s="2"/>
+      <c r="B730" s="9" t="s">
+        <v>4714</v>
+      </c>
       <c r="C730" s="2" t="s">
         <v>3459</v>
       </c>
@@ -45243,7 +45987,9 @@
       <c r="A731" s="2" t="s">
         <v>3463</v>
       </c>
-      <c r="B731" s="2"/>
+      <c r="B731" s="9" t="s">
+        <v>4715</v>
+      </c>
       <c r="C731" s="2" t="s">
         <v>3434</v>
       </c>
@@ -45283,7 +46029,9 @@
       <c r="A732" s="2" t="s">
         <v>3467</v>
       </c>
-      <c r="B732" s="2"/>
+      <c r="B732" s="9" t="s">
+        <v>4716</v>
+      </c>
       <c r="C732" s="2" t="s">
         <v>2366</v>
       </c>
@@ -45323,7 +46071,9 @@
       <c r="A733" s="2" t="s">
         <v>3471</v>
       </c>
-      <c r="B733" s="2"/>
+      <c r="B733" s="9" t="s">
+        <v>4716</v>
+      </c>
       <c r="C733" s="2" t="s">
         <v>2290</v>
       </c>
@@ -45365,7 +46115,9 @@
       <c r="A734" s="2" t="s">
         <v>3475</v>
       </c>
-      <c r="B734" s="2"/>
+      <c r="B734" s="9" t="s">
+        <v>4717</v>
+      </c>
       <c r="C734" s="2" t="s">
         <v>2375</v>
       </c>
@@ -45405,7 +46157,9 @@
       <c r="A735" s="2" t="s">
         <v>3479</v>
       </c>
-      <c r="B735" s="2"/>
+      <c r="B735" s="9" t="s">
+        <v>4718</v>
+      </c>
       <c r="C735" s="2" t="s">
         <v>3448</v>
       </c>
@@ -45445,7 +46199,9 @@
       <c r="A736" s="2" t="s">
         <v>3483</v>
       </c>
-      <c r="B736" s="2"/>
+      <c r="B736" s="9" t="s">
+        <v>4719</v>
+      </c>
       <c r="C736" s="2" t="s">
         <v>932</v>
       </c>
@@ -45485,7 +46241,9 @@
       <c r="A737" s="2" t="s">
         <v>3486</v>
       </c>
-      <c r="B737" s="2"/>
+      <c r="B737" s="9" t="s">
+        <v>4720</v>
+      </c>
       <c r="C737" s="2" t="s">
         <v>2290</v>
       </c>
@@ -45525,7 +46283,9 @@
       <c r="A738" s="2" t="s">
         <v>3490</v>
       </c>
-      <c r="B738" s="2"/>
+      <c r="B738" s="9" t="s">
+        <v>4721</v>
+      </c>
       <c r="C738" s="2" t="s">
         <v>2345</v>
       </c>
@@ -45565,7 +46325,9 @@
       <c r="A739" s="2" t="s">
         <v>3494</v>
       </c>
-      <c r="B739" s="2"/>
+      <c r="B739" s="9" t="s">
+        <v>4722</v>
+      </c>
       <c r="C739" s="2" t="s">
         <v>3495</v>
       </c>
@@ -45605,7 +46367,9 @@
       <c r="A740" s="2" t="s">
         <v>3499</v>
       </c>
-      <c r="B740" s="2"/>
+      <c r="B740" s="9" t="s">
+        <v>4723</v>
+      </c>
       <c r="C740" s="2" t="s">
         <v>3500</v>
       </c>
@@ -45645,7 +46409,9 @@
       <c r="A741" s="2" t="s">
         <v>3504</v>
       </c>
-      <c r="B741" s="2"/>
+      <c r="B741" s="9" t="s">
+        <v>4724</v>
+      </c>
       <c r="C741" s="2" t="s">
         <v>3505</v>
       </c>
@@ -45685,7 +46451,9 @@
       <c r="A742" s="2" t="s">
         <v>3509</v>
       </c>
-      <c r="B742" s="2"/>
+      <c r="B742" s="9" t="s">
+        <v>4725</v>
+      </c>
       <c r="C742" s="2" t="s">
         <v>2290</v>
       </c>
@@ -45725,7 +46493,9 @@
       <c r="A743" s="2" t="s">
         <v>3513</v>
       </c>
-      <c r="B743" s="2"/>
+      <c r="B743" s="9" t="s">
+        <v>4726</v>
+      </c>
       <c r="C743" s="2" t="s">
         <v>3408</v>
       </c>
@@ -45765,7 +46535,9 @@
       <c r="A744" s="2" t="s">
         <v>3517</v>
       </c>
-      <c r="B744" s="2"/>
+      <c r="B744" s="9" t="s">
+        <v>4727</v>
+      </c>
       <c r="C744" s="7" t="s">
         <v>3518</v>
       </c>
@@ -45807,7 +46579,9 @@
       <c r="A745" s="2" t="s">
         <v>3523</v>
       </c>
-      <c r="B745" s="2"/>
+      <c r="B745" s="9" t="s">
+        <v>4728</v>
+      </c>
       <c r="C745" s="7" t="s">
         <v>3524</v>
       </c>
@@ -45847,7 +46621,9 @@
       <c r="A746" s="2" t="s">
         <v>3528</v>
       </c>
-      <c r="B746" s="2"/>
+      <c r="B746" s="9" t="s">
+        <v>4729</v>
+      </c>
       <c r="C746" s="7" t="s">
         <v>3529</v>
       </c>
@@ -45887,7 +46663,9 @@
       <c r="A747" s="2" t="s">
         <v>3533</v>
       </c>
-      <c r="B747" s="2"/>
+      <c r="B747" s="9" t="s">
+        <v>4730</v>
+      </c>
       <c r="C747" s="7" t="s">
         <v>3534</v>
       </c>
@@ -45927,7 +46705,9 @@
       <c r="A748" s="2" t="s">
         <v>3538</v>
       </c>
-      <c r="B748" s="2"/>
+      <c r="B748" s="9" t="s">
+        <v>4731</v>
+      </c>
       <c r="C748" s="7" t="s">
         <v>3539</v>
       </c>
@@ -45967,7 +46747,9 @@
       <c r="A749" s="2" t="s">
         <v>3543</v>
       </c>
-      <c r="B749" s="2"/>
+      <c r="B749" s="9" t="s">
+        <v>4732</v>
+      </c>
       <c r="C749" s="7" t="s">
         <v>3434</v>
       </c>
@@ -46007,7 +46789,9 @@
       <c r="A750" s="2" t="s">
         <v>3546</v>
       </c>
-      <c r="B750" s="2"/>
+      <c r="B750" s="9" t="s">
+        <v>4733</v>
+      </c>
       <c r="C750" s="7" t="s">
         <v>3534</v>
       </c>
@@ -46089,7 +46873,9 @@
       <c r="A752" s="2" t="s">
         <v>3556</v>
       </c>
-      <c r="B752" s="2"/>
+      <c r="B752" s="9" t="s">
+        <v>4734</v>
+      </c>
       <c r="C752" s="7" t="s">
         <v>841</v>
       </c>
@@ -46131,7 +46917,9 @@
       <c r="A753" s="2" t="s">
         <v>3560</v>
       </c>
-      <c r="B753" s="2"/>
+      <c r="B753" s="9" t="s">
+        <v>4735</v>
+      </c>
       <c r="C753" s="7" t="s">
         <v>2345</v>
       </c>
@@ -46171,7 +46959,9 @@
       <c r="A754" s="2" t="s">
         <v>3564</v>
       </c>
-      <c r="B754" s="2"/>
+      <c r="B754" s="9" t="s">
+        <v>4736</v>
+      </c>
       <c r="C754" s="7" t="s">
         <v>2290</v>
       </c>
@@ -46211,7 +47001,9 @@
       <c r="A755" s="2" t="s">
         <v>3568</v>
       </c>
-      <c r="B755" s="2"/>
+      <c r="B755" s="9" t="s">
+        <v>4737</v>
+      </c>
       <c r="C755" s="7" t="s">
         <v>2290</v>
       </c>
@@ -46251,7 +47043,9 @@
       <c r="A756" s="2" t="s">
         <v>3572</v>
       </c>
-      <c r="B756" s="2"/>
+      <c r="B756" s="9" t="s">
+        <v>4738</v>
+      </c>
       <c r="C756" s="7" t="s">
         <v>3539</v>
       </c>
@@ -46293,7 +47087,9 @@
       <c r="A757" s="2" t="s">
         <v>3576</v>
       </c>
-      <c r="B757" s="2"/>
+      <c r="B757" s="9" t="s">
+        <v>4739</v>
+      </c>
       <c r="C757" s="7" t="s">
         <v>2290</v>
       </c>
@@ -46333,7 +47129,9 @@
       <c r="A758" s="2" t="s">
         <v>3580</v>
       </c>
-      <c r="B758" s="2"/>
+      <c r="B758" s="9" t="s">
+        <v>4740</v>
+      </c>
       <c r="C758" s="7" t="s">
         <v>3403</v>
       </c>
@@ -46375,7 +47173,9 @@
       <c r="A759" s="2" t="s">
         <v>3585</v>
       </c>
-      <c r="B759" s="2"/>
+      <c r="B759" s="9" t="s">
+        <v>4741</v>
+      </c>
       <c r="C759" s="7" t="s">
         <v>3586</v>
       </c>
@@ -46415,7 +47215,9 @@
       <c r="A760" s="2" t="s">
         <v>3590</v>
       </c>
-      <c r="B760" s="2"/>
+      <c r="B760" s="9" t="s">
+        <v>4742</v>
+      </c>
       <c r="C760" s="7" t="s">
         <v>3591</v>
       </c>
@@ -46455,7 +47257,9 @@
       <c r="A761" s="2" t="s">
         <v>3595</v>
       </c>
-      <c r="B761" s="2"/>
+      <c r="B761" s="9" t="s">
+        <v>4743</v>
+      </c>
       <c r="C761" s="7" t="s">
         <v>3408</v>
       </c>
@@ -46495,7 +47299,9 @@
       <c r="A762" s="2" t="s">
         <v>3598</v>
       </c>
-      <c r="B762" s="2"/>
+      <c r="B762" s="9" t="s">
+        <v>4744</v>
+      </c>
       <c r="C762" s="7" t="s">
         <v>932</v>
       </c>
@@ -46535,7 +47341,9 @@
       <c r="A763" s="2" t="s">
         <v>3602</v>
       </c>
-      <c r="B763" s="2"/>
+      <c r="B763" s="9" t="s">
+        <v>4745</v>
+      </c>
       <c r="C763" s="7" t="s">
         <v>841</v>
       </c>
@@ -46575,7 +47383,9 @@
       <c r="A764" s="2" t="s">
         <v>3606</v>
       </c>
-      <c r="B764" s="2"/>
+      <c r="B764" s="9" t="s">
+        <v>4746</v>
+      </c>
       <c r="C764" s="7" t="s">
         <v>3607</v>
       </c>
@@ -46615,7 +47425,9 @@
       <c r="A765" s="2" t="s">
         <v>3611</v>
       </c>
-      <c r="B765" s="2"/>
+      <c r="B765" s="9" t="s">
+        <v>4747</v>
+      </c>
       <c r="C765" s="7" t="s">
         <v>33</v>
       </c>
@@ -46657,7 +47469,9 @@
       <c r="A766" s="2" t="s">
         <v>3616</v>
       </c>
-      <c r="B766" s="2"/>
+      <c r="B766" s="9" t="s">
+        <v>4748</v>
+      </c>
       <c r="C766" s="7" t="s">
         <v>3617</v>
       </c>
@@ -46697,7 +47511,9 @@
       <c r="A767" s="2" t="s">
         <v>3621</v>
       </c>
-      <c r="B767" s="2"/>
+      <c r="B767" s="13" t="s">
+        <v>4751</v>
+      </c>
       <c r="C767" s="7" t="s">
         <v>2345</v>
       </c>
@@ -46737,7 +47553,9 @@
       <c r="A768" s="2" t="s">
         <v>3625</v>
       </c>
-      <c r="B768" s="2"/>
+      <c r="B768" s="9" t="s">
+        <v>4749</v>
+      </c>
       <c r="C768" s="7" t="s">
         <v>3539</v>
       </c>
@@ -46777,7 +47595,9 @@
       <c r="A769" s="2" t="s">
         <v>3629</v>
       </c>
-      <c r="B769" s="2"/>
+      <c r="B769" s="9" t="s">
+        <v>4750</v>
+      </c>
       <c r="C769" s="7" t="s">
         <v>3630</v>
       </c>
@@ -46819,7 +47639,9 @@
       <c r="A770" s="2" t="s">
         <v>3635</v>
       </c>
-      <c r="B770" s="2"/>
+      <c r="B770" s="9" t="s">
+        <v>4754</v>
+      </c>
       <c r="C770" s="7" t="s">
         <v>3636</v>
       </c>
@@ -46859,7 +47681,9 @@
       <c r="A771" s="2" t="s">
         <v>3640</v>
       </c>
-      <c r="B771" s="2"/>
+      <c r="B771" s="9" t="s">
+        <v>4753</v>
+      </c>
       <c r="C771" s="7" t="s">
         <v>3641</v>
       </c>
@@ -46899,7 +47723,9 @@
       <c r="A772" s="2" t="s">
         <v>3645</v>
       </c>
-      <c r="B772" s="2"/>
+      <c r="B772" s="9" t="s">
+        <v>4752</v>
+      </c>
       <c r="C772" s="7" t="s">
         <v>3646</v>
       </c>
@@ -46939,7 +47765,9 @@
       <c r="A773" s="2" t="s">
         <v>3651</v>
       </c>
-      <c r="B773" s="2"/>
+      <c r="B773" s="9" t="s">
+        <v>4756</v>
+      </c>
       <c r="C773" s="2" t="s">
         <v>2290</v>
       </c>
@@ -46981,7 +47809,9 @@
       <c r="A774" s="2" t="s">
         <v>3653</v>
       </c>
-      <c r="B774" s="2"/>
+      <c r="B774" s="9" t="s">
+        <v>4756</v>
+      </c>
       <c r="C774" s="2" t="s">
         <v>3434</v>
       </c>
@@ -47021,7 +47851,9 @@
       <c r="A775" s="2" t="s">
         <v>3655</v>
       </c>
-      <c r="B775" s="2"/>
+      <c r="B775" s="9" t="s">
+        <v>4757</v>
+      </c>
       <c r="C775" s="2" t="s">
         <v>2366</v>
       </c>
@@ -47061,7 +47893,9 @@
       <c r="A776" s="2" t="s">
         <v>3657</v>
       </c>
-      <c r="B776" s="2"/>
+      <c r="B776" s="9" t="s">
+        <v>4760</v>
+      </c>
       <c r="C776" s="2" t="s">
         <v>2290</v>
       </c>
@@ -47103,7 +47937,9 @@
       <c r="A777" s="2" t="s">
         <v>3659</v>
       </c>
-      <c r="B777" s="2"/>
+      <c r="B777" s="9" t="s">
+        <v>4761</v>
+      </c>
       <c r="C777" s="2" t="s">
         <v>2290</v>
       </c>
@@ -47143,7 +47979,9 @@
       <c r="A778" s="2" t="s">
         <v>3661</v>
       </c>
-      <c r="B778" s="2"/>
+      <c r="B778" s="9" t="s">
+        <v>4758</v>
+      </c>
       <c r="C778" s="2" t="s">
         <v>2345</v>
       </c>
@@ -47183,7 +48021,9 @@
       <c r="A779" s="2" t="s">
         <v>3663</v>
       </c>
-      <c r="B779" s="2"/>
+      <c r="B779" s="9" t="s">
+        <v>4762</v>
+      </c>
       <c r="C779" s="2" t="s">
         <v>2290</v>
       </c>
@@ -47223,7 +48063,9 @@
       <c r="A780" s="2" t="s">
         <v>3665</v>
       </c>
-      <c r="B780" s="2"/>
+      <c r="B780" s="9" t="s">
+        <v>4762</v>
+      </c>
       <c r="C780" s="2" t="s">
         <v>3408</v>
       </c>
@@ -47263,7 +48105,9 @@
       <c r="A781" s="2" t="s">
         <v>3667</v>
       </c>
-      <c r="B781" s="2"/>
+      <c r="B781" s="9" t="s">
+        <v>4763</v>
+      </c>
       <c r="C781" s="7" t="s">
         <v>3518</v>
       </c>
@@ -47305,7 +48149,9 @@
       <c r="A782" s="2" t="s">
         <v>3669</v>
       </c>
-      <c r="B782" s="2"/>
+      <c r="B782" s="9" t="s">
+        <v>4759</v>
+      </c>
       <c r="C782" s="7" t="s">
         <v>3670</v>
       </c>
@@ -47345,7 +48191,9 @@
       <c r="A783" s="2" t="s">
         <v>3672</v>
       </c>
-      <c r="B783" s="2"/>
+      <c r="B783" s="9" t="s">
+        <v>4764</v>
+      </c>
       <c r="C783" s="7" t="s">
         <v>3534</v>
       </c>
@@ -47385,7 +48233,9 @@
       <c r="A784" s="2" t="s">
         <v>3674</v>
       </c>
-      <c r="B784" s="2"/>
+      <c r="B784" s="9" t="s">
+        <v>4765</v>
+      </c>
       <c r="C784" s="7" t="s">
         <v>841</v>
       </c>
@@ -47427,7 +48277,9 @@
       <c r="A785" s="2" t="s">
         <v>3676</v>
       </c>
-      <c r="B785" s="2"/>
+      <c r="B785" s="9" t="s">
+        <v>4766</v>
+      </c>
       <c r="C785" s="7" t="s">
         <v>2345</v>
       </c>
@@ -47467,7 +48319,9 @@
       <c r="A786" s="2" t="s">
         <v>3678</v>
       </c>
-      <c r="B786" s="2"/>
+      <c r="B786" s="9" t="s">
+        <v>4767</v>
+      </c>
       <c r="C786" s="7" t="s">
         <v>3607</v>
       </c>
@@ -47507,7 +48361,9 @@
       <c r="A787" s="2" t="s">
         <v>3680</v>
       </c>
-      <c r="B787" s="2"/>
+      <c r="B787" s="9" t="s">
+        <v>4768</v>
+      </c>
       <c r="C787" s="7" t="s">
         <v>33</v>
       </c>
@@ -47549,7 +48405,9 @@
       <c r="A788" s="2" t="s">
         <v>3682</v>
       </c>
-      <c r="B788" s="2"/>
+      <c r="B788" s="9" t="s">
+        <v>4769</v>
+      </c>
       <c r="C788" s="7" t="s">
         <v>2345</v>
       </c>
@@ -47589,7 +48447,9 @@
       <c r="A789" s="2" t="s">
         <v>3684</v>
       </c>
-      <c r="B789" s="2"/>
+      <c r="B789" s="9" t="s">
+        <v>4770</v>
+      </c>
       <c r="C789" s="7" t="s">
         <v>1713</v>
       </c>
@@ -47629,7 +48489,9 @@
       <c r="A790" s="2" t="s">
         <v>3687</v>
       </c>
-      <c r="B790" s="2"/>
+      <c r="B790" s="15" t="s">
+        <v>4771</v>
+      </c>
       <c r="C790" s="2" t="s">
         <v>3688</v>
       </c>
@@ -47671,7 +48533,9 @@
       <c r="A791" s="2" t="s">
         <v>3693</v>
       </c>
-      <c r="B791" s="2"/>
+      <c r="B791" s="15" t="s">
+        <v>4772</v>
+      </c>
       <c r="C791" s="2" t="s">
         <v>3694</v>
       </c>
@@ -47713,7 +48577,9 @@
       <c r="A792" s="2" t="s">
         <v>3699</v>
       </c>
-      <c r="B792" s="2"/>
+      <c r="B792" s="15" t="s">
+        <v>4773</v>
+      </c>
       <c r="C792" s="2" t="s">
         <v>3700</v>
       </c>
@@ -47755,7 +48621,9 @@
       <c r="A793" s="2" t="s">
         <v>3705</v>
       </c>
-      <c r="B793" s="2"/>
+      <c r="B793" s="15" t="s">
+        <v>4774</v>
+      </c>
       <c r="C793" s="2" t="s">
         <v>3706</v>
       </c>
@@ -47797,7 +48665,9 @@
       <c r="A794" s="2" t="s">
         <v>3710</v>
       </c>
-      <c r="B794" s="2"/>
+      <c r="B794" s="15" t="s">
+        <v>4775</v>
+      </c>
       <c r="C794" s="2" t="s">
         <v>3706</v>
       </c>
@@ -47839,7 +48709,9 @@
       <c r="A795" s="2" t="s">
         <v>3713</v>
       </c>
-      <c r="B795" s="2"/>
+      <c r="B795" s="15" t="s">
+        <v>4776</v>
+      </c>
       <c r="C795" s="2" t="s">
         <v>3714</v>
       </c>
@@ -47881,7 +48753,9 @@
       <c r="A796" s="2" t="s">
         <v>3718</v>
       </c>
-      <c r="B796" s="2"/>
+      <c r="B796" s="15" t="s">
+        <v>4777</v>
+      </c>
       <c r="C796" s="2" t="s">
         <v>3719</v>
       </c>
@@ -47923,7 +48797,9 @@
       <c r="A797" s="2" t="s">
         <v>3724</v>
       </c>
-      <c r="B797" s="2"/>
+      <c r="B797" s="15" t="s">
+        <v>4778</v>
+      </c>
       <c r="C797" s="2" t="s">
         <v>3725</v>
       </c>
@@ -47965,7 +48841,9 @@
       <c r="A798" s="2" t="s">
         <v>3729</v>
       </c>
-      <c r="B798" s="2"/>
+      <c r="B798" s="15" t="s">
+        <v>4779</v>
+      </c>
       <c r="C798" s="2" t="s">
         <v>3730</v>
       </c>
@@ -48007,7 +48885,9 @@
       <c r="A799" s="2" t="s">
         <v>3735</v>
       </c>
-      <c r="B799" s="2"/>
+      <c r="B799" s="15" t="s">
+        <v>4780</v>
+      </c>
       <c r="C799" s="2" t="s">
         <v>3736</v>
       </c>
@@ -48049,7 +48929,9 @@
       <c r="A800" s="2" t="s">
         <v>3740</v>
       </c>
-      <c r="B800" s="2"/>
+      <c r="B800" s="15" t="s">
+        <v>4781</v>
+      </c>
       <c r="C800" s="2" t="s">
         <v>3741</v>
       </c>
@@ -48091,7 +48973,9 @@
       <c r="A801" s="2" t="s">
         <v>3745</v>
       </c>
-      <c r="B801" s="2"/>
+      <c r="B801" s="15" t="s">
+        <v>4782</v>
+      </c>
       <c r="C801" s="2" t="s">
         <v>3746</v>
       </c>
@@ -48133,7 +49017,9 @@
       <c r="A802" s="2" t="s">
         <v>3751</v>
       </c>
-      <c r="B802" s="2"/>
+      <c r="B802" s="15" t="s">
+        <v>4783</v>
+      </c>
       <c r="C802" s="2" t="s">
         <v>3736</v>
       </c>
@@ -48175,7 +49061,9 @@
       <c r="A803" s="2" t="s">
         <v>3756</v>
       </c>
-      <c r="B803" s="2"/>
+      <c r="B803" s="15" t="s">
+        <v>4784</v>
+      </c>
       <c r="C803" s="2" t="s">
         <v>3757</v>
       </c>
@@ -48217,7 +49105,9 @@
       <c r="A804" s="2" t="s">
         <v>3762</v>
       </c>
-      <c r="B804" s="2"/>
+      <c r="B804" s="15" t="s">
+        <v>4785</v>
+      </c>
       <c r="C804" s="2" t="s">
         <v>3736</v>
       </c>
@@ -48259,7 +49149,9 @@
       <c r="A805" s="2" t="s">
         <v>3766</v>
       </c>
-      <c r="B805" s="2"/>
+      <c r="B805" s="15" t="s">
+        <v>4786</v>
+      </c>
       <c r="C805" s="2" t="s">
         <v>3518</v>
       </c>
@@ -48301,7 +49193,9 @@
       <c r="A806" s="2" t="s">
         <v>3771</v>
       </c>
-      <c r="B806" s="2"/>
+      <c r="B806" s="15" t="s">
+        <v>4787</v>
+      </c>
       <c r="C806" s="2" t="s">
         <v>3772</v>
       </c>
@@ -48339,7 +49233,9 @@
       <c r="A807" s="2" t="s">
         <v>3775</v>
       </c>
-      <c r="B807" s="2"/>
+      <c r="B807" s="15" t="s">
+        <v>4788</v>
+      </c>
       <c r="C807" s="2" t="s">
         <v>3495</v>
       </c>
@@ -48381,7 +49277,9 @@
       <c r="A808" s="2" t="s">
         <v>3778</v>
       </c>
-      <c r="B808" s="2"/>
+      <c r="B808" s="15" t="s">
+        <v>4789</v>
+      </c>
       <c r="C808" s="2" t="s">
         <v>3779</v>
       </c>
@@ -48423,7 +49321,9 @@
       <c r="A809" s="2" t="s">
         <v>3784</v>
       </c>
-      <c r="B809" s="2"/>
+      <c r="B809" s="15" t="s">
+        <v>4790</v>
+      </c>
       <c r="C809" s="2" t="s">
         <v>3736</v>
       </c>
@@ -48465,7 +49365,9 @@
       <c r="A810" s="2" t="s">
         <v>3788</v>
       </c>
-      <c r="B810" s="2"/>
+      <c r="B810" s="15" t="s">
+        <v>4791</v>
+      </c>
       <c r="C810" s="2" t="s">
         <v>3789</v>
       </c>
@@ -48507,7 +49409,9 @@
       <c r="A811" s="2" t="s">
         <v>3794</v>
       </c>
-      <c r="B811" s="2"/>
+      <c r="B811" s="15" t="s">
+        <v>4792</v>
+      </c>
       <c r="C811" s="2" t="s">
         <v>3736</v>
       </c>
@@ -48547,7 +49451,9 @@
       <c r="A812" s="2" t="s">
         <v>3797</v>
       </c>
-      <c r="B812" s="2"/>
+      <c r="B812" s="15" t="s">
+        <v>4793</v>
+      </c>
       <c r="C812" s="2" t="s">
         <v>3798</v>
       </c>
@@ -48589,7 +49495,9 @@
       <c r="A813" s="2" t="s">
         <v>3802</v>
       </c>
-      <c r="B813" s="2"/>
+      <c r="B813" s="15" t="s">
+        <v>4794</v>
+      </c>
       <c r="C813" s="2" t="s">
         <v>3803</v>
       </c>
@@ -48631,7 +49539,9 @@
       <c r="A814" s="2" t="s">
         <v>3808</v>
       </c>
-      <c r="B814" s="2"/>
+      <c r="B814" s="15" t="s">
+        <v>4795</v>
+      </c>
       <c r="C814" s="2" t="s">
         <v>3809</v>
       </c>
@@ -48673,7 +49583,9 @@
       <c r="A815" s="2" t="s">
         <v>3814</v>
       </c>
-      <c r="B815" s="2"/>
+      <c r="B815" s="15" t="s">
+        <v>4796</v>
+      </c>
       <c r="C815" s="2" t="s">
         <v>3815</v>
       </c>
@@ -48715,7 +49627,9 @@
       <c r="A816" s="2" t="s">
         <v>3820</v>
       </c>
-      <c r="B816" s="2"/>
+      <c r="B816" s="15" t="s">
+        <v>4797</v>
+      </c>
       <c r="C816" s="2" t="s">
         <v>3821</v>
       </c>
@@ -48757,7 +49671,9 @@
       <c r="A817" s="2" t="s">
         <v>3825</v>
       </c>
-      <c r="B817" s="2"/>
+      <c r="B817" s="15" t="s">
+        <v>4798</v>
+      </c>
       <c r="C817" s="2" t="s">
         <v>3826</v>
       </c>
@@ -48799,7 +49715,9 @@
       <c r="A818" s="2" t="s">
         <v>3830</v>
       </c>
-      <c r="B818" s="2"/>
+      <c r="B818" s="15" t="s">
+        <v>4799</v>
+      </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
       <c r="E818" s="4"/>
@@ -48835,7 +49753,9 @@
       <c r="A819" s="2" t="s">
         <v>3833</v>
       </c>
-      <c r="B819" s="2"/>
+      <c r="B819" s="15" t="s">
+        <v>4800</v>
+      </c>
       <c r="C819" s="2" t="s">
         <v>3834</v>
       </c>
@@ -48877,7 +49797,9 @@
       <c r="A820" s="2" t="s">
         <v>3839</v>
       </c>
-      <c r="B820" s="2"/>
+      <c r="B820" s="15" t="s">
+        <v>4801</v>
+      </c>
       <c r="C820" s="8" t="s">
         <v>3736</v>
       </c>
@@ -48917,7 +49839,9 @@
       <c r="A821" s="2" t="s">
         <v>3843</v>
       </c>
-      <c r="B821" s="2"/>
+      <c r="B821" s="15" t="s">
+        <v>4802</v>
+      </c>
       <c r="C821" s="8" t="s">
         <v>3844</v>
       </c>
@@ -48957,7 +49881,9 @@
       <c r="A822" s="2" t="s">
         <v>3849</v>
       </c>
-      <c r="B822" s="2"/>
+      <c r="B822" s="15" t="s">
+        <v>4803</v>
+      </c>
       <c r="C822" s="8" t="s">
         <v>3850</v>
       </c>
@@ -48997,7 +49923,9 @@
       <c r="A823" s="2" t="s">
         <v>3855</v>
       </c>
-      <c r="B823" s="2"/>
+      <c r="B823" s="15" t="s">
+        <v>4804</v>
+      </c>
       <c r="C823" s="8" t="s">
         <v>3736</v>
       </c>
@@ -49037,7 +49965,9 @@
       <c r="A824" s="2" t="s">
         <v>3860</v>
       </c>
-      <c r="B824" s="2"/>
+      <c r="B824" s="15" t="s">
+        <v>4805</v>
+      </c>
       <c r="C824" s="8" t="s">
         <v>2290</v>
       </c>
@@ -49077,7 +50007,9 @@
       <c r="A825" s="2" t="s">
         <v>3865</v>
       </c>
-      <c r="B825" s="2"/>
+      <c r="B825" s="15" t="s">
+        <v>4806</v>
+      </c>
       <c r="C825" s="8" t="s">
         <v>3700</v>
       </c>
@@ -49117,7 +50049,9 @@
       <c r="A826" s="2" t="s">
         <v>3870</v>
       </c>
-      <c r="B826" s="2"/>
+      <c r="B826" s="15" t="s">
+        <v>4807</v>
+      </c>
       <c r="C826" s="8" t="s">
         <v>3871</v>
       </c>
@@ -49157,7 +50091,9 @@
       <c r="A827" s="2" t="s">
         <v>3876</v>
       </c>
-      <c r="B827" s="2"/>
+      <c r="B827" s="15" t="s">
+        <v>4808</v>
+      </c>
       <c r="C827" s="8" t="s">
         <v>2384</v>
       </c>
@@ -49197,7 +50133,9 @@
       <c r="A828" s="2" t="s">
         <v>3881</v>
       </c>
-      <c r="B828" s="2"/>
+      <c r="B828" s="15" t="s">
+        <v>4809</v>
+      </c>
       <c r="C828" s="8" t="s">
         <v>2375</v>
       </c>
@@ -49237,7 +50175,9 @@
       <c r="A829" s="2" t="s">
         <v>3886</v>
       </c>
-      <c r="B829" s="2"/>
+      <c r="B829" s="15" t="s">
+        <v>4810</v>
+      </c>
       <c r="C829" s="8" t="s">
         <v>3887</v>
       </c>
@@ -49277,7 +50217,9 @@
       <c r="A830" s="2" t="s">
         <v>3892</v>
       </c>
-      <c r="B830" s="2"/>
+      <c r="B830" s="15" t="s">
+        <v>4811</v>
+      </c>
       <c r="C830" s="8" t="s">
         <v>3893</v>
       </c>
@@ -49317,7 +50259,9 @@
       <c r="A831" s="2" t="s">
         <v>3898</v>
       </c>
-      <c r="B831" s="2"/>
+      <c r="B831" s="15" t="s">
+        <v>4812</v>
+      </c>
       <c r="C831" s="8" t="s">
         <v>3899</v>
       </c>
@@ -49357,7 +50301,9 @@
       <c r="A832" s="2" t="s">
         <v>3904</v>
       </c>
-      <c r="B832" s="2"/>
+      <c r="B832" s="15" t="s">
+        <v>4813</v>
+      </c>
       <c r="C832" s="8" t="s">
         <v>3736</v>
       </c>
@@ -49397,7 +50343,9 @@
       <c r="A833" s="2" t="s">
         <v>3909</v>
       </c>
-      <c r="B833" s="2"/>
+      <c r="B833" s="15" t="s">
+        <v>4814</v>
+      </c>
       <c r="C833" s="8" t="s">
         <v>3910</v>
       </c>
@@ -49437,7 +50385,9 @@
       <c r="A834" s="2" t="s">
         <v>3915</v>
       </c>
-      <c r="B834" s="2"/>
+      <c r="B834" s="15" t="s">
+        <v>4815</v>
+      </c>
       <c r="G834" s="2" t="s">
         <v>3690</v>
       </c>
@@ -49468,7 +50418,9 @@
       <c r="A835" s="2" t="s">
         <v>3918</v>
       </c>
-      <c r="B835" s="2"/>
+      <c r="B835" s="15" t="s">
+        <v>4816</v>
+      </c>
       <c r="C835" s="8" t="s">
         <v>2375</v>
       </c>
@@ -49508,7 +50460,9 @@
       <c r="A836" s="2" t="s">
         <v>3922</v>
       </c>
-      <c r="B836" s="2"/>
+      <c r="B836" s="15" t="s">
+        <v>4817</v>
+      </c>
       <c r="C836" s="8" t="s">
         <v>2290</v>
       </c>
@@ -49548,7 +50502,9 @@
       <c r="A837" s="2" t="s">
         <v>3926</v>
       </c>
-      <c r="B837" s="2"/>
+      <c r="B837" s="15" t="s">
+        <v>4818</v>
+      </c>
       <c r="C837" s="8" t="s">
         <v>3927</v>
       </c>
@@ -49588,7 +50544,9 @@
       <c r="A838" s="2" t="s">
         <v>3932</v>
       </c>
-      <c r="B838" s="2"/>
+      <c r="B838" s="15" t="s">
+        <v>4819</v>
+      </c>
       <c r="C838" s="8" t="s">
         <v>3933</v>
       </c>
@@ -49628,7 +50586,9 @@
       <c r="A839" s="2" t="s">
         <v>3938</v>
       </c>
-      <c r="B839" s="2"/>
+      <c r="B839" s="15" t="s">
+        <v>4820</v>
+      </c>
       <c r="C839" s="8" t="s">
         <v>3736</v>
       </c>
@@ -49668,7 +50628,9 @@
       <c r="A840" s="2" t="s">
         <v>3943</v>
       </c>
-      <c r="B840" s="2"/>
+      <c r="B840" s="15" t="s">
+        <v>4821</v>
+      </c>
       <c r="C840" s="8" t="s">
         <v>3944</v>
       </c>
@@ -49708,7 +50670,9 @@
       <c r="A841" s="2" t="s">
         <v>3949</v>
       </c>
-      <c r="B841" s="2"/>
+      <c r="B841" s="15" t="s">
+        <v>4822</v>
+      </c>
       <c r="G841" s="2" t="s">
         <v>3690</v>
       </c>
@@ -49739,7 +50703,9 @@
       <c r="A842" s="2" t="s">
         <v>3952</v>
       </c>
-      <c r="B842" s="2"/>
+      <c r="B842" s="15" t="s">
+        <v>4823</v>
+      </c>
       <c r="C842" s="8" t="s">
         <v>3953</v>
       </c>
@@ -49779,7 +50745,9 @@
       <c r="A843" s="2" t="s">
         <v>3958</v>
       </c>
-      <c r="B843" s="2"/>
+      <c r="B843" s="15" t="s">
+        <v>4824</v>
+      </c>
       <c r="C843" s="8" t="s">
         <v>3959</v>
       </c>
@@ -49819,7 +50787,9 @@
       <c r="A844" s="2" t="s">
         <v>3964</v>
       </c>
-      <c r="B844" s="2"/>
+      <c r="B844" s="15" t="s">
+        <v>4825</v>
+      </c>
       <c r="C844" s="8" t="s">
         <v>3736</v>
       </c>
@@ -49859,7 +50829,9 @@
       <c r="A845" s="2" t="s">
         <v>3969</v>
       </c>
-      <c r="B845" s="2"/>
+      <c r="B845" s="15" t="s">
+        <v>4826</v>
+      </c>
       <c r="C845" s="8" t="s">
         <v>3706</v>
       </c>
@@ -49899,7 +50871,9 @@
       <c r="A846" s="2" t="s">
         <v>3973</v>
       </c>
-      <c r="B846" s="2"/>
+      <c r="B846" s="15" t="s">
+        <v>4827</v>
+      </c>
       <c r="C846" s="8" t="s">
         <v>3974</v>
       </c>
@@ -49939,7 +50913,9 @@
       <c r="A847" s="2" t="s">
         <v>3979</v>
       </c>
-      <c r="B847" s="2"/>
+      <c r="B847" s="15" t="s">
+        <v>4828</v>
+      </c>
       <c r="C847" s="8" t="s">
         <v>3534</v>
       </c>
@@ -49979,7 +50955,9 @@
       <c r="A848" s="2" t="s">
         <v>3984</v>
       </c>
-      <c r="B848" s="2"/>
+      <c r="B848" s="15" t="s">
+        <v>4829</v>
+      </c>
       <c r="C848" s="8" t="s">
         <v>3985</v>
       </c>
@@ -50019,7 +50997,9 @@
       <c r="A849" s="2" t="s">
         <v>3990</v>
       </c>
-      <c r="B849" s="2"/>
+      <c r="B849" s="15" t="s">
+        <v>4830</v>
+      </c>
       <c r="C849" s="8" t="s">
         <v>2375</v>
       </c>
@@ -50059,7 +51039,9 @@
       <c r="A850" s="2" t="s">
         <v>3993</v>
       </c>
-      <c r="B850" s="2"/>
+      <c r="B850" s="16" t="s">
+        <v>4831</v>
+      </c>
       <c r="C850" s="8" t="s">
         <v>3539</v>
       </c>
@@ -50096,7 +51078,9 @@
       <c r="A851" s="2" t="s">
         <v>3997</v>
       </c>
-      <c r="B851" s="2"/>
+      <c r="B851" s="16" t="s">
+        <v>4832</v>
+      </c>
       <c r="C851" s="8" t="s">
         <v>2345</v>
       </c>
@@ -50136,7 +51120,9 @@
       <c r="A852" s="2" t="s">
         <v>4001</v>
       </c>
-      <c r="B852" s="2"/>
+      <c r="B852" s="16" t="s">
+        <v>4833</v>
+      </c>
       <c r="C852" s="8" t="s">
         <v>4002</v>
       </c>
@@ -50176,7 +51162,9 @@
       <c r="A853" s="2" t="s">
         <v>4006</v>
       </c>
-      <c r="B853" s="2"/>
+      <c r="B853" s="16" t="s">
+        <v>4834</v>
+      </c>
       <c r="C853" s="8" t="s">
         <v>4007</v>
       </c>
@@ -50216,7 +51204,9 @@
       <c r="A854" s="2" t="s">
         <v>4011</v>
       </c>
-      <c r="B854" s="2"/>
+      <c r="B854" s="16" t="s">
+        <v>4835</v>
+      </c>
       <c r="C854" s="8" t="s">
         <v>3539</v>
       </c>
@@ -50256,7 +51246,9 @@
       <c r="A855" s="2" t="s">
         <v>4015</v>
       </c>
-      <c r="B855" s="2"/>
+      <c r="B855" s="16" t="s">
+        <v>4836</v>
+      </c>
       <c r="C855" s="8" t="s">
         <v>4016</v>
       </c>
@@ -50296,7 +51288,9 @@
       <c r="A856" s="2" t="s">
         <v>4020</v>
       </c>
-      <c r="B856" s="2"/>
+      <c r="B856" s="16" t="s">
+        <v>4837</v>
+      </c>
       <c r="C856" s="8" t="s">
         <v>3944</v>
       </c>
@@ -50336,7 +51330,9 @@
       <c r="A857" s="2" t="s">
         <v>4024</v>
       </c>
-      <c r="B857" s="2"/>
+      <c r="B857" s="16" t="s">
+        <v>4838</v>
+      </c>
       <c r="G857" s="2" t="s">
         <v>3690</v>
       </c>
@@ -50367,7 +51363,9 @@
       <c r="A858" s="2" t="s">
         <v>4027</v>
       </c>
-      <c r="B858" s="2"/>
+      <c r="B858" s="16" t="s">
+        <v>4839</v>
+      </c>
       <c r="C858" s="8" t="s">
         <v>4028</v>
       </c>
@@ -50401,7 +51399,9 @@
       <c r="A859" s="2" t="s">
         <v>4031</v>
       </c>
-      <c r="B859" s="2"/>
+      <c r="B859" s="17" t="s">
+        <v>4840</v>
+      </c>
       <c r="C859" s="2" t="s">
         <v>4032</v>
       </c>
@@ -50441,7 +51441,9 @@
       <c r="A860" s="2" t="s">
         <v>4037</v>
       </c>
-      <c r="B860" s="2"/>
+      <c r="B860" s="17" t="s">
+        <v>4841</v>
+      </c>
       <c r="C860" s="2" t="s">
         <v>4038</v>
       </c>
@@ -50483,7 +51485,9 @@
       <c r="A861" s="2" t="s">
         <v>4043</v>
       </c>
-      <c r="B861" s="2"/>
+      <c r="B861" s="17" t="s">
+        <v>4842</v>
+      </c>
       <c r="C861" s="2" t="s">
         <v>4044</v>
       </c>
@@ -50525,7 +51529,9 @@
       <c r="A862" s="2" t="s">
         <v>4049</v>
       </c>
-      <c r="B862" s="2"/>
+      <c r="B862" s="17" t="s">
+        <v>4843</v>
+      </c>
       <c r="C862" s="2" t="s">
         <v>4050</v>
       </c>
@@ -50565,7 +51571,9 @@
       <c r="A863" s="2" t="s">
         <v>4054</v>
       </c>
-      <c r="B863" s="2"/>
+      <c r="B863" s="17" t="s">
+        <v>4844</v>
+      </c>
       <c r="C863" s="2" t="s">
         <v>4050</v>
       </c>
@@ -50605,7 +51613,9 @@
       <c r="A864" s="2" t="s">
         <v>4057</v>
       </c>
-      <c r="B864" s="2"/>
+      <c r="B864" s="17" t="s">
+        <v>4845</v>
+      </c>
       <c r="C864" s="2" t="s">
         <v>841</v>
       </c>
@@ -50645,7 +51655,9 @@
       <c r="A865" s="2" t="s">
         <v>4061</v>
       </c>
-      <c r="B865" s="2"/>
+      <c r="B865" s="17" t="s">
+        <v>4846</v>
+      </c>
       <c r="C865" s="2" t="s">
         <v>2366</v>
       </c>
@@ -50685,7 +51697,9 @@
       <c r="A866" s="2" t="s">
         <v>4065</v>
       </c>
-      <c r="B866" s="2"/>
+      <c r="B866" s="17" t="s">
+        <v>4847</v>
+      </c>
       <c r="C866" s="2" t="s">
         <v>4066</v>
       </c>
@@ -50723,7 +51737,9 @@
       <c r="A867" s="2" t="s">
         <v>4069</v>
       </c>
-      <c r="B867" s="2"/>
+      <c r="B867" s="17" t="s">
+        <v>4848</v>
+      </c>
       <c r="C867" s="2" t="s">
         <v>4070</v>
       </c>
@@ -50763,7 +51779,9 @@
       <c r="A868" s="2" t="s">
         <v>4074</v>
       </c>
-      <c r="B868" s="2"/>
+      <c r="B868" s="17" t="s">
+        <v>4849</v>
+      </c>
       <c r="C868" s="2" t="s">
         <v>4075</v>
       </c>
@@ -50801,7 +51819,9 @@
       <c r="A869" s="2" t="s">
         <v>4078</v>
       </c>
-      <c r="B869" s="2"/>
+      <c r="B869" s="17" t="s">
+        <v>4850</v>
+      </c>
       <c r="C869" s="2" t="s">
         <v>4079</v>
       </c>
@@ -50841,7 +51861,9 @@
       <c r="A870" s="2" t="s">
         <v>4083</v>
       </c>
-      <c r="B870" s="2"/>
+      <c r="B870" s="17" t="s">
+        <v>4851</v>
+      </c>
       <c r="C870" s="2" t="s">
         <v>841</v>
       </c>
@@ -50881,7 +51903,9 @@
       <c r="A871" s="2" t="s">
         <v>4087</v>
       </c>
-      <c r="B871" s="2"/>
+      <c r="B871" s="17" t="s">
+        <v>4852</v>
+      </c>
       <c r="C871" s="2" t="s">
         <v>3408</v>
       </c>
@@ -50921,7 +51945,9 @@
       <c r="A872" s="2" t="s">
         <v>4091</v>
       </c>
-      <c r="B872" s="2"/>
+      <c r="B872" s="17" t="s">
+        <v>4853</v>
+      </c>
       <c r="C872" s="2" t="s">
         <v>4092</v>
       </c>
@@ -50959,7 +51985,9 @@
       <c r="A873" s="2" t="s">
         <v>4095</v>
       </c>
-      <c r="B873" s="2"/>
+      <c r="B873" s="17" t="s">
+        <v>4854</v>
+      </c>
       <c r="C873" s="2" t="s">
         <v>3741</v>
       </c>
@@ -50997,7 +52025,9 @@
       <c r="A874" s="2" t="s">
         <v>4098</v>
       </c>
-      <c r="B874" s="2"/>
+      <c r="B874" s="17" t="s">
+        <v>4855</v>
+      </c>
       <c r="C874" s="2" t="s">
         <v>4007</v>
       </c>
@@ -51037,7 +52067,9 @@
       <c r="A875" s="2" t="s">
         <v>4102</v>
       </c>
-      <c r="B875" s="2"/>
+      <c r="B875" s="17" t="s">
+        <v>4856</v>
+      </c>
       <c r="C875" s="2" t="s">
         <v>791</v>
       </c>
@@ -51077,7 +52109,9 @@
       <c r="A876" s="2" t="s">
         <v>4106</v>
       </c>
-      <c r="B876" s="2"/>
+      <c r="B876" s="17" t="s">
+        <v>4857</v>
+      </c>
       <c r="C876" s="2" t="s">
         <v>3534</v>
       </c>
@@ -51117,7 +52151,9 @@
       <c r="A877" s="2" t="s">
         <v>4110</v>
       </c>
-      <c r="B877" s="2"/>
+      <c r="B877" s="17" t="s">
+        <v>4858</v>
+      </c>
       <c r="C877" s="2" t="s">
         <v>4111</v>
       </c>
@@ -51157,7 +52193,9 @@
       <c r="A878" s="2" t="s">
         <v>4115</v>
       </c>
-      <c r="B878" s="2"/>
+      <c r="B878" s="17" t="s">
+        <v>4859</v>
+      </c>
       <c r="C878" s="2" t="s">
         <v>1887</v>
       </c>
@@ -51197,7 +52235,9 @@
       <c r="A879" s="2" t="s">
         <v>4119</v>
       </c>
-      <c r="B879" s="2"/>
+      <c r="B879" s="17" t="s">
+        <v>4860</v>
+      </c>
       <c r="C879" s="2" t="s">
         <v>3741</v>
       </c>
@@ -51239,7 +52279,9 @@
       <c r="A880" s="2" t="s">
         <v>4123</v>
       </c>
-      <c r="B880" s="2"/>
+      <c r="B880" s="17" t="s">
+        <v>4861</v>
+      </c>
       <c r="C880" s="2" t="s">
         <v>1999</v>
       </c>
@@ -51279,7 +52321,9 @@
       <c r="A881" s="2" t="s">
         <v>4127</v>
       </c>
-      <c r="B881" s="2"/>
+      <c r="B881" s="17" t="s">
+        <v>4862</v>
+      </c>
       <c r="C881" s="2" t="s">
         <v>1999</v>
       </c>
@@ -51321,7 +52365,9 @@
       <c r="A882" s="2" t="s">
         <v>4131</v>
       </c>
-      <c r="B882" s="2"/>
+      <c r="B882" s="17" t="s">
+        <v>4863</v>
+      </c>
       <c r="C882" s="2" t="s">
         <v>4132</v>
       </c>
@@ -51361,7 +52407,9 @@
       <c r="A883" s="2" t="s">
         <v>4136</v>
       </c>
-      <c r="B883" s="2"/>
+      <c r="B883" s="17" t="s">
+        <v>4864</v>
+      </c>
       <c r="C883" s="2" t="s">
         <v>4137</v>
       </c>
@@ -51401,7 +52449,9 @@
       <c r="A884" s="2" t="s">
         <v>4141</v>
       </c>
-      <c r="B884" s="2"/>
+      <c r="B884" s="17" t="s">
+        <v>4865</v>
+      </c>
       <c r="C884" s="2" t="s">
         <v>4142</v>
       </c>
@@ -51441,7 +52491,9 @@
       <c r="A885" s="2" t="s">
         <v>4145</v>
       </c>
-      <c r="B885" s="2"/>
+      <c r="B885" s="17" t="s">
+        <v>4866</v>
+      </c>
       <c r="C885" s="2" t="s">
         <v>4146</v>
       </c>
@@ -51481,7 +52533,9 @@
       <c r="A886" s="2" t="s">
         <v>4150</v>
       </c>
-      <c r="B886" s="2"/>
+      <c r="B886" s="17" t="s">
+        <v>4867</v>
+      </c>
       <c r="C886" s="2" t="s">
         <v>791</v>
       </c>
@@ -51521,7 +52575,9 @@
       <c r="A887" s="2" t="s">
         <v>4154</v>
       </c>
-      <c r="B887" s="2"/>
+      <c r="B887" s="17" t="s">
+        <v>4868</v>
+      </c>
       <c r="C887" s="2" t="s">
         <v>2366</v>
       </c>
@@ -51561,7 +52617,9 @@
       <c r="A888" s="2" t="s">
         <v>4158</v>
       </c>
-      <c r="B888" s="2"/>
+      <c r="B888" s="17" t="s">
+        <v>4869</v>
+      </c>
       <c r="C888" s="2" t="s">
         <v>2345</v>
       </c>
@@ -51601,7 +52659,9 @@
       <c r="A889" s="2" t="s">
         <v>4162</v>
       </c>
-      <c r="B889" s="2"/>
+      <c r="B889" s="17" t="s">
+        <v>4870</v>
+      </c>
       <c r="C889" s="7" t="s">
         <v>4163</v>
       </c>
@@ -51643,7 +52703,9 @@
       <c r="A890" s="2" t="s">
         <v>4168</v>
       </c>
-      <c r="B890" s="2"/>
+      <c r="B890" s="17" t="s">
+        <v>4871</v>
+      </c>
       <c r="C890" s="7" t="s">
         <v>4169</v>
       </c>
@@ -51683,7 +52745,9 @@
       <c r="A891" s="2" t="s">
         <v>4173</v>
       </c>
-      <c r="B891" s="2"/>
+      <c r="B891" s="17" t="s">
+        <v>4872</v>
+      </c>
       <c r="C891" s="7" t="s">
         <v>841</v>
       </c>
@@ -51723,7 +52787,9 @@
       <c r="A892" s="2" t="s">
         <v>4177</v>
       </c>
-      <c r="B892" s="2"/>
+      <c r="B892" s="17" t="s">
+        <v>4873</v>
+      </c>
       <c r="C892" s="7" t="s">
         <v>4178</v>
       </c>
@@ -51763,7 +52829,9 @@
       <c r="A893" s="2" t="s">
         <v>4182</v>
       </c>
-      <c r="B893" s="2"/>
+      <c r="B893" s="17" t="s">
+        <v>4874</v>
+      </c>
       <c r="C893" s="7" t="s">
         <v>841</v>
       </c>
@@ -51803,7 +52871,9 @@
       <c r="A894" s="2" t="s">
         <v>4185</v>
       </c>
-      <c r="B894" s="2"/>
+      <c r="B894" s="17" t="s">
+        <v>4875</v>
+      </c>
       <c r="C894" s="7" t="s">
         <v>4186</v>
       </c>
@@ -51839,7 +52909,9 @@
       <c r="A895" s="2" t="s">
         <v>4188</v>
       </c>
-      <c r="B895" s="2"/>
+      <c r="B895" s="17" t="s">
+        <v>4876</v>
+      </c>
       <c r="C895" s="7" t="s">
         <v>15</v>
       </c>
@@ -51879,7 +52951,9 @@
       <c r="A896" s="2" t="s">
         <v>4191</v>
       </c>
-      <c r="B896" s="2"/>
+      <c r="B896" s="17" t="s">
+        <v>4877</v>
+      </c>
       <c r="C896" s="7" t="s">
         <v>3586</v>
       </c>
@@ -51919,7 +52993,9 @@
       <c r="A897" s="2" t="s">
         <v>4195</v>
       </c>
-      <c r="B897" s="2"/>
+      <c r="B897" s="17" t="s">
+        <v>4878</v>
+      </c>
       <c r="C897" s="7" t="s">
         <v>3741</v>
       </c>
@@ -51959,7 +53035,9 @@
       <c r="A898" s="2" t="s">
         <v>4199</v>
       </c>
-      <c r="B898" s="2"/>
+      <c r="B898" s="17" t="s">
+        <v>4879</v>
+      </c>
       <c r="C898" s="7" t="s">
         <v>841</v>
       </c>
@@ -51999,7 +53077,9 @@
       <c r="A899" s="2" t="s">
         <v>4203</v>
       </c>
-      <c r="B899" s="2"/>
+      <c r="B899" s="17" t="s">
+        <v>4880</v>
+      </c>
       <c r="C899" s="7" t="s">
         <v>4204</v>
       </c>
@@ -52039,7 +53119,9 @@
       <c r="A900" s="2" t="s">
         <v>4208</v>
       </c>
-      <c r="B900" s="2"/>
+      <c r="B900" s="17" t="s">
+        <v>4881</v>
+      </c>
       <c r="C900" s="7" t="s">
         <v>2384</v>
       </c>
@@ -52079,7 +53161,9 @@
       <c r="A901" s="2" t="s">
         <v>4212</v>
       </c>
-      <c r="B901" s="2"/>
+      <c r="B901" s="17" t="s">
+        <v>4882</v>
+      </c>
       <c r="C901" s="7" t="s">
         <v>4213</v>
       </c>
@@ -52121,7 +53205,9 @@
       <c r="A902" s="2" t="s">
         <v>4217</v>
       </c>
-      <c r="B902" s="2"/>
+      <c r="B902" s="17" t="s">
+        <v>4883</v>
+      </c>
       <c r="C902" s="7" t="s">
         <v>4218</v>
       </c>
@@ -52161,7 +53247,9 @@
       <c r="A903" s="2" t="s">
         <v>4221</v>
       </c>
-      <c r="B903" s="2"/>
+      <c r="B903" s="17" t="s">
+        <v>4884</v>
+      </c>
       <c r="C903" s="7" t="s">
         <v>4222</v>
       </c>
@@ -52201,7 +53289,9 @@
       <c r="A904" s="2" t="s">
         <v>4226</v>
       </c>
-      <c r="B904" s="2"/>
+      <c r="B904" s="17" t="s">
+        <v>4885</v>
+      </c>
       <c r="C904" s="7" t="s">
         <v>932</v>
       </c>
@@ -52241,7 +53331,9 @@
       <c r="A905" s="2" t="s">
         <v>4230</v>
       </c>
-      <c r="B905" s="2"/>
+      <c r="B905" s="17" t="s">
+        <v>4886</v>
+      </c>
       <c r="C905" s="7" t="s">
         <v>4075</v>
       </c>
@@ -52281,7 +53373,9 @@
       <c r="A906" s="2" t="s">
         <v>4234</v>
       </c>
-      <c r="B906" s="2"/>
+      <c r="B906" s="17" t="s">
+        <v>4887</v>
+      </c>
       <c r="C906" s="7" t="s">
         <v>841</v>
       </c>
@@ -52321,7 +53415,9 @@
       <c r="A907" s="2" t="s">
         <v>4238</v>
       </c>
-      <c r="B907" s="2"/>
+      <c r="B907" s="17" t="s">
+        <v>4888</v>
+      </c>
       <c r="C907" s="7" t="s">
         <v>791</v>
       </c>
@@ -52361,7 +53457,9 @@
       <c r="A908" s="2" t="s">
         <v>4241</v>
       </c>
-      <c r="B908" s="2"/>
+      <c r="B908" s="17" t="s">
+        <v>4889</v>
+      </c>
       <c r="C908" s="7" t="s">
         <v>2290</v>
       </c>
@@ -52401,7 +53499,9 @@
       <c r="A909" s="2" t="s">
         <v>4245</v>
       </c>
-      <c r="B909" s="2"/>
+      <c r="B909" s="17" t="s">
+        <v>4890</v>
+      </c>
       <c r="C909" s="7" t="s">
         <v>4246</v>
       </c>
@@ -55366,6 +56466,105 @@
     <hyperlink ref="B688" r:id="rId685" xr:uid="{ED0AB1EA-C899-4524-AA41-465F6EAA271A}"/>
     <hyperlink ref="B689" r:id="rId686" xr:uid="{4C3E6216-14D2-4740-B585-89AB3199E25B}"/>
     <hyperlink ref="B690" r:id="rId687" xr:uid="{DE670748-8B1F-4B8F-9D83-E4372E7E0EC4}"/>
+    <hyperlink ref="B691" r:id="rId688" xr:uid="{88921EA4-EFEE-4BDA-8700-9800E7FC7391}"/>
+    <hyperlink ref="B692" r:id="rId689" xr:uid="{FBA6144A-F68B-474E-B395-E3E1DAE793DE}"/>
+    <hyperlink ref="B693" r:id="rId690" xr:uid="{836A7761-7D61-4062-AB13-EEE3339295AD}"/>
+    <hyperlink ref="B694" r:id="rId691" xr:uid="{CA22E4D4-8B0C-4FEB-AE3E-80111341685B}"/>
+    <hyperlink ref="B695" r:id="rId692" xr:uid="{BCED1EAF-80D1-4CD0-8CD6-9713EAA5C92C}"/>
+    <hyperlink ref="B696" r:id="rId693" xr:uid="{3C21BE34-7AA8-48A6-A0A8-08ED062C474E}"/>
+    <hyperlink ref="B697" r:id="rId694" xr:uid="{55464EB5-442D-4CB3-8957-2C32C0771DFD}"/>
+    <hyperlink ref="B698" r:id="rId695" xr:uid="{C31BB333-83CE-4861-848E-A7D8CCC48E3F}"/>
+    <hyperlink ref="B699" r:id="rId696" xr:uid="{BB674D54-A64A-4EC8-AB6C-6B438CD31D4A}"/>
+    <hyperlink ref="B700" r:id="rId697" xr:uid="{4F2EFD64-91D3-46A2-80D3-C915EE81A2A8}"/>
+    <hyperlink ref="B701" r:id="rId698" xr:uid="{BB3F7A82-5A98-47A9-8E0D-5B0F43479D77}"/>
+    <hyperlink ref="B702" r:id="rId699" xr:uid="{783448B5-3043-48F1-93BC-C8B4B92E301A}"/>
+    <hyperlink ref="B703" r:id="rId700" xr:uid="{4C459BEF-852D-44CE-9BE0-1CF5B60A9D98}"/>
+    <hyperlink ref="B704" r:id="rId701" xr:uid="{BEAF319F-91E8-407B-ABF3-C95429919EBE}"/>
+    <hyperlink ref="B705" r:id="rId702" xr:uid="{196587EA-0233-4F8E-9E69-5395426A8E0F}"/>
+    <hyperlink ref="B706" r:id="rId703" xr:uid="{B6C81045-923C-4FC7-AE11-03FF8E171D9A}"/>
+    <hyperlink ref="B707" r:id="rId704" xr:uid="{10AF1E3A-7101-4809-9443-1AF3BC1CCEE3}"/>
+    <hyperlink ref="B708" r:id="rId705" xr:uid="{2ED07690-36BD-475F-A18F-081FFF062748}"/>
+    <hyperlink ref="B709" r:id="rId706" xr:uid="{315A72F3-B62B-45F1-B00D-5461A5619ECD}"/>
+    <hyperlink ref="B710" r:id="rId707" xr:uid="{E6B12FB3-8280-43CC-81AA-CA41C9CB14C6}"/>
+    <hyperlink ref="B711" r:id="rId708" xr:uid="{182815C9-F54B-43CA-B37F-AE959B82285F}"/>
+    <hyperlink ref="B712" r:id="rId709" xr:uid="{7F657AEA-D34D-426A-8570-83D378C1E628}"/>
+    <hyperlink ref="B713" r:id="rId710" xr:uid="{13953495-5BE9-4AD9-94EC-F1ABF7F8EA81}"/>
+    <hyperlink ref="B714" r:id="rId711" xr:uid="{1A86A10B-CBD5-4592-982A-22EC5E432E6F}"/>
+    <hyperlink ref="B715" r:id="rId712" xr:uid="{B91E1A06-EE4B-4CAC-9E93-30A54C67D82D}"/>
+    <hyperlink ref="B716" r:id="rId713" xr:uid="{6BF1C4D7-5ADF-4644-BE3A-DC0872CD8F3A}"/>
+    <hyperlink ref="B717" r:id="rId714" xr:uid="{ED51282B-4861-4B18-9033-D29E2CEDDB65}"/>
+    <hyperlink ref="B718" r:id="rId715" xr:uid="{7B465C68-F0CB-48C3-9711-531C1C5565C9}"/>
+    <hyperlink ref="B719" r:id="rId716" xr:uid="{42B235B9-2382-477F-93A7-D0107686B8F7}"/>
+    <hyperlink ref="B720" r:id="rId717" xr:uid="{3E4FB59D-B0F0-41DE-B7BA-DA4650806346}"/>
+    <hyperlink ref="B721" r:id="rId718" xr:uid="{51DA2EF3-410F-4BE7-B625-EF5C575E5B63}"/>
+    <hyperlink ref="B722" r:id="rId719" xr:uid="{A861C130-6F3B-4D6A-B1C3-FA89A35832BE}"/>
+    <hyperlink ref="B723" r:id="rId720" xr:uid="{5DEE73AD-A8B9-40DB-844A-8AAF36F77DE2}"/>
+    <hyperlink ref="B724" r:id="rId721" xr:uid="{49963601-95BA-4825-A0E6-86AF0232BFBA}"/>
+    <hyperlink ref="B725" r:id="rId722" xr:uid="{637EB6CD-0CA2-480F-92CA-3DC91580074A}"/>
+    <hyperlink ref="B726" r:id="rId723" xr:uid="{752BC2FC-9158-4095-9C74-07975641D703}"/>
+    <hyperlink ref="B727" r:id="rId724" xr:uid="{EBEFE4F1-9424-42A5-858B-D46C455E245A}"/>
+    <hyperlink ref="B728" r:id="rId725" xr:uid="{33E185C0-C9A5-4DA5-85C5-9C24EB88E724}"/>
+    <hyperlink ref="B729" r:id="rId726" xr:uid="{C1C8CFBF-DA5F-48A3-A3FF-9F112D309D89}"/>
+    <hyperlink ref="B730" r:id="rId727" xr:uid="{D9124222-8BB9-4721-A401-5A7C9C54D82C}"/>
+    <hyperlink ref="B731" r:id="rId728" xr:uid="{ED528B0D-7736-408D-AF8A-C54BDB37451D}"/>
+    <hyperlink ref="B732" r:id="rId729" xr:uid="{DE1CFB08-64E5-4F14-9147-B7EDF8EC927A}"/>
+    <hyperlink ref="B733" r:id="rId730" xr:uid="{5740ED40-FE84-4D96-954B-2CD9709843B8}"/>
+    <hyperlink ref="B734" r:id="rId731" xr:uid="{D12D97E9-2AC5-4037-B66A-1F180126A837}"/>
+    <hyperlink ref="B735" r:id="rId732" xr:uid="{7B17162D-7485-4E01-8F6F-0C92687416E4}"/>
+    <hyperlink ref="B736" r:id="rId733" xr:uid="{A7775C4A-88F4-4897-BB5A-88316A7306D6}"/>
+    <hyperlink ref="B737" r:id="rId734" xr:uid="{12135989-3CFC-4D34-82E6-FAE7C3DE23D8}"/>
+    <hyperlink ref="B738" r:id="rId735" xr:uid="{E36CCE7E-B6C1-49EB-B490-9D067E02EF43}"/>
+    <hyperlink ref="B739" r:id="rId736" xr:uid="{FF7D1380-9914-49D4-87A5-1FCFD05D12AD}"/>
+    <hyperlink ref="B740" r:id="rId737" xr:uid="{72F5D918-E8E5-4707-BEBD-D94CD2134282}"/>
+    <hyperlink ref="B741" r:id="rId738" xr:uid="{8A7FE016-60E3-42B1-BD9D-50EF21C2CFA2}"/>
+    <hyperlink ref="B742" r:id="rId739" xr:uid="{E2F3C16F-1F92-44EA-A447-48C2BB12E6B4}"/>
+    <hyperlink ref="B743" r:id="rId740" xr:uid="{7D4DCFCF-6031-4D6C-852C-04ECE89F8DFD}"/>
+    <hyperlink ref="B744" r:id="rId741" xr:uid="{71FA8B6D-2FE1-434C-824D-0B06D5F48CFB}"/>
+    <hyperlink ref="B745" r:id="rId742" xr:uid="{B5C489DF-55D2-4DB2-9F2C-F54019750B95}"/>
+    <hyperlink ref="B746" r:id="rId743" xr:uid="{AC95D8EF-F311-4CA4-8C1C-EFF22969F6A1}"/>
+    <hyperlink ref="B747" r:id="rId744" xr:uid="{7E03CB2E-B663-4B25-8AC2-0118D831F0F3}"/>
+    <hyperlink ref="B748" r:id="rId745" xr:uid="{D4297AB9-FDFB-49A5-B624-CE8736279BE2}"/>
+    <hyperlink ref="B749" r:id="rId746" xr:uid="{6A72DE1C-D50A-4C47-B286-24DFC0772348}"/>
+    <hyperlink ref="B750" r:id="rId747" xr:uid="{E41692C1-921E-4F17-A956-8C654B3F5C65}"/>
+    <hyperlink ref="B752" r:id="rId748" xr:uid="{65D4B0A3-5962-4418-A90E-C6961716DB95}"/>
+    <hyperlink ref="B753" r:id="rId749" xr:uid="{7B7F9910-CA8B-40F9-BBD7-CCF955E1CE36}"/>
+    <hyperlink ref="B754" r:id="rId750" xr:uid="{C77FC73C-3521-4707-B5F2-F88269D4128D}"/>
+    <hyperlink ref="B755" r:id="rId751" xr:uid="{71469623-D69D-49C2-BCB8-6A6F6D4697D0}"/>
+    <hyperlink ref="B756" r:id="rId752" xr:uid="{C4B89327-EC47-4534-874C-A6B9E9864726}"/>
+    <hyperlink ref="B757" r:id="rId753" xr:uid="{4593035D-A364-4CEA-B3E7-1660514CF6DE}"/>
+    <hyperlink ref="B758" r:id="rId754" xr:uid="{ED61E8DA-6E1F-4365-9FB6-E39B7274713D}"/>
+    <hyperlink ref="B759" r:id="rId755" xr:uid="{ED3D10B5-0BEA-4849-8598-2505C43BDDD2}"/>
+    <hyperlink ref="B760" r:id="rId756" xr:uid="{7BB86BBC-1D02-4D29-BC77-6749EB4445FC}"/>
+    <hyperlink ref="B761" r:id="rId757" xr:uid="{FD590235-3F62-4F96-A4CF-ED2665F72480}"/>
+    <hyperlink ref="B762" r:id="rId758" xr:uid="{24002480-F247-4A0D-87DC-0F54F1C4CD74}"/>
+    <hyperlink ref="B763" r:id="rId759" xr:uid="{DE8C7315-6CE6-4B59-8E39-D12315A07914}"/>
+    <hyperlink ref="B764" r:id="rId760" xr:uid="{B9CD158F-1473-4688-B0CE-066DBD9DF077}"/>
+    <hyperlink ref="B765" r:id="rId761" xr:uid="{A306A842-7D82-4CC6-8480-4B4CE8215035}"/>
+    <hyperlink ref="B766" r:id="rId762" xr:uid="{2CB140F8-A45A-4229-BD70-FD2943999656}"/>
+    <hyperlink ref="B768" r:id="rId763" xr:uid="{432B2204-C0C5-44F1-9F00-6C43B939CC42}"/>
+    <hyperlink ref="B769" r:id="rId764" xr:uid="{2B735519-3224-4E87-842A-A7CCD77BC586}"/>
+    <hyperlink ref="B767" r:id="rId765" xr:uid="{F99E0568-FC74-4C1D-9D48-1FC1BCDD87F8}"/>
+    <hyperlink ref="B772" r:id="rId766" xr:uid="{E1DAB932-3906-4C2D-947C-37EB01F10406}"/>
+    <hyperlink ref="B771" r:id="rId767" xr:uid="{178F0C4B-85F9-4AF6-884A-18D91E902EFF}"/>
+    <hyperlink ref="B770" r:id="rId768" xr:uid="{581D824F-F05E-445E-AFB5-96B5D0DB297D}"/>
+    <hyperlink ref="B545" r:id="rId769" xr:uid="{EEEA0671-AE5A-42FD-BC4A-C62B9DDF1128}"/>
+    <hyperlink ref="B773" r:id="rId770" xr:uid="{F737217C-1175-449C-8379-D1E7B28B2A6F}"/>
+    <hyperlink ref="B774" r:id="rId771" xr:uid="{CE8FD92A-F641-44EF-BC81-C05927341B53}"/>
+    <hyperlink ref="B775" r:id="rId772" xr:uid="{E2094C8F-B60D-425E-925E-0FFC85C078D7}"/>
+    <hyperlink ref="B776" r:id="rId773" xr:uid="{12E5AA85-52DA-4654-B592-4143EC30AE43}"/>
+    <hyperlink ref="B777" r:id="rId774" xr:uid="{8F50AA09-D7E6-4B94-B525-9213378437FB}"/>
+    <hyperlink ref="B778" r:id="rId775" xr:uid="{372EEBF2-94F7-403C-AA56-762621BFDFDF}"/>
+    <hyperlink ref="B779" r:id="rId776" xr:uid="{F39EDE4C-33B1-4425-BD8A-DD6C0C654869}"/>
+    <hyperlink ref="B780" r:id="rId777" xr:uid="{0C6265AE-7FA7-4ACB-AFEB-A33FCA137C77}"/>
+    <hyperlink ref="B781" r:id="rId778" xr:uid="{9D53B25F-ED98-4C7A-A42A-98515191EECD}"/>
+    <hyperlink ref="B782" r:id="rId779" xr:uid="{D65EE846-5937-4F5D-8B50-7D83F1878E7D}"/>
+    <hyperlink ref="B783" r:id="rId780" xr:uid="{10A0EFF8-E1D4-461F-992C-D59302895397}"/>
+    <hyperlink ref="B784" r:id="rId781" xr:uid="{B43AD30C-F7DB-4B76-B14A-45B8ED6DE718}"/>
+    <hyperlink ref="B785" r:id="rId782" xr:uid="{3FBB5076-7E30-4191-B633-6F8F7A5A5FD3}"/>
+    <hyperlink ref="B786" r:id="rId783" xr:uid="{EEBB56E7-B10C-43D0-B3DD-0D12B643C50C}"/>
+    <hyperlink ref="B787" r:id="rId784" xr:uid="{1577821F-BBD9-4110-9B54-F58F6AD1DCF2}"/>
+    <hyperlink ref="B788" r:id="rId785" xr:uid="{F2A96A3A-3073-4D1D-81DB-DB0CE3D3FBCB}"/>
+    <hyperlink ref="B789" r:id="rId786" xr:uid="{681938C4-AE00-4E7D-ADC6-9A2DDF8ADEBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
